--- a/VentasLETTAShop.xlsx
+++ b/VentasLETTAShop.xlsx
@@ -127,7 +127,7 @@
     <t>_Balerinas trenzadas negras H&amp;M</t>
   </si>
   <si>
-    <t>7_38</t>
+    <t>Talla 7_38</t>
   </si>
   <si>
     <t>YNIR22</t>
@@ -142,13 +142,13 @@
     <t>_Sandalias hawainas negras H&amp;M</t>
   </si>
   <si>
-    <t>10/10.5_43/44</t>
+    <t>Talla 10/10.5_43/44</t>
   </si>
   <si>
     <t>YNIR24</t>
   </si>
   <si>
-    <t>11.5/12_45/46</t>
+    <t>Talla 11.5/12_45/46</t>
   </si>
   <si>
     <t>YNIR25</t>
@@ -160,7 +160,7 @@
     <t>YNIR26</t>
   </si>
   <si>
-    <t>9_40</t>
+    <t>Talla 9_40</t>
   </si>
   <si>
     <t>YNIR27</t>
@@ -169,13 +169,13 @@
     <t>_Balerinas trenzadas beige claro H&amp;M</t>
   </si>
   <si>
-    <t>5_36</t>
+    <t>Talla 5_36</t>
   </si>
   <si>
     <t>YNIR28</t>
   </si>
   <si>
-    <t>10_41</t>
+    <t>Talla 10_41</t>
   </si>
   <si>
     <t>YNIR29</t>
@@ -190,7 +190,7 @@
     <t>_Balerinas beige estilo Mary Janes trenzadas de saco H&amp;M</t>
   </si>
   <si>
-    <t>8_39</t>
+    <t>Talla 8_39</t>
   </si>
   <si>
     <t>YNIR31</t>
@@ -205,7 +205,7 @@
     <t>_Sandalias trenzadas marrón oscuro H&amp;M</t>
   </si>
   <si>
-    <t>6_37</t>
+    <t>Talla 6_37</t>
   </si>
   <si>
     <t>YNIR33</t>
@@ -405,9 +405,9 @@
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.0"/>
     <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -466,9 +466,24 @@
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,6 +511,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -512,33 +535,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -550,23 +559,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,15 +581,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -602,15 +595,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="42">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -655,12 +655,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor theme="5" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -673,7 +667,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,7 +691,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,7 +757,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,151 +835,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,15 +944,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -976,6 +955,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -994,168 +993,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1225,46 +1213,43 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="177" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1983,10 +1968,16 @@
   <dimension ref="A1:AC45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:AC1"/>
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="41.53125" customWidth="1"/>
+    <col min="6" max="6" width="26.171875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="116" spans="1:29">
       <c r="A1" s="1" t="s">
@@ -2049,7 +2040,7 @@
       <c r="T1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="U1" s="30" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="11" t="s">
@@ -2114,24 +2105,24 @@
       </c>
       <c r="M2" s="23"/>
       <c r="N2" s="24"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="26"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="25"/>
       <c r="S2" s="24"/>
       <c r="T2" s="24"/>
       <c r="U2" s="24"/>
-      <c r="V2" s="32">
+      <c r="V2" s="31">
         <f t="shared" ref="V2:V26" si="1">H2</f>
         <v>40</v>
       </c>
       <c r="W2" s="24"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="36"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="35"/>
     </row>
     <row r="3" ht="118" spans="1:29">
       <c r="A3" s="5" t="s">
@@ -2169,25 +2160,25 @@
         <v>2</v>
       </c>
       <c r="M3" s="23"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="32">
+      <c r="N3" s="26"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="31">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="W3" s="27"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="36"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="35"/>
     </row>
     <row r="4" ht="236" spans="1:29">
       <c r="A4" s="5" t="s">
@@ -2226,24 +2217,24 @@
       </c>
       <c r="M4" s="23"/>
       <c r="N4" s="24"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="26"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="25"/>
       <c r="S4" s="24"/>
       <c r="T4" s="24"/>
       <c r="U4" s="24"/>
-      <c r="V4" s="32">
+      <c r="V4" s="31">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="W4" s="24"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="36"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="35"/>
     </row>
     <row r="5" ht="118" spans="1:29">
       <c r="A5" s="5" t="s">
@@ -2281,25 +2272,25 @@
         <v>1</v>
       </c>
       <c r="M5" s="23"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="32">
+      <c r="N5" s="26"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="31">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="W5" s="27"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="36"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="35"/>
     </row>
     <row r="6" ht="118" spans="1:29">
       <c r="A6" s="5" t="s">
@@ -2338,24 +2329,24 @@
       </c>
       <c r="M6" s="23"/>
       <c r="N6" s="24"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="26"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="25"/>
       <c r="S6" s="24"/>
       <c r="T6" s="24"/>
       <c r="U6" s="24"/>
-      <c r="V6" s="32">
+      <c r="V6" s="31">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="W6" s="24"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="36"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="35"/>
     </row>
     <row r="7" ht="196" spans="1:29">
       <c r="A7" s="5" t="s">
@@ -2393,25 +2384,25 @@
         <v>1</v>
       </c>
       <c r="M7" s="23"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="32">
+      <c r="N7" s="26"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="31">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="W7" s="27"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="36"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="35"/>
     </row>
     <row r="8" ht="196" spans="1:29">
       <c r="A8" s="5" t="s">
@@ -2450,24 +2441,24 @@
       </c>
       <c r="M8" s="23"/>
       <c r="N8" s="24"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="26"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="25"/>
       <c r="S8" s="24"/>
       <c r="T8" s="24"/>
       <c r="U8" s="24"/>
-      <c r="V8" s="32">
+      <c r="V8" s="31">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="W8" s="24"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="36"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="35"/>
     </row>
     <row r="9" ht="138" spans="1:29">
       <c r="A9" s="5" t="s">
@@ -2505,25 +2496,25 @@
         <v>1</v>
       </c>
       <c r="M9" s="23"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="32">
+      <c r="N9" s="26"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="31">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="W9" s="27"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="36"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="35"/>
     </row>
     <row r="10" ht="138" spans="1:29">
       <c r="A10" s="5" t="s">
@@ -2562,24 +2553,24 @@
       </c>
       <c r="M10" s="23"/>
       <c r="N10" s="24"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="26"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="25"/>
       <c r="S10" s="24"/>
       <c r="T10" s="24"/>
       <c r="U10" s="24"/>
-      <c r="V10" s="32">
+      <c r="V10" s="31">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="W10" s="24"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="35"/>
-      <c r="AC10" s="36"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="35"/>
     </row>
     <row r="11" ht="196" spans="1:29">
       <c r="A11" s="5" t="s">
@@ -2617,25 +2608,25 @@
         <v>1</v>
       </c>
       <c r="M11" s="23"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="32">
+      <c r="N11" s="26"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="31">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="W11" s="27"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="36"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="35"/>
     </row>
     <row r="12" ht="196" spans="1:29">
       <c r="A12" s="5" t="s">
@@ -2674,24 +2665,24 @@
       </c>
       <c r="M12" s="23"/>
       <c r="N12" s="24"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="26"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="25"/>
       <c r="S12" s="24"/>
       <c r="T12" s="24"/>
       <c r="U12" s="24"/>
-      <c r="V12" s="32">
+      <c r="V12" s="31">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="W12" s="24"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="36"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="35"/>
     </row>
     <row r="13" ht="157" spans="1:29">
       <c r="A13" s="5" t="s">
@@ -2729,25 +2720,25 @@
         <v>1</v>
       </c>
       <c r="M13" s="23"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="32">
+      <c r="N13" s="26"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="31">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="W13" s="27"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="36"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="35"/>
     </row>
     <row r="14" ht="138" spans="1:29">
       <c r="A14" s="5" t="s">
@@ -2786,24 +2777,24 @@
       </c>
       <c r="M14" s="23"/>
       <c r="N14" s="24"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="26"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="25"/>
       <c r="S14" s="24"/>
       <c r="T14" s="24"/>
       <c r="U14" s="24"/>
-      <c r="V14" s="32">
+      <c r="V14" s="31">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="W14" s="24"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="36"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="35"/>
     </row>
     <row r="15" ht="138" spans="1:29">
       <c r="A15" s="5" t="s">
@@ -2841,25 +2832,25 @@
         <v>1</v>
       </c>
       <c r="M15" s="23"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="32">
+      <c r="N15" s="26"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="31">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="W15" s="27"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="36"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="35"/>
     </row>
     <row r="16" ht="118" spans="1:29">
       <c r="A16" s="5" t="s">
@@ -2898,24 +2889,24 @@
       </c>
       <c r="M16" s="23"/>
       <c r="N16" s="24"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="26"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="25"/>
       <c r="S16" s="24"/>
       <c r="T16" s="24"/>
       <c r="U16" s="24"/>
-      <c r="V16" s="32">
+      <c r="V16" s="31">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="W16" s="24"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="36"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="35"/>
     </row>
     <row r="17" ht="79" spans="1:29">
       <c r="A17" s="5" t="s">
@@ -2953,25 +2944,25 @@
         <v>2</v>
       </c>
       <c r="M17" s="23"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="32">
+      <c r="N17" s="26"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="31">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="W17" s="27"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="36"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="35"/>
     </row>
     <row r="18" ht="79" spans="1:29">
       <c r="A18" s="5" t="s">
@@ -3010,24 +3001,24 @@
       </c>
       <c r="M18" s="23"/>
       <c r="N18" s="24"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="26"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="25"/>
       <c r="S18" s="24"/>
       <c r="T18" s="24"/>
       <c r="U18" s="24"/>
-      <c r="V18" s="32">
+      <c r="V18" s="31">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="W18" s="24"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="36"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="35"/>
     </row>
     <row r="19" ht="157" spans="1:29">
       <c r="A19" s="5" t="s">
@@ -3065,25 +3056,25 @@
         <v>1</v>
       </c>
       <c r="M19" s="23"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="32">
+      <c r="N19" s="26"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="31">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="W19" s="27"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="36"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="35"/>
     </row>
     <row r="20" ht="138" spans="1:29">
       <c r="A20" s="5" t="s">
@@ -3122,24 +3113,24 @@
       </c>
       <c r="M20" s="23"/>
       <c r="N20" s="24"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="26"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="25"/>
       <c r="S20" s="24"/>
       <c r="T20" s="24"/>
       <c r="U20" s="24"/>
-      <c r="V20" s="32">
+      <c r="V20" s="31">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="W20" s="24"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="26"/>
-      <c r="AB20" s="35"/>
-      <c r="AC20" s="36"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="33"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="35"/>
     </row>
     <row r="21" ht="236" spans="1:29">
       <c r="A21" s="5" t="s">
@@ -3177,25 +3168,25 @@
         <v>2</v>
       </c>
       <c r="M21" s="23"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="32">
+      <c r="N21" s="26"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="31">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="W21" s="27"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="36"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="33"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="35"/>
     </row>
     <row r="22" ht="157" spans="1:29">
       <c r="A22" s="5" t="s">
@@ -3234,24 +3225,24 @@
       </c>
       <c r="M22" s="23"/>
       <c r="N22" s="24"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="26"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="25"/>
       <c r="S22" s="24"/>
       <c r="T22" s="24"/>
       <c r="U22" s="24"/>
-      <c r="V22" s="32">
+      <c r="V22" s="31">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="W22" s="24"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="36"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="34"/>
+      <c r="AC22" s="35"/>
     </row>
     <row r="23" ht="118" spans="1:29">
       <c r="A23" s="5" t="s">
@@ -3289,25 +3280,25 @@
         <v>1</v>
       </c>
       <c r="M23" s="23"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="32">
+      <c r="N23" s="26"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="31">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="W23" s="27"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="36"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="35"/>
     </row>
     <row r="24" ht="177" spans="1:29">
       <c r="A24" s="5" t="s">
@@ -3346,24 +3337,24 @@
       </c>
       <c r="M24" s="23"/>
       <c r="N24" s="24"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="26"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="25"/>
       <c r="S24" s="24"/>
       <c r="T24" s="24"/>
       <c r="U24" s="24"/>
-      <c r="V24" s="32">
+      <c r="V24" s="31">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="W24" s="24"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="35"/>
-      <c r="AC24" s="36"/>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="34"/>
+      <c r="AC24" s="35"/>
     </row>
     <row r="25" ht="236" spans="1:29">
       <c r="A25" s="5" t="s">
@@ -3401,25 +3392,25 @@
         <v>3</v>
       </c>
       <c r="M25" s="23"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="32">
+      <c r="N25" s="26"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="31">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="W25" s="27"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="35"/>
-      <c r="AC25" s="36"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="35"/>
     </row>
     <row r="26" ht="157" spans="1:29">
       <c r="A26" s="5" t="s">
@@ -3458,24 +3449,24 @@
       </c>
       <c r="M26" s="23"/>
       <c r="N26" s="24"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="26"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="25"/>
       <c r="S26" s="24"/>
       <c r="T26" s="24"/>
       <c r="U26" s="24"/>
-      <c r="V26" s="32">
+      <c r="V26" s="31">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="W26" s="24"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="25"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="35"/>
-      <c r="AC26" s="36"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="33"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="35"/>
     </row>
     <row r="27" ht="98" spans="1:29">
       <c r="A27" s="5" t="s">
@@ -3513,22 +3504,22 @@
         <v>1</v>
       </c>
       <c r="M27" s="23"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="32"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="28"/>
-      <c r="AA27" s="26"/>
-      <c r="AB27" s="35"/>
-      <c r="AC27" s="36"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="35"/>
     </row>
     <row r="28" ht="196" spans="1:29">
       <c r="A28" s="5" t="s">
@@ -3567,21 +3558,21 @@
       </c>
       <c r="M28" s="23"/>
       <c r="N28" s="24"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="26"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="25"/>
       <c r="S28" s="24"/>
       <c r="T28" s="24"/>
       <c r="U28" s="24"/>
-      <c r="V28" s="32"/>
+      <c r="V28" s="31"/>
       <c r="W28" s="24"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="25"/>
-      <c r="AA28" s="26"/>
-      <c r="AB28" s="35"/>
-      <c r="AC28" s="36"/>
+      <c r="X28" s="32"/>
+      <c r="Y28" s="33"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="35"/>
     </row>
     <row r="29" ht="177" spans="1:29">
       <c r="A29" s="5" t="s">
@@ -3619,22 +3610,22 @@
         <v>1</v>
       </c>
       <c r="M29" s="23"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="27"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="34"/>
-      <c r="Z29" s="28"/>
-      <c r="AA29" s="26"/>
-      <c r="AB29" s="35"/>
-      <c r="AC29" s="36"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="33"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="34"/>
+      <c r="AC29" s="35"/>
     </row>
     <row r="30" ht="255" spans="1:29">
       <c r="A30" s="5" t="s">
@@ -3673,21 +3664,21 @@
       </c>
       <c r="M30" s="23"/>
       <c r="N30" s="24"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="26"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="25"/>
       <c r="S30" s="24"/>
       <c r="T30" s="24"/>
       <c r="U30" s="24"/>
-      <c r="V30" s="32"/>
+      <c r="V30" s="31"/>
       <c r="W30" s="24"/>
-      <c r="X30" s="33"/>
-      <c r="Y30" s="34"/>
-      <c r="Z30" s="25"/>
-      <c r="AA30" s="26"/>
-      <c r="AB30" s="35"/>
-      <c r="AC30" s="36"/>
+      <c r="X30" s="32"/>
+      <c r="Y30" s="33"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="34"/>
+      <c r="AC30" s="35"/>
     </row>
     <row r="31" ht="118" spans="1:29">
       <c r="A31" s="5" t="s">
@@ -3725,22 +3716,22 @@
         <v>1</v>
       </c>
       <c r="M31" s="23"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="27"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="34"/>
-      <c r="Z31" s="28"/>
-      <c r="AA31" s="26"/>
-      <c r="AB31" s="35"/>
-      <c r="AC31" s="36"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="33"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="34"/>
+      <c r="AC31" s="35"/>
     </row>
     <row r="32" ht="255" spans="1:29">
       <c r="A32" s="5" t="s">
@@ -3779,21 +3770,21 @@
       </c>
       <c r="M32" s="23"/>
       <c r="N32" s="24"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="26"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="25"/>
       <c r="S32" s="24"/>
       <c r="T32" s="24"/>
       <c r="U32" s="24"/>
-      <c r="V32" s="32"/>
+      <c r="V32" s="31"/>
       <c r="W32" s="24"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="25"/>
-      <c r="AA32" s="26"/>
-      <c r="AB32" s="35"/>
-      <c r="AC32" s="36"/>
+      <c r="X32" s="32"/>
+      <c r="Y32" s="33"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="34"/>
+      <c r="AC32" s="35"/>
     </row>
     <row r="33" ht="216" spans="1:29">
       <c r="A33" s="5" t="s">
@@ -3831,22 +3822,22 @@
         <v>1</v>
       </c>
       <c r="M33" s="23"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="27"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="27"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="28"/>
-      <c r="AA33" s="26"/>
-      <c r="AB33" s="35"/>
-      <c r="AC33" s="36"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="32"/>
+      <c r="Y33" s="33"/>
+      <c r="Z33" s="27"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="34"/>
+      <c r="AC33" s="35"/>
     </row>
     <row r="34" ht="216" spans="1:29">
       <c r="A34" s="5" t="s">
@@ -3885,21 +3876,21 @@
       </c>
       <c r="M34" s="23"/>
       <c r="N34" s="24"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="26"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="25"/>
       <c r="S34" s="24"/>
       <c r="T34" s="24"/>
       <c r="U34" s="24"/>
-      <c r="V34" s="32"/>
+      <c r="V34" s="31"/>
       <c r="W34" s="24"/>
-      <c r="X34" s="33"/>
-      <c r="Y34" s="34"/>
-      <c r="Z34" s="25"/>
-      <c r="AA34" s="26"/>
-      <c r="AB34" s="35"/>
-      <c r="AC34" s="36"/>
+      <c r="X34" s="32"/>
+      <c r="Y34" s="33"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="25"/>
+      <c r="AB34" s="34"/>
+      <c r="AC34" s="35"/>
     </row>
     <row r="35" ht="196" spans="1:29">
       <c r="A35" s="5" t="s">
@@ -3937,22 +3928,22 @@
         <v>1</v>
       </c>
       <c r="M35" s="23"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="26"/>
-      <c r="S35" s="27"/>
-      <c r="T35" s="27"/>
-      <c r="U35" s="27"/>
-      <c r="V35" s="32"/>
-      <c r="W35" s="27"/>
-      <c r="X35" s="33"/>
-      <c r="Y35" s="34"/>
-      <c r="Z35" s="28"/>
-      <c r="AA35" s="26"/>
-      <c r="AB35" s="35"/>
-      <c r="AC35" s="36"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="32"/>
+      <c r="Y35" s="33"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="25"/>
+      <c r="AB35" s="34"/>
+      <c r="AC35" s="35"/>
     </row>
     <row r="36" ht="216" spans="1:29">
       <c r="A36" s="5" t="s">
@@ -3991,21 +3982,21 @@
       </c>
       <c r="M36" s="23"/>
       <c r="N36" s="24"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="26"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="25"/>
       <c r="S36" s="24"/>
       <c r="T36" s="24"/>
       <c r="U36" s="24"/>
-      <c r="V36" s="32"/>
+      <c r="V36" s="31"/>
       <c r="W36" s="24"/>
-      <c r="X36" s="33"/>
-      <c r="Y36" s="34"/>
-      <c r="Z36" s="25"/>
-      <c r="AA36" s="26"/>
-      <c r="AB36" s="35"/>
-      <c r="AC36" s="36"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="33"/>
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="25"/>
+      <c r="AB36" s="34"/>
+      <c r="AC36" s="35"/>
     </row>
     <row r="37" ht="236" spans="1:29">
       <c r="A37" s="5" t="s">
@@ -4043,22 +4034,22 @@
         <v>1</v>
       </c>
       <c r="M37" s="23"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="26"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="27"/>
-      <c r="U37" s="27"/>
-      <c r="V37" s="32"/>
-      <c r="W37" s="27"/>
-      <c r="X37" s="33"/>
-      <c r="Y37" s="34"/>
-      <c r="Z37" s="28"/>
-      <c r="AA37" s="26"/>
-      <c r="AB37" s="35"/>
-      <c r="AC37" s="36"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="26"/>
+      <c r="X37" s="32"/>
+      <c r="Y37" s="33"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="25"/>
+      <c r="AB37" s="34"/>
+      <c r="AC37" s="35"/>
     </row>
     <row r="38" ht="236" spans="1:29">
       <c r="A38" s="5" t="s">
@@ -4097,21 +4088,21 @@
       </c>
       <c r="M38" s="23"/>
       <c r="N38" s="24"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="26"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="25"/>
       <c r="S38" s="24"/>
       <c r="T38" s="24"/>
       <c r="U38" s="24"/>
-      <c r="V38" s="32"/>
+      <c r="V38" s="31"/>
       <c r="W38" s="24"/>
-      <c r="X38" s="33"/>
-      <c r="Y38" s="34"/>
-      <c r="Z38" s="25"/>
-      <c r="AA38" s="26"/>
-      <c r="AB38" s="35"/>
-      <c r="AC38" s="36"/>
+      <c r="X38" s="32"/>
+      <c r="Y38" s="33"/>
+      <c r="Z38" s="23"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="34"/>
+      <c r="AC38" s="35"/>
     </row>
     <row r="39" ht="196" spans="1:29">
       <c r="A39" s="5" t="s">
@@ -4149,22 +4140,22 @@
         <v>2</v>
       </c>
       <c r="M39" s="23"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="26"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="27"/>
-      <c r="V39" s="32"/>
-      <c r="W39" s="27"/>
-      <c r="X39" s="33"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="28"/>
-      <c r="AA39" s="26"/>
-      <c r="AB39" s="35"/>
-      <c r="AC39" s="36"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="31"/>
+      <c r="W39" s="26"/>
+      <c r="X39" s="32"/>
+      <c r="Y39" s="33"/>
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="34"/>
+      <c r="AC39" s="35"/>
     </row>
     <row r="40" ht="177" spans="1:29">
       <c r="A40" s="5" t="s">
@@ -4203,21 +4194,21 @@
       </c>
       <c r="M40" s="23"/>
       <c r="N40" s="24"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="26"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="26"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="25"/>
       <c r="S40" s="24"/>
       <c r="T40" s="24"/>
       <c r="U40" s="24"/>
-      <c r="V40" s="32"/>
+      <c r="V40" s="31"/>
       <c r="W40" s="24"/>
-      <c r="X40" s="33"/>
-      <c r="Y40" s="34"/>
-      <c r="Z40" s="25"/>
-      <c r="AA40" s="26"/>
-      <c r="AB40" s="35"/>
-      <c r="AC40" s="36"/>
+      <c r="X40" s="32"/>
+      <c r="Y40" s="33"/>
+      <c r="Z40" s="23"/>
+      <c r="AA40" s="25"/>
+      <c r="AB40" s="34"/>
+      <c r="AC40" s="35"/>
     </row>
     <row r="41" ht="255" spans="1:29">
       <c r="A41" s="5" t="s">
@@ -4255,22 +4246,22 @@
         <v>1</v>
       </c>
       <c r="M41" s="23"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="26"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="27"/>
-      <c r="U41" s="27"/>
-      <c r="V41" s="32"/>
-      <c r="W41" s="27"/>
-      <c r="X41" s="33"/>
-      <c r="Y41" s="34"/>
-      <c r="Z41" s="28"/>
-      <c r="AA41" s="26"/>
-      <c r="AB41" s="35"/>
-      <c r="AC41" s="36"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="31"/>
+      <c r="W41" s="26"/>
+      <c r="X41" s="32"/>
+      <c r="Y41" s="33"/>
+      <c r="Z41" s="27"/>
+      <c r="AA41" s="25"/>
+      <c r="AB41" s="34"/>
+      <c r="AC41" s="35"/>
     </row>
     <row r="42" ht="118" spans="1:29">
       <c r="A42" s="5" t="s">
@@ -4309,21 +4300,21 @@
       </c>
       <c r="M42" s="23"/>
       <c r="N42" s="24"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="26"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="26"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="25"/>
       <c r="S42" s="24"/>
       <c r="T42" s="24"/>
       <c r="U42" s="24"/>
-      <c r="V42" s="32"/>
+      <c r="V42" s="31"/>
       <c r="W42" s="24"/>
-      <c r="X42" s="33"/>
-      <c r="Y42" s="34"/>
-      <c r="Z42" s="25"/>
-      <c r="AA42" s="26"/>
-      <c r="AB42" s="35"/>
-      <c r="AC42" s="36"/>
+      <c r="X42" s="32"/>
+      <c r="Y42" s="33"/>
+      <c r="Z42" s="23"/>
+      <c r="AA42" s="25"/>
+      <c r="AB42" s="34"/>
+      <c r="AC42" s="35"/>
     </row>
     <row r="43" ht="157" spans="1:29">
       <c r="A43" s="5" t="s">
@@ -4361,22 +4352,22 @@
         <v>1</v>
       </c>
       <c r="M43" s="23"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="26"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="26"/>
-      <c r="S43" s="27"/>
-      <c r="T43" s="27"/>
-      <c r="U43" s="27"/>
-      <c r="V43" s="32"/>
-      <c r="W43" s="27"/>
-      <c r="X43" s="33"/>
-      <c r="Y43" s="34"/>
-      <c r="Z43" s="28"/>
-      <c r="AA43" s="26"/>
-      <c r="AB43" s="35"/>
-      <c r="AC43" s="36"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="26"/>
+      <c r="U43" s="26"/>
+      <c r="V43" s="31"/>
+      <c r="W43" s="26"/>
+      <c r="X43" s="32"/>
+      <c r="Y43" s="33"/>
+      <c r="Z43" s="27"/>
+      <c r="AA43" s="25"/>
+      <c r="AB43" s="34"/>
+      <c r="AC43" s="35"/>
     </row>
     <row r="44" ht="138" spans="1:29">
       <c r="A44" s="5" t="s">
@@ -4415,21 +4406,21 @@
       </c>
       <c r="M44" s="23"/>
       <c r="N44" s="24"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="26"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="26"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="25"/>
       <c r="S44" s="24"/>
       <c r="T44" s="24"/>
       <c r="U44" s="24"/>
-      <c r="V44" s="32"/>
+      <c r="V44" s="31"/>
       <c r="W44" s="24"/>
-      <c r="X44" s="33"/>
-      <c r="Y44" s="34"/>
-      <c r="Z44" s="25"/>
-      <c r="AA44" s="26"/>
-      <c r="AB44" s="35"/>
-      <c r="AC44" s="36"/>
+      <c r="X44" s="32"/>
+      <c r="Y44" s="33"/>
+      <c r="Z44" s="23"/>
+      <c r="AA44" s="25"/>
+      <c r="AB44" s="34"/>
+      <c r="AC44" s="35"/>
     </row>
     <row r="45" ht="196" spans="1:29">
       <c r="A45" s="5" t="s">
@@ -4467,22 +4458,22 @@
         <v>1</v>
       </c>
       <c r="M45" s="23"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="28"/>
-      <c r="P45" s="26"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="26"/>
-      <c r="S45" s="27"/>
-      <c r="T45" s="27"/>
-      <c r="U45" s="27"/>
-      <c r="V45" s="32"/>
-      <c r="W45" s="27"/>
-      <c r="X45" s="33"/>
-      <c r="Y45" s="34"/>
-      <c r="Z45" s="28"/>
-      <c r="AA45" s="26"/>
-      <c r="AB45" s="35"/>
-      <c r="AC45" s="36"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="26"/>
+      <c r="T45" s="26"/>
+      <c r="U45" s="26"/>
+      <c r="V45" s="31"/>
+      <c r="W45" s="26"/>
+      <c r="X45" s="32"/>
+      <c r="Y45" s="33"/>
+      <c r="Z45" s="27"/>
+      <c r="AA45" s="25"/>
+      <c r="AB45" s="34"/>
+      <c r="AC45" s="35"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">

--- a/VentasLETTAShop.xlsx
+++ b/VentasLETTAShop.xlsx
@@ -1965,10 +1965,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC45"/>
+  <dimension ref="A1:AC174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" zoomScale="32" zoomScaleNormal="32" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="X56" sqref="X56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1977,6 +1977,7 @@
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="41.53125" customWidth="1"/>
     <col min="6" max="6" width="26.171875" customWidth="1"/>
+    <col min="22" max="22" width="9.1875"/>
   </cols>
   <sheetData>
     <row r="1" ht="116" spans="1:29">
@@ -3512,7 +3513,10 @@
       <c r="S27" s="26"/>
       <c r="T27" s="26"/>
       <c r="U27" s="26"/>
-      <c r="V27" s="31"/>
+      <c r="V27" s="31">
+        <f t="shared" ref="V27:V58" si="2">H27</f>
+        <v>40</v>
+      </c>
       <c r="W27" s="26"/>
       <c r="X27" s="32"/>
       <c r="Y27" s="33"/>
@@ -3565,7 +3569,10 @@
       <c r="S28" s="24"/>
       <c r="T28" s="24"/>
       <c r="U28" s="24"/>
-      <c r="V28" s="31"/>
+      <c r="V28" s="31">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
       <c r="W28" s="24"/>
       <c r="X28" s="32"/>
       <c r="Y28" s="33"/>
@@ -3618,7 +3625,10 @@
       <c r="S29" s="26"/>
       <c r="T29" s="26"/>
       <c r="U29" s="26"/>
-      <c r="V29" s="31"/>
+      <c r="V29" s="31">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
       <c r="W29" s="26"/>
       <c r="X29" s="32"/>
       <c r="Y29" s="33"/>
@@ -3671,7 +3681,10 @@
       <c r="S30" s="24"/>
       <c r="T30" s="24"/>
       <c r="U30" s="24"/>
-      <c r="V30" s="31"/>
+      <c r="V30" s="31">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
       <c r="W30" s="24"/>
       <c r="X30" s="32"/>
       <c r="Y30" s="33"/>
@@ -3724,7 +3737,10 @@
       <c r="S31" s="26"/>
       <c r="T31" s="26"/>
       <c r="U31" s="26"/>
-      <c r="V31" s="31"/>
+      <c r="V31" s="31">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
       <c r="W31" s="26"/>
       <c r="X31" s="32"/>
       <c r="Y31" s="33"/>
@@ -3777,7 +3793,10 @@
       <c r="S32" s="24"/>
       <c r="T32" s="24"/>
       <c r="U32" s="24"/>
-      <c r="V32" s="31"/>
+      <c r="V32" s="31">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
       <c r="W32" s="24"/>
       <c r="X32" s="32"/>
       <c r="Y32" s="33"/>
@@ -3830,7 +3849,10 @@
       <c r="S33" s="26"/>
       <c r="T33" s="26"/>
       <c r="U33" s="26"/>
-      <c r="V33" s="31"/>
+      <c r="V33" s="31">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
       <c r="W33" s="26"/>
       <c r="X33" s="32"/>
       <c r="Y33" s="33"/>
@@ -3883,7 +3905,10 @@
       <c r="S34" s="24"/>
       <c r="T34" s="24"/>
       <c r="U34" s="24"/>
-      <c r="V34" s="31"/>
+      <c r="V34" s="31">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
       <c r="W34" s="24"/>
       <c r="X34" s="32"/>
       <c r="Y34" s="33"/>
@@ -3936,7 +3961,10 @@
       <c r="S35" s="26"/>
       <c r="T35" s="26"/>
       <c r="U35" s="26"/>
-      <c r="V35" s="31"/>
+      <c r="V35" s="31">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
       <c r="W35" s="26"/>
       <c r="X35" s="32"/>
       <c r="Y35" s="33"/>
@@ -3989,7 +4017,10 @@
       <c r="S36" s="24"/>
       <c r="T36" s="24"/>
       <c r="U36" s="24"/>
-      <c r="V36" s="31"/>
+      <c r="V36" s="31">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
       <c r="W36" s="24"/>
       <c r="X36" s="32"/>
       <c r="Y36" s="33"/>
@@ -4042,7 +4073,10 @@
       <c r="S37" s="26"/>
       <c r="T37" s="26"/>
       <c r="U37" s="26"/>
-      <c r="V37" s="31"/>
+      <c r="V37" s="31">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
       <c r="W37" s="26"/>
       <c r="X37" s="32"/>
       <c r="Y37" s="33"/>
@@ -4095,7 +4129,10 @@
       <c r="S38" s="24"/>
       <c r="T38" s="24"/>
       <c r="U38" s="24"/>
-      <c r="V38" s="31"/>
+      <c r="V38" s="31">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
       <c r="W38" s="24"/>
       <c r="X38" s="32"/>
       <c r="Y38" s="33"/>
@@ -4148,7 +4185,10 @@
       <c r="S39" s="26"/>
       <c r="T39" s="26"/>
       <c r="U39" s="26"/>
-      <c r="V39" s="31"/>
+      <c r="V39" s="31">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
       <c r="W39" s="26"/>
       <c r="X39" s="32"/>
       <c r="Y39" s="33"/>
@@ -4201,7 +4241,10 @@
       <c r="S40" s="24"/>
       <c r="T40" s="24"/>
       <c r="U40" s="24"/>
-      <c r="V40" s="31"/>
+      <c r="V40" s="31">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
       <c r="W40" s="24"/>
       <c r="X40" s="32"/>
       <c r="Y40" s="33"/>
@@ -4254,7 +4297,10 @@
       <c r="S41" s="26"/>
       <c r="T41" s="26"/>
       <c r="U41" s="26"/>
-      <c r="V41" s="31"/>
+      <c r="V41" s="31">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
       <c r="W41" s="26"/>
       <c r="X41" s="32"/>
       <c r="Y41" s="33"/>
@@ -4307,7 +4353,10 @@
       <c r="S42" s="24"/>
       <c r="T42" s="24"/>
       <c r="U42" s="24"/>
-      <c r="V42" s="31"/>
+      <c r="V42" s="31">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
       <c r="W42" s="24"/>
       <c r="X42" s="32"/>
       <c r="Y42" s="33"/>
@@ -4360,7 +4409,10 @@
       <c r="S43" s="26"/>
       <c r="T43" s="26"/>
       <c r="U43" s="26"/>
-      <c r="V43" s="31"/>
+      <c r="V43" s="31">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
       <c r="W43" s="26"/>
       <c r="X43" s="32"/>
       <c r="Y43" s="33"/>
@@ -4413,7 +4465,10 @@
       <c r="S44" s="24"/>
       <c r="T44" s="24"/>
       <c r="U44" s="24"/>
-      <c r="V44" s="31"/>
+      <c r="V44" s="31">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
       <c r="W44" s="24"/>
       <c r="X44" s="32"/>
       <c r="Y44" s="33"/>
@@ -4466,7 +4521,10 @@
       <c r="S45" s="26"/>
       <c r="T45" s="26"/>
       <c r="U45" s="26"/>
-      <c r="V45" s="31"/>
+      <c r="V45" s="31">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
       <c r="W45" s="26"/>
       <c r="X45" s="32"/>
       <c r="Y45" s="33"/>
@@ -4474,6 +4532,780 @@
       <c r="AA45" s="25"/>
       <c r="AB45" s="34"/>
       <c r="AC45" s="35"/>
+    </row>
+    <row r="46" ht="19.6" spans="22:22">
+      <c r="V46" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" ht="19.6" spans="22:22">
+      <c r="V47" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" ht="19.6" spans="22:22">
+      <c r="V48" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" ht="19.6" spans="22:22">
+      <c r="V49" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" ht="19.6" spans="22:22">
+      <c r="V50" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" ht="19.6" spans="22:22">
+      <c r="V51" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" ht="19.6" spans="22:22">
+      <c r="V52" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" ht="19.6" spans="22:22">
+      <c r="V53" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" ht="19.6" spans="22:22">
+      <c r="V54" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" ht="19.6" spans="22:22">
+      <c r="V55" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" ht="19.6" spans="22:22">
+      <c r="V56" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" ht="19.6" spans="22:22">
+      <c r="V57" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" ht="19.6" spans="22:22">
+      <c r="V58" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" ht="19.6" spans="22:22">
+      <c r="V59" s="31">
+        <f t="shared" ref="V59:V90" si="3">H59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" ht="19.6" spans="22:22">
+      <c r="V60" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" ht="19.6" spans="22:22">
+      <c r="V61" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" ht="19.6" spans="22:22">
+      <c r="V62" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" ht="19.6" spans="22:22">
+      <c r="V63" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" ht="19.6" spans="22:22">
+      <c r="V64" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" ht="19.6" spans="22:22">
+      <c r="V65" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" ht="19.6" spans="22:22">
+      <c r="V66" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" ht="19.6" spans="22:22">
+      <c r="V67" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" ht="19.6" spans="22:22">
+      <c r="V68" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" ht="19.6" spans="22:22">
+      <c r="V69" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" ht="19.6" spans="22:22">
+      <c r="V70" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" ht="19.6" spans="22:22">
+      <c r="V71" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" ht="19.6" spans="22:22">
+      <c r="V72" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" ht="19.6" spans="22:22">
+      <c r="V73" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" ht="19.6" spans="22:22">
+      <c r="V74" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" ht="19.6" spans="22:22">
+      <c r="V75" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" ht="19.6" spans="22:22">
+      <c r="V76" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" ht="19.6" spans="22:22">
+      <c r="V77" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" ht="19.6" spans="22:22">
+      <c r="V78" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" ht="19.6" spans="22:22">
+      <c r="V79" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" ht="19.6" spans="22:22">
+      <c r="V80" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" ht="19.6" spans="22:22">
+      <c r="V81" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" ht="19.6" spans="22:22">
+      <c r="V82" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" ht="19.6" spans="22:22">
+      <c r="V83" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" ht="19.6" spans="22:22">
+      <c r="V84" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" ht="19.6" spans="22:22">
+      <c r="V85" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" ht="19.6" spans="22:22">
+      <c r="V86" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" ht="19.6" spans="22:22">
+      <c r="V87" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" ht="19.6" spans="22:22">
+      <c r="V88" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" ht="19.6" spans="22:22">
+      <c r="V89" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" ht="19.6" spans="22:22">
+      <c r="V90" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" ht="19.6" spans="22:22">
+      <c r="V91" s="31">
+        <f t="shared" ref="V91:V122" si="4">H91</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" ht="19.6" spans="22:22">
+      <c r="V92" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" ht="19.6" spans="22:22">
+      <c r="V93" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" ht="19.6" spans="22:22">
+      <c r="V94" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" ht="19.6" spans="22:22">
+      <c r="V95" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" ht="19.6" spans="22:22">
+      <c r="V96" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" ht="19.6" spans="22:22">
+      <c r="V97" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" ht="19.6" spans="22:22">
+      <c r="V98" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" ht="19.6" spans="22:22">
+      <c r="V99" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" ht="19.6" spans="22:22">
+      <c r="V100" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" ht="19.6" spans="22:22">
+      <c r="V101" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" ht="19.6" spans="22:22">
+      <c r="V102" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" ht="19.6" spans="22:22">
+      <c r="V103" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" ht="19.6" spans="22:22">
+      <c r="V104" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" ht="19.6" spans="22:22">
+      <c r="V105" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" ht="19.6" spans="22:22">
+      <c r="V106" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" ht="19.6" spans="22:22">
+      <c r="V107" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" ht="19.6" spans="22:22">
+      <c r="V108" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" ht="19.6" spans="22:22">
+      <c r="V109" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" ht="19.6" spans="22:22">
+      <c r="V110" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" ht="19.6" spans="22:22">
+      <c r="V111" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" ht="19.6" spans="22:22">
+      <c r="V112" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" ht="19.6" spans="22:22">
+      <c r="V113" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" ht="19.6" spans="22:22">
+      <c r="V114" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" ht="19.6" spans="22:22">
+      <c r="V115" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" ht="19.6" spans="22:22">
+      <c r="V116" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" ht="19.6" spans="22:22">
+      <c r="V117" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" ht="19.6" spans="22:22">
+      <c r="V118" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" ht="19.6" spans="22:22">
+      <c r="V119" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" ht="19.6" spans="22:22">
+      <c r="V120" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" ht="19.6" spans="22:22">
+      <c r="V121" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" ht="19.6" spans="22:22">
+      <c r="V122" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" ht="19.6" spans="22:22">
+      <c r="V123" s="31">
+        <f t="shared" ref="V123:V154" si="5">H123</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" ht="19.6" spans="22:22">
+      <c r="V124" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" ht="19.6" spans="22:22">
+      <c r="V125" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" ht="19.6" spans="22:22">
+      <c r="V126" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" ht="19.6" spans="22:22">
+      <c r="V127" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" ht="19.6" spans="22:22">
+      <c r="V128" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" ht="19.6" spans="22:22">
+      <c r="V129" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" ht="19.6" spans="22:22">
+      <c r="V130" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" ht="19.6" spans="22:22">
+      <c r="V131" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" ht="19.6" spans="22:22">
+      <c r="V132" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" ht="19.6" spans="22:22">
+      <c r="V133" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" ht="19.6" spans="22:22">
+      <c r="V134" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" ht="19.6" spans="22:22">
+      <c r="V135" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" ht="19.6" spans="22:22">
+      <c r="V136" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" ht="19.6" spans="22:22">
+      <c r="V137" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" ht="19.6" spans="22:22">
+      <c r="V138" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" ht="19.6" spans="22:22">
+      <c r="V139" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" ht="19.6" spans="22:22">
+      <c r="V140" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" ht="19.6" spans="22:22">
+      <c r="V141" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" ht="19.6" spans="22:22">
+      <c r="V142" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" ht="19.6" spans="22:22">
+      <c r="V143" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" ht="19.6" spans="22:22">
+      <c r="V144" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" ht="19.6" spans="22:22">
+      <c r="V145" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" ht="19.6" spans="22:22">
+      <c r="V146" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" ht="19.6" spans="22:22">
+      <c r="V147" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" ht="19.6" spans="22:22">
+      <c r="V148" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" ht="19.6" spans="22:22">
+      <c r="V149" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" ht="19.6" spans="22:22">
+      <c r="V150" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" ht="19.6" spans="22:22">
+      <c r="V151" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" ht="19.6" spans="22:22">
+      <c r="V152" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" ht="19.6" spans="22:22">
+      <c r="V153" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" ht="19.6" spans="22:22">
+      <c r="V154" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" ht="19.6" spans="22:22">
+      <c r="V155" s="31">
+        <f t="shared" ref="V155:V174" si="6">H155</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" ht="19.6" spans="22:22">
+      <c r="V156" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" ht="19.6" spans="22:22">
+      <c r="V157" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" ht="19.6" spans="22:22">
+      <c r="V158" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" ht="19.6" spans="22:22">
+      <c r="V159" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" ht="19.6" spans="22:22">
+      <c r="V160" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" ht="19.6" spans="22:22">
+      <c r="V161" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" ht="19.6" spans="22:22">
+      <c r="V162" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" ht="19.6" spans="22:22">
+      <c r="V163" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" ht="19.6" spans="22:22">
+      <c r="V164" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" ht="19.6" spans="22:22">
+      <c r="V165" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" ht="19.6" spans="22:22">
+      <c r="V166" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" ht="19.6" spans="22:22">
+      <c r="V167" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" ht="19.6" spans="22:22">
+      <c r="V168" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" ht="19.6" spans="22:22">
+      <c r="V169" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" ht="19.6" spans="22:22">
+      <c r="V170" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" ht="19.6" spans="22:22">
+      <c r="V171" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" ht="19.6" spans="22:22">
+      <c r="V172" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" ht="19.6" spans="22:22">
+      <c r="V173" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" ht="19.6" spans="22:22">
+      <c r="V174" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
@@ -4536,7 +5368,7 @@
       <formula>$L2=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:X45">
+  <conditionalFormatting sqref="T2:X26 T27:U45 W27:X45 V27:V174">
     <cfRule type="expression" dxfId="0" priority="13">
       <formula>$L2=0</formula>
     </cfRule>

--- a/VentasLETTAShop.xlsx
+++ b/VentasLETTAShop.xlsx
@@ -121,7 +121,7 @@
     <t>Vestidos /hm</t>
   </si>
   <si>
-    <t>_Vestido escanolado de corte midi negro estampado crema H&amp;M</t>
+    <t>_Vestido escanalado de corte midi negro estampado crema H&amp;M</t>
   </si>
   <si>
     <t>Talla XXL</t>
@@ -613,11 +613,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.0"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -678,7 +678,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -691,17 +691,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,14 +737,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -731,15 +745,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -760,21 +766,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -789,6 +780,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -796,31 +819,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -865,19 +865,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor theme="5" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor theme="4" tint="0.799951170384838"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,7 +943,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,43 +1027,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,109 +1039,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,16 +1101,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1126,15 +1120,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1154,21 +1139,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1183,8 +1153,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1208,152 +1202,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1417,7 +1411,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1441,9 +1435,6 @@
     <xf numFmtId="177" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1459,10 +1450,7 @@
     <xf numFmtId="177" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1810,15 +1798,14 @@
   <sheetPr/>
   <dimension ref="A1:AC78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="32" zoomScaleNormal="32" workbookViewId="0">
+      <selection activeCell="BE2" sqref="BE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="26.25" customWidth="1"/>
-    <col min="5" max="5" width="60.8046875" customWidth="1"/>
+    <col min="8" max="9" width="9.1875"/>
+    <col min="22" max="22" width="9.1875"/>
   </cols>
   <sheetData>
     <row r="1" ht="116" spans="1:29">
@@ -1882,7 +1869,7 @@
       <c r="T1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="U1" s="30" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="11" t="s">
@@ -1910,7 +1897,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="40" spans="1:29">
+    <row r="2" ht="275" spans="1:29">
       <c r="A2" s="5" t="s">
         <v>29</v>
       </c>
@@ -1947,19 +1934,19 @@
       <c r="R2" s="24"/>
       <c r="S2" s="24"/>
       <c r="T2" s="24"/>
-      <c r="U2" s="32">
+      <c r="U2" s="31">
         <v>40</v>
       </c>
       <c r="V2" s="24"/>
       <c r="W2" s="5"/>
-      <c r="X2" s="33"/>
+      <c r="X2" s="32"/>
       <c r="Y2" s="25"/>
       <c r="Z2" s="26"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="36"/>
-    </row>
-    <row r="3" ht="40" spans="1:29">
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+    </row>
+    <row r="3" ht="236" spans="1:29">
       <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
@@ -1989,26 +1976,26 @@
       </c>
       <c r="L3" s="21"/>
       <c r="M3" s="28"/>
-      <c r="N3" s="29"/>
+      <c r="N3" s="21"/>
       <c r="O3" s="26"/>
-      <c r="P3" s="30"/>
+      <c r="P3" s="29"/>
       <c r="Q3" s="26"/>
       <c r="R3" s="28"/>
       <c r="S3" s="28"/>
       <c r="T3" s="28"/>
-      <c r="U3" s="32">
+      <c r="U3" s="31">
         <v>40</v>
       </c>
       <c r="V3" s="28"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="29"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="21"/>
       <c r="Z3" s="26"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="36"/>
-    </row>
-    <row r="4" ht="20" spans="1:29">
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+    </row>
+    <row r="4" ht="157" spans="1:29">
       <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
@@ -2045,19 +2032,19 @@
       <c r="R4" s="24"/>
       <c r="S4" s="24"/>
       <c r="T4" s="24"/>
-      <c r="U4" s="32">
+      <c r="U4" s="31">
         <v>18</v>
       </c>
       <c r="V4" s="24"/>
       <c r="W4" s="5"/>
-      <c r="X4" s="33"/>
+      <c r="X4" s="32"/>
       <c r="Y4" s="25"/>
       <c r="Z4" s="26"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="36"/>
-    </row>
-    <row r="5" ht="20" spans="1:29">
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+    </row>
+    <row r="5" ht="177" spans="1:29">
       <c r="A5" s="5" t="s">
         <v>41</v>
       </c>
@@ -2087,26 +2074,26 @@
       </c>
       <c r="L5" s="21"/>
       <c r="M5" s="28"/>
-      <c r="N5" s="29"/>
+      <c r="N5" s="21"/>
       <c r="O5" s="26"/>
-      <c r="P5" s="30"/>
+      <c r="P5" s="29"/>
       <c r="Q5" s="26"/>
       <c r="R5" s="28"/>
       <c r="S5" s="28"/>
       <c r="T5" s="28"/>
-      <c r="U5" s="32">
+      <c r="U5" s="31">
         <v>20</v>
       </c>
       <c r="V5" s="28"/>
       <c r="W5" s="5"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="29"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="21"/>
       <c r="Z5" s="26"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="36"/>
-    </row>
-    <row r="6" ht="20" spans="1:29">
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="34"/>
+    </row>
+    <row r="6" ht="118" spans="1:29">
       <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
@@ -2143,19 +2130,19 @@
       <c r="R6" s="24"/>
       <c r="S6" s="24"/>
       <c r="T6" s="24"/>
-      <c r="U6" s="32">
+      <c r="U6" s="31">
         <v>20</v>
       </c>
       <c r="V6" s="24"/>
       <c r="W6" s="5"/>
-      <c r="X6" s="33"/>
+      <c r="X6" s="32"/>
       <c r="Y6" s="25"/>
       <c r="Z6" s="26"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="36"/>
-    </row>
-    <row r="7" ht="40" spans="1:29">
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+    </row>
+    <row r="7" ht="177" spans="1:29">
       <c r="A7" s="5" t="s">
         <v>45</v>
       </c>
@@ -2185,26 +2172,26 @@
       </c>
       <c r="L7" s="21"/>
       <c r="M7" s="28"/>
-      <c r="N7" s="29"/>
+      <c r="N7" s="21"/>
       <c r="O7" s="26"/>
-      <c r="P7" s="30"/>
+      <c r="P7" s="29"/>
       <c r="Q7" s="26"/>
       <c r="R7" s="28"/>
       <c r="S7" s="28"/>
       <c r="T7" s="28"/>
-      <c r="U7" s="32">
+      <c r="U7" s="31">
         <v>20</v>
       </c>
       <c r="V7" s="28"/>
       <c r="W7" s="5"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="29"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="21"/>
       <c r="Z7" s="26"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="36"/>
-    </row>
-    <row r="8" ht="20" spans="1:29">
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+    </row>
+    <row r="8" ht="157" spans="1:29">
       <c r="A8" s="5" t="s">
         <v>47</v>
       </c>
@@ -2241,19 +2228,19 @@
       <c r="R8" s="24"/>
       <c r="S8" s="24"/>
       <c r="T8" s="24"/>
-      <c r="U8" s="32">
+      <c r="U8" s="31">
         <v>18</v>
       </c>
       <c r="V8" s="24"/>
       <c r="W8" s="5"/>
-      <c r="X8" s="33"/>
+      <c r="X8" s="32"/>
       <c r="Y8" s="25"/>
       <c r="Z8" s="26"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="36"/>
-    </row>
-    <row r="9" ht="40" spans="1:29">
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
+    </row>
+    <row r="9" ht="255" spans="1:29">
       <c r="A9" s="5" t="s">
         <v>50</v>
       </c>
@@ -2283,26 +2270,26 @@
       </c>
       <c r="L9" s="21"/>
       <c r="M9" s="28"/>
-      <c r="N9" s="29"/>
+      <c r="N9" s="21"/>
       <c r="O9" s="26"/>
-      <c r="P9" s="30"/>
+      <c r="P9" s="29"/>
       <c r="Q9" s="26"/>
       <c r="R9" s="28"/>
       <c r="S9" s="28"/>
       <c r="T9" s="28"/>
-      <c r="U9" s="32">
+      <c r="U9" s="31">
         <v>18</v>
       </c>
       <c r="V9" s="28"/>
       <c r="W9" s="5"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="29"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="21"/>
       <c r="Z9" s="26"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="36"/>
-    </row>
-    <row r="10" ht="40" spans="1:29">
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
+    </row>
+    <row r="10" ht="157" spans="1:29">
       <c r="A10" s="5" t="s">
         <v>52</v>
       </c>
@@ -2339,19 +2326,19 @@
       <c r="R10" s="24"/>
       <c r="S10" s="24"/>
       <c r="T10" s="24"/>
-      <c r="U10" s="32">
+      <c r="U10" s="31">
         <v>15</v>
       </c>
       <c r="V10" s="24"/>
       <c r="W10" s="5"/>
-      <c r="X10" s="33"/>
+      <c r="X10" s="32"/>
       <c r="Y10" s="25"/>
       <c r="Z10" s="26"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="35"/>
-      <c r="AC10" s="36"/>
-    </row>
-    <row r="11" ht="40" spans="1:29">
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+    </row>
+    <row r="11" ht="275" spans="1:29">
       <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
@@ -2381,26 +2368,26 @@
       </c>
       <c r="L11" s="21"/>
       <c r="M11" s="28"/>
-      <c r="N11" s="29"/>
+      <c r="N11" s="21"/>
       <c r="O11" s="26"/>
-      <c r="P11" s="30"/>
+      <c r="P11" s="29"/>
       <c r="Q11" s="26"/>
       <c r="R11" s="28"/>
       <c r="S11" s="28"/>
       <c r="T11" s="28"/>
-      <c r="U11" s="32">
+      <c r="U11" s="31">
         <v>25</v>
       </c>
       <c r="V11" s="28"/>
       <c r="W11" s="5"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="29"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="21"/>
       <c r="Z11" s="26"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="36"/>
-    </row>
-    <row r="12" ht="40" spans="1:29">
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+    </row>
+    <row r="12" ht="275" spans="1:29">
       <c r="A12" s="5" t="s">
         <v>58</v>
       </c>
@@ -2437,19 +2424,19 @@
       <c r="R12" s="24"/>
       <c r="S12" s="24"/>
       <c r="T12" s="24"/>
-      <c r="U12" s="32">
+      <c r="U12" s="31">
         <v>25</v>
       </c>
       <c r="V12" s="24"/>
       <c r="W12" s="5"/>
-      <c r="X12" s="33"/>
+      <c r="X12" s="32"/>
       <c r="Y12" s="25"/>
       <c r="Z12" s="26"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="36"/>
-    </row>
-    <row r="13" ht="20" spans="1:29">
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="34"/>
+    </row>
+    <row r="13" ht="138" spans="1:29">
       <c r="A13" s="5" t="s">
         <v>61</v>
       </c>
@@ -2479,26 +2466,26 @@
       </c>
       <c r="L13" s="21"/>
       <c r="M13" s="28"/>
-      <c r="N13" s="29"/>
+      <c r="N13" s="21"/>
       <c r="O13" s="26"/>
-      <c r="P13" s="30"/>
+      <c r="P13" s="29"/>
       <c r="Q13" s="26"/>
       <c r="R13" s="28"/>
       <c r="S13" s="28"/>
       <c r="T13" s="28"/>
-      <c r="U13" s="32">
+      <c r="U13" s="31">
         <v>20</v>
       </c>
       <c r="V13" s="28"/>
       <c r="W13" s="5"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="29"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="21"/>
       <c r="Z13" s="26"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="36"/>
-    </row>
-    <row r="14" ht="20" spans="1:29">
+      <c r="AA13" s="33"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="34"/>
+    </row>
+    <row r="14" ht="138" spans="1:29">
       <c r="A14" s="5" t="s">
         <v>63</v>
       </c>
@@ -2535,19 +2522,19 @@
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
       <c r="T14" s="24"/>
-      <c r="U14" s="32">
+      <c r="U14" s="31">
         <v>20</v>
       </c>
       <c r="V14" s="24"/>
       <c r="W14" s="5"/>
-      <c r="X14" s="33"/>
+      <c r="X14" s="32"/>
       <c r="Y14" s="25"/>
       <c r="Z14" s="26"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="36"/>
-    </row>
-    <row r="15" ht="20" spans="1:29">
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="34"/>
+    </row>
+    <row r="15" ht="118" spans="1:29">
       <c r="A15" s="5" t="s">
         <v>65</v>
       </c>
@@ -2577,26 +2564,26 @@
       </c>
       <c r="L15" s="21"/>
       <c r="M15" s="28"/>
-      <c r="N15" s="29"/>
+      <c r="N15" s="21"/>
       <c r="O15" s="26"/>
-      <c r="P15" s="30"/>
+      <c r="P15" s="29"/>
       <c r="Q15" s="26"/>
       <c r="R15" s="28"/>
       <c r="S15" s="28"/>
       <c r="T15" s="28"/>
-      <c r="U15" s="32">
+      <c r="U15" s="31">
         <v>6</v>
       </c>
       <c r="V15" s="28"/>
       <c r="W15" s="5"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="29"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="21"/>
       <c r="Z15" s="26"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="36"/>
-    </row>
-    <row r="16" ht="20" spans="1:29">
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="34"/>
+    </row>
+    <row r="16" ht="118" spans="1:29">
       <c r="A16" s="5" t="s">
         <v>68</v>
       </c>
@@ -2633,19 +2620,19 @@
       <c r="R16" s="24"/>
       <c r="S16" s="24"/>
       <c r="T16" s="24"/>
-      <c r="U16" s="32">
+      <c r="U16" s="31">
         <v>6</v>
       </c>
       <c r="V16" s="24"/>
       <c r="W16" s="5"/>
-      <c r="X16" s="33"/>
+      <c r="X16" s="32"/>
       <c r="Y16" s="25"/>
       <c r="Z16" s="26"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="36"/>
-    </row>
-    <row r="17" ht="20" spans="1:29">
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="34"/>
+    </row>
+    <row r="17" ht="98" spans="1:29">
       <c r="A17" s="5" t="s">
         <v>70</v>
       </c>
@@ -2675,26 +2662,26 @@
       </c>
       <c r="L17" s="21"/>
       <c r="M17" s="28"/>
-      <c r="N17" s="29"/>
+      <c r="N17" s="21"/>
       <c r="O17" s="26"/>
-      <c r="P17" s="30"/>
+      <c r="P17" s="29"/>
       <c r="Q17" s="26"/>
       <c r="R17" s="28"/>
       <c r="S17" s="28"/>
       <c r="T17" s="28"/>
-      <c r="U17" s="32">
+      <c r="U17" s="31">
         <v>6</v>
       </c>
       <c r="V17" s="28"/>
       <c r="W17" s="5"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="29"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="21"/>
       <c r="Z17" s="26"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="36"/>
-    </row>
-    <row r="18" ht="20" spans="1:29">
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
+    </row>
+    <row r="18" ht="157" spans="1:29">
       <c r="A18" s="5" t="s">
         <v>72</v>
       </c>
@@ -2731,19 +2718,19 @@
       <c r="R18" s="24"/>
       <c r="S18" s="24"/>
       <c r="T18" s="24"/>
-      <c r="U18" s="32">
+      <c r="U18" s="31">
         <v>6</v>
       </c>
       <c r="V18" s="24"/>
       <c r="W18" s="5"/>
-      <c r="X18" s="33"/>
+      <c r="X18" s="32"/>
       <c r="Y18" s="25"/>
       <c r="Z18" s="26"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="36"/>
-    </row>
-    <row r="19" ht="20" spans="1:29">
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
+    </row>
+    <row r="19" ht="157" spans="1:29">
       <c r="A19" s="5" t="s">
         <v>74</v>
       </c>
@@ -2773,26 +2760,26 @@
       </c>
       <c r="L19" s="21"/>
       <c r="M19" s="28"/>
-      <c r="N19" s="29"/>
+      <c r="N19" s="21"/>
       <c r="O19" s="26"/>
-      <c r="P19" s="30"/>
+      <c r="P19" s="29"/>
       <c r="Q19" s="26"/>
       <c r="R19" s="28"/>
       <c r="S19" s="28"/>
       <c r="T19" s="28"/>
-      <c r="U19" s="32">
+      <c r="U19" s="31">
         <v>6</v>
       </c>
       <c r="V19" s="28"/>
       <c r="W19" s="5"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="29"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="21"/>
       <c r="Z19" s="26"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="36"/>
-    </row>
-    <row r="20" ht="20" spans="1:29">
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="34"/>
+    </row>
+    <row r="20" ht="157" spans="1:29">
       <c r="A20" s="5" t="s">
         <v>76</v>
       </c>
@@ -2829,19 +2816,19 @@
       <c r="R20" s="24"/>
       <c r="S20" s="24"/>
       <c r="T20" s="24"/>
-      <c r="U20" s="32">
+      <c r="U20" s="31">
         <v>6</v>
       </c>
       <c r="V20" s="24"/>
       <c r="W20" s="5"/>
-      <c r="X20" s="33"/>
+      <c r="X20" s="32"/>
       <c r="Y20" s="25"/>
       <c r="Z20" s="26"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="35"/>
-      <c r="AC20" s="36"/>
-    </row>
-    <row r="21" ht="20" spans="1:29">
+      <c r="AA20" s="33"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="34"/>
+    </row>
+    <row r="21" ht="118" spans="1:29">
       <c r="A21" s="5" t="s">
         <v>78</v>
       </c>
@@ -2871,26 +2858,26 @@
       </c>
       <c r="L21" s="21"/>
       <c r="M21" s="28"/>
-      <c r="N21" s="29"/>
+      <c r="N21" s="21"/>
       <c r="O21" s="26"/>
-      <c r="P21" s="30"/>
+      <c r="P21" s="29"/>
       <c r="Q21" s="26"/>
       <c r="R21" s="28"/>
       <c r="S21" s="28"/>
       <c r="T21" s="28"/>
-      <c r="U21" s="32">
+      <c r="U21" s="31">
         <v>6</v>
       </c>
       <c r="V21" s="28"/>
       <c r="W21" s="5"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="29"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="21"/>
       <c r="Z21" s="26"/>
-      <c r="AA21" s="34"/>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="36"/>
-    </row>
-    <row r="22" ht="20" spans="1:29">
+      <c r="AA21" s="33"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="34"/>
+    </row>
+    <row r="22" ht="118" spans="1:29">
       <c r="A22" s="5" t="s">
         <v>79</v>
       </c>
@@ -2927,19 +2914,19 @@
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
       <c r="T22" s="24"/>
-      <c r="U22" s="32">
+      <c r="U22" s="31">
         <v>6</v>
       </c>
       <c r="V22" s="24"/>
       <c r="W22" s="5"/>
-      <c r="X22" s="33"/>
+      <c r="X22" s="32"/>
       <c r="Y22" s="25"/>
       <c r="Z22" s="26"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="36"/>
-    </row>
-    <row r="23" ht="20" spans="1:29">
+      <c r="AA22" s="33"/>
+      <c r="AB22" s="34"/>
+      <c r="AC22" s="34"/>
+    </row>
+    <row r="23" ht="98" spans="1:29">
       <c r="A23" s="5" t="s">
         <v>80</v>
       </c>
@@ -2969,26 +2956,26 @@
       </c>
       <c r="L23" s="21"/>
       <c r="M23" s="28"/>
-      <c r="N23" s="29"/>
+      <c r="N23" s="21"/>
       <c r="O23" s="26"/>
-      <c r="P23" s="30"/>
+      <c r="P23" s="29"/>
       <c r="Q23" s="26"/>
       <c r="R23" s="28"/>
       <c r="S23" s="28"/>
       <c r="T23" s="28"/>
-      <c r="U23" s="32">
+      <c r="U23" s="31">
         <v>6</v>
       </c>
       <c r="V23" s="28"/>
       <c r="W23" s="5"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="29"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="21"/>
       <c r="Z23" s="26"/>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="36"/>
-    </row>
-    <row r="24" ht="40" spans="1:29">
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="34"/>
+    </row>
+    <row r="24" ht="157" spans="1:29">
       <c r="A24" s="5" t="s">
         <v>81</v>
       </c>
@@ -3025,19 +3012,19 @@
       <c r="R24" s="24"/>
       <c r="S24" s="24"/>
       <c r="T24" s="24"/>
-      <c r="U24" s="32">
+      <c r="U24" s="31">
         <v>6</v>
       </c>
       <c r="V24" s="24"/>
       <c r="W24" s="5"/>
-      <c r="X24" s="33"/>
+      <c r="X24" s="32"/>
       <c r="Y24" s="25"/>
       <c r="Z24" s="26"/>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="35"/>
-      <c r="AC24" s="36"/>
-    </row>
-    <row r="25" ht="40" spans="1:29">
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="34"/>
+      <c r="AC24" s="34"/>
+    </row>
+    <row r="25" ht="157" spans="1:29">
       <c r="A25" s="5" t="s">
         <v>83</v>
       </c>
@@ -3067,26 +3054,26 @@
       </c>
       <c r="L25" s="21"/>
       <c r="M25" s="28"/>
-      <c r="N25" s="29"/>
+      <c r="N25" s="21"/>
       <c r="O25" s="26"/>
-      <c r="P25" s="30"/>
+      <c r="P25" s="29"/>
       <c r="Q25" s="26"/>
       <c r="R25" s="28"/>
       <c r="S25" s="28"/>
       <c r="T25" s="28"/>
-      <c r="U25" s="32">
+      <c r="U25" s="31">
         <v>6</v>
       </c>
       <c r="V25" s="28"/>
       <c r="W25" s="5"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="29"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="21"/>
       <c r="Z25" s="26"/>
-      <c r="AA25" s="34"/>
-      <c r="AB25" s="35"/>
-      <c r="AC25" s="36"/>
-    </row>
-    <row r="26" ht="40" spans="1:29">
+      <c r="AA25" s="33"/>
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="34"/>
+    </row>
+    <row r="26" ht="157" spans="1:29">
       <c r="A26" s="5" t="s">
         <v>86</v>
       </c>
@@ -3123,19 +3110,19 @@
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
       <c r="T26" s="24"/>
-      <c r="U26" s="32">
+      <c r="U26" s="31">
         <v>6</v>
       </c>
       <c r="V26" s="24"/>
       <c r="W26" s="5"/>
-      <c r="X26" s="33"/>
+      <c r="X26" s="32"/>
       <c r="Y26" s="25"/>
       <c r="Z26" s="26"/>
-      <c r="AA26" s="34"/>
-      <c r="AB26" s="35"/>
-      <c r="AC26" s="36"/>
-    </row>
-    <row r="27" ht="40" spans="1:29">
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="34"/>
+    </row>
+    <row r="27" ht="138" spans="1:29">
       <c r="A27" s="5" t="s">
         <v>88</v>
       </c>
@@ -3165,26 +3152,26 @@
       </c>
       <c r="L27" s="21"/>
       <c r="M27" s="28"/>
-      <c r="N27" s="29"/>
+      <c r="N27" s="21"/>
       <c r="O27" s="26"/>
-      <c r="P27" s="30"/>
+      <c r="P27" s="29"/>
       <c r="Q27" s="26"/>
       <c r="R27" s="28"/>
       <c r="S27" s="28"/>
       <c r="T27" s="28"/>
-      <c r="U27" s="32">
+      <c r="U27" s="31">
         <v>6</v>
       </c>
       <c r="V27" s="28"/>
       <c r="W27" s="5"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="29"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="21"/>
       <c r="Z27" s="26"/>
-      <c r="AA27" s="34"/>
-      <c r="AB27" s="35"/>
-      <c r="AC27" s="36"/>
-    </row>
-    <row r="28" ht="40" spans="1:29">
+      <c r="AA27" s="33"/>
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="34"/>
+    </row>
+    <row r="28" ht="196" spans="1:29">
       <c r="A28" s="5" t="s">
         <v>90</v>
       </c>
@@ -3221,19 +3208,19 @@
       <c r="R28" s="24"/>
       <c r="S28" s="24"/>
       <c r="T28" s="24"/>
-      <c r="U28" s="32">
+      <c r="U28" s="31">
         <v>6</v>
       </c>
       <c r="V28" s="24"/>
       <c r="W28" s="5"/>
-      <c r="X28" s="33"/>
+      <c r="X28" s="32"/>
       <c r="Y28" s="25"/>
       <c r="Z28" s="26"/>
-      <c r="AA28" s="34"/>
-      <c r="AB28" s="35"/>
-      <c r="AC28" s="36"/>
-    </row>
-    <row r="29" ht="20" spans="1:29">
+      <c r="AA28" s="33"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="34"/>
+    </row>
+    <row r="29" ht="157" spans="1:29">
       <c r="A29" s="5" t="s">
         <v>92</v>
       </c>
@@ -3263,26 +3250,26 @@
       </c>
       <c r="L29" s="21"/>
       <c r="M29" s="28"/>
-      <c r="N29" s="29"/>
+      <c r="N29" s="21"/>
       <c r="O29" s="26"/>
-      <c r="P29" s="30"/>
+      <c r="P29" s="29"/>
       <c r="Q29" s="26"/>
       <c r="R29" s="28"/>
       <c r="S29" s="28"/>
       <c r="T29" s="28"/>
-      <c r="U29" s="32">
+      <c r="U29" s="31">
         <v>6</v>
       </c>
       <c r="V29" s="28"/>
       <c r="W29" s="5"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="29"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="21"/>
       <c r="Z29" s="26"/>
-      <c r="AA29" s="34"/>
-      <c r="AB29" s="35"/>
-      <c r="AC29" s="36"/>
-    </row>
-    <row r="30" ht="40" spans="1:29">
+      <c r="AA29" s="33"/>
+      <c r="AB29" s="34"/>
+      <c r="AC29" s="34"/>
+    </row>
+    <row r="30" ht="196" spans="1:29">
       <c r="A30" s="5" t="s">
         <v>94</v>
       </c>
@@ -3319,19 +3306,19 @@
       <c r="R30" s="24"/>
       <c r="S30" s="24"/>
       <c r="T30" s="24"/>
-      <c r="U30" s="32">
+      <c r="U30" s="31">
         <v>15</v>
       </c>
       <c r="V30" s="24"/>
       <c r="W30" s="5"/>
-      <c r="X30" s="33"/>
+      <c r="X30" s="32"/>
       <c r="Y30" s="25"/>
       <c r="Z30" s="26"/>
-      <c r="AA30" s="34"/>
-      <c r="AB30" s="35"/>
-      <c r="AC30" s="36"/>
-    </row>
-    <row r="31" ht="40" spans="1:29">
+      <c r="AA30" s="33"/>
+      <c r="AB30" s="34"/>
+      <c r="AC30" s="34"/>
+    </row>
+    <row r="31" ht="196" spans="1:29">
       <c r="A31" s="5" t="s">
         <v>96</v>
       </c>
@@ -3361,26 +3348,26 @@
       </c>
       <c r="L31" s="21"/>
       <c r="M31" s="28"/>
-      <c r="N31" s="29"/>
+      <c r="N31" s="21"/>
       <c r="O31" s="26"/>
-      <c r="P31" s="30"/>
+      <c r="P31" s="29"/>
       <c r="Q31" s="26"/>
       <c r="R31" s="28"/>
       <c r="S31" s="28"/>
       <c r="T31" s="28"/>
-      <c r="U31" s="32">
+      <c r="U31" s="31">
         <v>6</v>
       </c>
       <c r="V31" s="28"/>
       <c r="W31" s="5"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="29"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="21"/>
       <c r="Z31" s="26"/>
-      <c r="AA31" s="34"/>
-      <c r="AB31" s="35"/>
-      <c r="AC31" s="36"/>
-    </row>
-    <row r="32" ht="20" spans="1:29">
+      <c r="AA31" s="33"/>
+      <c r="AB31" s="34"/>
+      <c r="AC31" s="34"/>
+    </row>
+    <row r="32" ht="157" spans="1:29">
       <c r="A32" s="5" t="s">
         <v>98</v>
       </c>
@@ -3417,19 +3404,19 @@
       <c r="R32" s="24"/>
       <c r="S32" s="24"/>
       <c r="T32" s="24"/>
-      <c r="U32" s="32">
+      <c r="U32" s="31">
         <v>6</v>
       </c>
       <c r="V32" s="24"/>
       <c r="W32" s="5"/>
-      <c r="X32" s="33"/>
+      <c r="X32" s="32"/>
       <c r="Y32" s="25"/>
       <c r="Z32" s="26"/>
-      <c r="AA32" s="34"/>
-      <c r="AB32" s="35"/>
-      <c r="AC32" s="36"/>
-    </row>
-    <row r="33" ht="20" spans="1:29">
+      <c r="AA32" s="33"/>
+      <c r="AB32" s="34"/>
+      <c r="AC32" s="34"/>
+    </row>
+    <row r="33" ht="157" spans="1:29">
       <c r="A33" s="5" t="s">
         <v>100</v>
       </c>
@@ -3459,26 +3446,26 @@
       </c>
       <c r="L33" s="21"/>
       <c r="M33" s="28"/>
-      <c r="N33" s="29"/>
+      <c r="N33" s="21"/>
       <c r="O33" s="26"/>
-      <c r="P33" s="30"/>
+      <c r="P33" s="29"/>
       <c r="Q33" s="26"/>
       <c r="R33" s="28"/>
       <c r="S33" s="28"/>
       <c r="T33" s="28"/>
-      <c r="U33" s="32">
+      <c r="U33" s="31">
         <v>6</v>
       </c>
       <c r="V33" s="28"/>
       <c r="W33" s="5"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="29"/>
+      <c r="X33" s="32"/>
+      <c r="Y33" s="21"/>
       <c r="Z33" s="26"/>
-      <c r="AA33" s="34"/>
-      <c r="AB33" s="35"/>
-      <c r="AC33" s="36"/>
-    </row>
-    <row r="34" ht="20" spans="1:29">
+      <c r="AA33" s="33"/>
+      <c r="AB33" s="34"/>
+      <c r="AC33" s="34"/>
+    </row>
+    <row r="34" ht="177" spans="1:29">
       <c r="A34" s="5" t="s">
         <v>101</v>
       </c>
@@ -3515,19 +3502,19 @@
       <c r="R34" s="24"/>
       <c r="S34" s="24"/>
       <c r="T34" s="24"/>
-      <c r="U34" s="32">
+      <c r="U34" s="31">
         <v>6</v>
       </c>
       <c r="V34" s="24"/>
       <c r="W34" s="5"/>
-      <c r="X34" s="33"/>
+      <c r="X34" s="32"/>
       <c r="Y34" s="25"/>
       <c r="Z34" s="26"/>
-      <c r="AA34" s="34"/>
-      <c r="AB34" s="35"/>
-      <c r="AC34" s="36"/>
-    </row>
-    <row r="35" ht="20" spans="1:29">
+      <c r="AA34" s="33"/>
+      <c r="AB34" s="34"/>
+      <c r="AC34" s="34"/>
+    </row>
+    <row r="35" ht="196" spans="1:29">
       <c r="A35" s="5" t="s">
         <v>103</v>
       </c>
@@ -3557,26 +3544,26 @@
       </c>
       <c r="L35" s="21"/>
       <c r="M35" s="28"/>
-      <c r="N35" s="29"/>
+      <c r="N35" s="21"/>
       <c r="O35" s="26"/>
-      <c r="P35" s="30"/>
+      <c r="P35" s="29"/>
       <c r="Q35" s="26"/>
       <c r="R35" s="28"/>
       <c r="S35" s="28"/>
       <c r="T35" s="28"/>
-      <c r="U35" s="32">
+      <c r="U35" s="31">
         <v>6</v>
       </c>
       <c r="V35" s="28"/>
       <c r="W35" s="5"/>
-      <c r="X35" s="33"/>
-      <c r="Y35" s="29"/>
+      <c r="X35" s="32"/>
+      <c r="Y35" s="21"/>
       <c r="Z35" s="26"/>
-      <c r="AA35" s="34"/>
-      <c r="AB35" s="35"/>
-      <c r="AC35" s="36"/>
-    </row>
-    <row r="36" ht="20" spans="1:29">
+      <c r="AA35" s="33"/>
+      <c r="AB35" s="34"/>
+      <c r="AC35" s="34"/>
+    </row>
+    <row r="36" ht="157" spans="1:29">
       <c r="A36" s="5" t="s">
         <v>105</v>
       </c>
@@ -3613,19 +3600,19 @@
       <c r="R36" s="24"/>
       <c r="S36" s="24"/>
       <c r="T36" s="24"/>
-      <c r="U36" s="32">
+      <c r="U36" s="31">
         <v>6</v>
       </c>
       <c r="V36" s="24"/>
       <c r="W36" s="5"/>
-      <c r="X36" s="33"/>
+      <c r="X36" s="32"/>
       <c r="Y36" s="25"/>
       <c r="Z36" s="26"/>
-      <c r="AA36" s="34"/>
-      <c r="AB36" s="35"/>
-      <c r="AC36" s="36"/>
-    </row>
-    <row r="37" ht="20" spans="1:29">
+      <c r="AA36" s="33"/>
+      <c r="AB36" s="34"/>
+      <c r="AC36" s="34"/>
+    </row>
+    <row r="37" ht="196" spans="1:29">
       <c r="A37" s="5" t="s">
         <v>107</v>
       </c>
@@ -3655,26 +3642,26 @@
       </c>
       <c r="L37" s="21"/>
       <c r="M37" s="28"/>
-      <c r="N37" s="29"/>
+      <c r="N37" s="21"/>
       <c r="O37" s="26"/>
-      <c r="P37" s="30"/>
+      <c r="P37" s="29"/>
       <c r="Q37" s="26"/>
       <c r="R37" s="28"/>
       <c r="S37" s="28"/>
       <c r="T37" s="28"/>
-      <c r="U37" s="32">
+      <c r="U37" s="31">
         <v>6</v>
       </c>
       <c r="V37" s="28"/>
       <c r="W37" s="5"/>
-      <c r="X37" s="33"/>
-      <c r="Y37" s="29"/>
+      <c r="X37" s="32"/>
+      <c r="Y37" s="21"/>
       <c r="Z37" s="26"/>
-      <c r="AA37" s="34"/>
-      <c r="AB37" s="35"/>
-      <c r="AC37" s="36"/>
-    </row>
-    <row r="38" ht="40" spans="1:29">
+      <c r="AA37" s="33"/>
+      <c r="AB37" s="34"/>
+      <c r="AC37" s="34"/>
+    </row>
+    <row r="38" ht="216" spans="1:29">
       <c r="A38" s="5" t="s">
         <v>109</v>
       </c>
@@ -3711,19 +3698,19 @@
       <c r="R38" s="24"/>
       <c r="S38" s="24"/>
       <c r="T38" s="24"/>
-      <c r="U38" s="32">
+      <c r="U38" s="31">
         <v>6</v>
       </c>
       <c r="V38" s="24"/>
       <c r="W38" s="5"/>
-      <c r="X38" s="33"/>
+      <c r="X38" s="32"/>
       <c r="Y38" s="25"/>
       <c r="Z38" s="26"/>
-      <c r="AA38" s="34"/>
-      <c r="AB38" s="35"/>
-      <c r="AC38" s="36"/>
-    </row>
-    <row r="39" ht="20" spans="1:29">
+      <c r="AA38" s="33"/>
+      <c r="AB38" s="34"/>
+      <c r="AC38" s="34"/>
+    </row>
+    <row r="39" ht="138" spans="1:29">
       <c r="A39" s="5" t="s">
         <v>111</v>
       </c>
@@ -3753,26 +3740,26 @@
       </c>
       <c r="L39" s="21"/>
       <c r="M39" s="28"/>
-      <c r="N39" s="29"/>
+      <c r="N39" s="21"/>
       <c r="O39" s="26"/>
-      <c r="P39" s="30"/>
+      <c r="P39" s="29"/>
       <c r="Q39" s="26"/>
       <c r="R39" s="28"/>
       <c r="S39" s="28"/>
       <c r="T39" s="28"/>
-      <c r="U39" s="32">
+      <c r="U39" s="31">
         <v>6</v>
       </c>
       <c r="V39" s="28"/>
       <c r="W39" s="5"/>
-      <c r="X39" s="33"/>
-      <c r="Y39" s="29"/>
+      <c r="X39" s="32"/>
+      <c r="Y39" s="21"/>
       <c r="Z39" s="26"/>
-      <c r="AA39" s="34"/>
-      <c r="AB39" s="35"/>
-      <c r="AC39" s="36"/>
-    </row>
-    <row r="40" ht="40" spans="1:29">
+      <c r="AA39" s="33"/>
+      <c r="AB39" s="34"/>
+      <c r="AC39" s="34"/>
+    </row>
+    <row r="40" ht="314" spans="1:29">
       <c r="A40" s="5" t="s">
         <v>113</v>
       </c>
@@ -3809,19 +3796,19 @@
       <c r="R40" s="24"/>
       <c r="S40" s="24"/>
       <c r="T40" s="24"/>
-      <c r="U40" s="32">
+      <c r="U40" s="31">
         <v>6</v>
       </c>
       <c r="V40" s="24"/>
       <c r="W40" s="5"/>
-      <c r="X40" s="33"/>
+      <c r="X40" s="32"/>
       <c r="Y40" s="25"/>
       <c r="Z40" s="26"/>
-      <c r="AA40" s="34"/>
-      <c r="AB40" s="35"/>
-      <c r="AC40" s="36"/>
-    </row>
-    <row r="41" ht="40" spans="1:29">
+      <c r="AA40" s="33"/>
+      <c r="AB40" s="34"/>
+      <c r="AC40" s="34"/>
+    </row>
+    <row r="41" ht="294" spans="1:29">
       <c r="A41" s="5" t="s">
         <v>115</v>
       </c>
@@ -3851,26 +3838,26 @@
       </c>
       <c r="L41" s="21"/>
       <c r="M41" s="28"/>
-      <c r="N41" s="29"/>
+      <c r="N41" s="21"/>
       <c r="O41" s="26"/>
-      <c r="P41" s="30"/>
+      <c r="P41" s="29"/>
       <c r="Q41" s="26"/>
       <c r="R41" s="28"/>
       <c r="S41" s="28"/>
       <c r="T41" s="28"/>
-      <c r="U41" s="32">
+      <c r="U41" s="31">
         <v>6</v>
       </c>
       <c r="V41" s="28"/>
       <c r="W41" s="5"/>
-      <c r="X41" s="33"/>
-      <c r="Y41" s="29"/>
+      <c r="X41" s="32"/>
+      <c r="Y41" s="21"/>
       <c r="Z41" s="26"/>
-      <c r="AA41" s="34"/>
-      <c r="AB41" s="35"/>
-      <c r="AC41" s="36"/>
-    </row>
-    <row r="42" ht="40" spans="1:29">
+      <c r="AA41" s="33"/>
+      <c r="AB41" s="34"/>
+      <c r="AC41" s="34"/>
+    </row>
+    <row r="42" ht="294" spans="1:29">
       <c r="A42" s="5" t="s">
         <v>117</v>
       </c>
@@ -3907,19 +3894,19 @@
       <c r="R42" s="24"/>
       <c r="S42" s="24"/>
       <c r="T42" s="24"/>
-      <c r="U42" s="32">
+      <c r="U42" s="31">
         <v>6</v>
       </c>
       <c r="V42" s="24"/>
       <c r="W42" s="5"/>
-      <c r="X42" s="33"/>
+      <c r="X42" s="32"/>
       <c r="Y42" s="25"/>
       <c r="Z42" s="26"/>
-      <c r="AA42" s="34"/>
-      <c r="AB42" s="35"/>
-      <c r="AC42" s="36"/>
-    </row>
-    <row r="43" ht="40" spans="1:29">
+      <c r="AA42" s="33"/>
+      <c r="AB42" s="34"/>
+      <c r="AC42" s="34"/>
+    </row>
+    <row r="43" ht="157" spans="1:29">
       <c r="A43" s="5" t="s">
         <v>119</v>
       </c>
@@ -3949,26 +3936,26 @@
       </c>
       <c r="L43" s="21"/>
       <c r="M43" s="28"/>
-      <c r="N43" s="29"/>
+      <c r="N43" s="21"/>
       <c r="O43" s="26"/>
-      <c r="P43" s="30"/>
+      <c r="P43" s="29"/>
       <c r="Q43" s="26"/>
       <c r="R43" s="28"/>
       <c r="S43" s="28"/>
       <c r="T43" s="28"/>
-      <c r="U43" s="32">
+      <c r="U43" s="31">
         <v>5</v>
       </c>
       <c r="V43" s="28"/>
       <c r="W43" s="5"/>
-      <c r="X43" s="33"/>
-      <c r="Y43" s="29"/>
+      <c r="X43" s="32"/>
+      <c r="Y43" s="21"/>
       <c r="Z43" s="26"/>
-      <c r="AA43" s="34"/>
-      <c r="AB43" s="35"/>
-      <c r="AC43" s="36"/>
-    </row>
-    <row r="44" ht="40" spans="1:29">
+      <c r="AA43" s="33"/>
+      <c r="AB43" s="34"/>
+      <c r="AC43" s="34"/>
+    </row>
+    <row r="44" ht="275" spans="1:29">
       <c r="A44" s="5" t="s">
         <v>122</v>
       </c>
@@ -4005,19 +3992,19 @@
       <c r="R44" s="24"/>
       <c r="S44" s="24"/>
       <c r="T44" s="24"/>
-      <c r="U44" s="32">
+      <c r="U44" s="31">
         <v>5</v>
       </c>
       <c r="V44" s="24"/>
       <c r="W44" s="5"/>
-      <c r="X44" s="33"/>
+      <c r="X44" s="32"/>
       <c r="Y44" s="25"/>
       <c r="Z44" s="26"/>
-      <c r="AA44" s="34"/>
-      <c r="AB44" s="35"/>
-      <c r="AC44" s="36"/>
-    </row>
-    <row r="45" ht="20" spans="1:29">
+      <c r="AA44" s="33"/>
+      <c r="AB44" s="34"/>
+      <c r="AC44" s="34"/>
+    </row>
+    <row r="45" ht="157" spans="1:29">
       <c r="A45" s="5" t="s">
         <v>124</v>
       </c>
@@ -4047,26 +4034,26 @@
       </c>
       <c r="L45" s="21"/>
       <c r="M45" s="28"/>
-      <c r="N45" s="29"/>
+      <c r="N45" s="21"/>
       <c r="O45" s="26"/>
-      <c r="P45" s="30"/>
+      <c r="P45" s="29"/>
       <c r="Q45" s="26"/>
       <c r="R45" s="28"/>
       <c r="S45" s="28"/>
       <c r="T45" s="28"/>
-      <c r="U45" s="32">
+      <c r="U45" s="31">
         <v>5</v>
       </c>
       <c r="V45" s="28"/>
       <c r="W45" s="5"/>
-      <c r="X45" s="33"/>
-      <c r="Y45" s="29"/>
+      <c r="X45" s="32"/>
+      <c r="Y45" s="21"/>
       <c r="Z45" s="26"/>
-      <c r="AA45" s="34"/>
-      <c r="AB45" s="35"/>
-      <c r="AC45" s="36"/>
-    </row>
-    <row r="46" ht="40" spans="1:29">
+      <c r="AA45" s="33"/>
+      <c r="AB45" s="34"/>
+      <c r="AC45" s="34"/>
+    </row>
+    <row r="46" ht="294" spans="1:29">
       <c r="A46" s="5" t="s">
         <v>126</v>
       </c>
@@ -4103,19 +4090,19 @@
       <c r="R46" s="24"/>
       <c r="S46" s="24"/>
       <c r="T46" s="24"/>
-      <c r="U46" s="32">
+      <c r="U46" s="31">
         <v>5</v>
       </c>
       <c r="V46" s="24"/>
       <c r="W46" s="5"/>
-      <c r="X46" s="33"/>
+      <c r="X46" s="32"/>
       <c r="Y46" s="25"/>
       <c r="Z46" s="26"/>
-      <c r="AA46" s="34"/>
-      <c r="AB46" s="35"/>
-      <c r="AC46" s="36"/>
-    </row>
-    <row r="47" ht="40" spans="1:29">
+      <c r="AA46" s="33"/>
+      <c r="AB46" s="34"/>
+      <c r="AC46" s="34"/>
+    </row>
+    <row r="47" ht="177" spans="1:29">
       <c r="A47" s="5" t="s">
         <v>128</v>
       </c>
@@ -4145,26 +4132,26 @@
       </c>
       <c r="L47" s="21"/>
       <c r="M47" s="28"/>
-      <c r="N47" s="29"/>
+      <c r="N47" s="21"/>
       <c r="O47" s="26"/>
-      <c r="P47" s="30"/>
+      <c r="P47" s="29"/>
       <c r="Q47" s="26"/>
       <c r="R47" s="28"/>
       <c r="S47" s="28"/>
       <c r="T47" s="28"/>
-      <c r="U47" s="32">
+      <c r="U47" s="31">
         <v>18</v>
       </c>
       <c r="V47" s="28"/>
       <c r="W47" s="5"/>
-      <c r="X47" s="33"/>
-      <c r="Y47" s="29"/>
+      <c r="X47" s="32"/>
+      <c r="Y47" s="21"/>
       <c r="Z47" s="26"/>
-      <c r="AA47" s="34"/>
-      <c r="AB47" s="35"/>
-      <c r="AC47" s="36"/>
-    </row>
-    <row r="48" ht="40" spans="1:29">
+      <c r="AA47" s="33"/>
+      <c r="AB47" s="34"/>
+      <c r="AC47" s="34"/>
+    </row>
+    <row r="48" ht="177" spans="1:29">
       <c r="A48" s="5" t="s">
         <v>131</v>
       </c>
@@ -4201,19 +4188,19 @@
       <c r="R48" s="24"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
-      <c r="U48" s="32">
+      <c r="U48" s="31">
         <v>18</v>
       </c>
       <c r="V48" s="24"/>
       <c r="W48" s="5"/>
-      <c r="X48" s="33"/>
+      <c r="X48" s="32"/>
       <c r="Y48" s="25"/>
       <c r="Z48" s="26"/>
-      <c r="AA48" s="34"/>
-      <c r="AB48" s="35"/>
-      <c r="AC48" s="36"/>
-    </row>
-    <row r="49" ht="40" spans="1:29">
+      <c r="AA48" s="33"/>
+      <c r="AB48" s="34"/>
+      <c r="AC48" s="34"/>
+    </row>
+    <row r="49" ht="177" spans="1:29">
       <c r="A49" s="5" t="s">
         <v>133</v>
       </c>
@@ -4243,26 +4230,26 @@
       </c>
       <c r="L49" s="21"/>
       <c r="M49" s="28"/>
-      <c r="N49" s="29"/>
+      <c r="N49" s="21"/>
       <c r="O49" s="26"/>
-      <c r="P49" s="30"/>
+      <c r="P49" s="29"/>
       <c r="Q49" s="26"/>
       <c r="R49" s="28"/>
       <c r="S49" s="28"/>
       <c r="T49" s="28"/>
-      <c r="U49" s="32">
+      <c r="U49" s="31">
         <v>18</v>
       </c>
       <c r="V49" s="28"/>
       <c r="W49" s="5"/>
-      <c r="X49" s="33"/>
-      <c r="Y49" s="29"/>
+      <c r="X49" s="32"/>
+      <c r="Y49" s="21"/>
       <c r="Z49" s="26"/>
-      <c r="AA49" s="34"/>
-      <c r="AB49" s="35"/>
-      <c r="AC49" s="36"/>
-    </row>
-    <row r="50" ht="40" spans="1:29">
+      <c r="AA49" s="33"/>
+      <c r="AB49" s="34"/>
+      <c r="AC49" s="34"/>
+    </row>
+    <row r="50" ht="196" spans="1:29">
       <c r="A50" s="5" t="s">
         <v>135</v>
       </c>
@@ -4299,19 +4286,19 @@
       <c r="R50" s="24"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
-      <c r="U50" s="32">
+      <c r="U50" s="31">
         <v>18</v>
       </c>
       <c r="V50" s="24"/>
       <c r="W50" s="5"/>
-      <c r="X50" s="33"/>
+      <c r="X50" s="32"/>
       <c r="Y50" s="25"/>
       <c r="Z50" s="26"/>
-      <c r="AA50" s="34"/>
-      <c r="AB50" s="35"/>
-      <c r="AC50" s="36"/>
-    </row>
-    <row r="51" ht="40" spans="1:29">
+      <c r="AA50" s="33"/>
+      <c r="AB50" s="34"/>
+      <c r="AC50" s="34"/>
+    </row>
+    <row r="51" ht="177" spans="1:29">
       <c r="A51" s="5" t="s">
         <v>138</v>
       </c>
@@ -4341,26 +4328,26 @@
       </c>
       <c r="L51" s="21"/>
       <c r="M51" s="28"/>
-      <c r="N51" s="29"/>
+      <c r="N51" s="21"/>
       <c r="O51" s="26"/>
-      <c r="P51" s="30"/>
+      <c r="P51" s="29"/>
       <c r="Q51" s="26"/>
       <c r="R51" s="28"/>
       <c r="S51" s="28"/>
       <c r="T51" s="28"/>
-      <c r="U51" s="32">
+      <c r="U51" s="31">
         <v>18</v>
       </c>
       <c r="V51" s="28"/>
       <c r="W51" s="5"/>
-      <c r="X51" s="33"/>
-      <c r="Y51" s="29"/>
+      <c r="X51" s="32"/>
+      <c r="Y51" s="21"/>
       <c r="Z51" s="26"/>
-      <c r="AA51" s="34"/>
-      <c r="AB51" s="35"/>
-      <c r="AC51" s="36"/>
-    </row>
-    <row r="52" ht="40" spans="1:29">
+      <c r="AA51" s="33"/>
+      <c r="AB51" s="34"/>
+      <c r="AC51" s="34"/>
+    </row>
+    <row r="52" ht="157" spans="1:29">
       <c r="A52" s="5" t="s">
         <v>140</v>
       </c>
@@ -4397,19 +4384,19 @@
       <c r="R52" s="24"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
-      <c r="U52" s="32">
+      <c r="U52" s="31">
         <v>30</v>
       </c>
       <c r="V52" s="24"/>
       <c r="W52" s="5"/>
-      <c r="X52" s="33"/>
+      <c r="X52" s="32"/>
       <c r="Y52" s="25"/>
       <c r="Z52" s="26"/>
-      <c r="AA52" s="34"/>
-      <c r="AB52" s="35"/>
-      <c r="AC52" s="36"/>
-    </row>
-    <row r="53" ht="40" spans="1:29">
+      <c r="AA52" s="33"/>
+      <c r="AB52" s="34"/>
+      <c r="AC52" s="34"/>
+    </row>
+    <row r="53" ht="157" spans="1:29">
       <c r="A53" s="5" t="s">
         <v>142</v>
       </c>
@@ -4439,26 +4426,26 @@
       </c>
       <c r="L53" s="21"/>
       <c r="M53" s="28"/>
-      <c r="N53" s="29"/>
+      <c r="N53" s="21"/>
       <c r="O53" s="26"/>
-      <c r="P53" s="30"/>
+      <c r="P53" s="29"/>
       <c r="Q53" s="26"/>
       <c r="R53" s="28"/>
       <c r="S53" s="28"/>
       <c r="T53" s="28"/>
-      <c r="U53" s="32">
+      <c r="U53" s="31">
         <v>30</v>
       </c>
       <c r="V53" s="28"/>
       <c r="W53" s="5"/>
-      <c r="X53" s="33"/>
-      <c r="Y53" s="29"/>
+      <c r="X53" s="32"/>
+      <c r="Y53" s="21"/>
       <c r="Z53" s="26"/>
-      <c r="AA53" s="34"/>
-      <c r="AB53" s="35"/>
-      <c r="AC53" s="36"/>
-    </row>
-    <row r="54" ht="40" spans="1:28">
+      <c r="AA53" s="33"/>
+      <c r="AB53" s="34"/>
+      <c r="AC53" s="34"/>
+    </row>
+    <row r="54" ht="157" spans="1:28">
       <c r="A54" s="5" t="s">
         <v>146</v>
       </c>
@@ -4495,18 +4482,18 @@
       <c r="R54" s="24"/>
       <c r="S54" s="24"/>
       <c r="T54" s="24"/>
-      <c r="U54" s="32">
+      <c r="U54" s="31">
         <v>25</v>
       </c>
       <c r="V54" s="24"/>
       <c r="W54" s="5"/>
-      <c r="X54" s="33"/>
+      <c r="X54" s="32"/>
       <c r="Y54" s="25"/>
       <c r="Z54" s="26"/>
-      <c r="AA54" s="34"/>
-      <c r="AB54" s="35"/>
-    </row>
-    <row r="55" ht="40" spans="1:28">
+      <c r="AA54" s="33"/>
+      <c r="AB54" s="34"/>
+    </row>
+    <row r="55" ht="157" spans="1:28">
       <c r="A55" s="5" t="s">
         <v>149</v>
       </c>
@@ -4536,25 +4523,25 @@
       </c>
       <c r="L55" s="21"/>
       <c r="M55" s="28"/>
-      <c r="N55" s="29"/>
+      <c r="N55" s="21"/>
       <c r="O55" s="26"/>
-      <c r="P55" s="30"/>
+      <c r="P55" s="29"/>
       <c r="Q55" s="26"/>
       <c r="R55" s="28"/>
       <c r="S55" s="28"/>
       <c r="T55" s="28"/>
-      <c r="U55" s="32">
+      <c r="U55" s="31">
         <v>30</v>
       </c>
       <c r="V55" s="28"/>
       <c r="W55" s="5"/>
-      <c r="X55" s="33"/>
-      <c r="Y55" s="29"/>
+      <c r="X55" s="32"/>
+      <c r="Y55" s="21"/>
       <c r="Z55" s="26"/>
-      <c r="AA55" s="34"/>
-      <c r="AB55" s="35"/>
-    </row>
-    <row r="56" ht="40" spans="1:28">
+      <c r="AA55" s="33"/>
+      <c r="AB55" s="34"/>
+    </row>
+    <row r="56" ht="177" spans="1:28">
       <c r="A56" s="5" t="s">
         <v>150</v>
       </c>
@@ -4591,18 +4578,18 @@
       <c r="R56" s="24"/>
       <c r="S56" s="24"/>
       <c r="T56" s="24"/>
-      <c r="U56" s="32">
+      <c r="U56" s="31">
         <v>25</v>
       </c>
       <c r="V56" s="24"/>
       <c r="W56" s="5"/>
-      <c r="X56" s="33"/>
+      <c r="X56" s="32"/>
       <c r="Y56" s="25"/>
       <c r="Z56" s="26"/>
-      <c r="AA56" s="34"/>
-      <c r="AB56" s="35"/>
-    </row>
-    <row r="57" ht="40" spans="1:28">
+      <c r="AA56" s="33"/>
+      <c r="AB56" s="34"/>
+    </row>
+    <row r="57" ht="196" spans="1:28">
       <c r="A57" s="5" t="s">
         <v>152</v>
       </c>
@@ -4632,25 +4619,25 @@
       </c>
       <c r="L57" s="21"/>
       <c r="M57" s="28"/>
-      <c r="N57" s="29"/>
+      <c r="N57" s="21"/>
       <c r="O57" s="26"/>
-      <c r="P57" s="30"/>
+      <c r="P57" s="29"/>
       <c r="Q57" s="26"/>
       <c r="R57" s="28"/>
       <c r="S57" s="28"/>
       <c r="T57" s="28"/>
-      <c r="U57" s="32">
+      <c r="U57" s="31">
         <v>25</v>
       </c>
       <c r="V57" s="28"/>
       <c r="W57" s="5"/>
-      <c r="X57" s="33"/>
-      <c r="Y57" s="29"/>
+      <c r="X57" s="32"/>
+      <c r="Y57" s="21"/>
       <c r="Z57" s="26"/>
-      <c r="AA57" s="34"/>
-      <c r="AB57" s="35"/>
-    </row>
-    <row r="58" ht="40" spans="1:28">
+      <c r="AA57" s="33"/>
+      <c r="AB57" s="34"/>
+    </row>
+    <row r="58" ht="196" spans="1:28">
       <c r="A58" s="5" t="s">
         <v>155</v>
       </c>
@@ -4687,18 +4674,18 @@
       <c r="R58" s="24"/>
       <c r="S58" s="24"/>
       <c r="T58" s="24"/>
-      <c r="U58" s="32">
+      <c r="U58" s="31">
         <v>25</v>
       </c>
       <c r="V58" s="24"/>
       <c r="W58" s="5"/>
-      <c r="X58" s="33"/>
+      <c r="X58" s="32"/>
       <c r="Y58" s="25"/>
       <c r="Z58" s="26"/>
-      <c r="AA58" s="34"/>
-      <c r="AB58" s="35"/>
-    </row>
-    <row r="59" ht="40" spans="1:28">
+      <c r="AA58" s="33"/>
+      <c r="AB58" s="34"/>
+    </row>
+    <row r="59" ht="138" spans="1:28">
       <c r="A59" s="5" t="s">
         <v>156</v>
       </c>
@@ -4728,25 +4715,25 @@
       </c>
       <c r="L59" s="21"/>
       <c r="M59" s="28"/>
-      <c r="N59" s="29"/>
+      <c r="N59" s="21"/>
       <c r="O59" s="26"/>
-      <c r="P59" s="30"/>
+      <c r="P59" s="29"/>
       <c r="Q59" s="26"/>
       <c r="R59" s="28"/>
       <c r="S59" s="28"/>
       <c r="T59" s="28"/>
-      <c r="U59" s="32">
+      <c r="U59" s="31">
         <v>35</v>
       </c>
       <c r="V59" s="28"/>
       <c r="W59" s="5"/>
-      <c r="X59" s="33"/>
-      <c r="Y59" s="29"/>
+      <c r="X59" s="32"/>
+      <c r="Y59" s="21"/>
       <c r="Z59" s="26"/>
-      <c r="AA59" s="34"/>
-      <c r="AB59" s="35"/>
-    </row>
-    <row r="60" ht="20" spans="1:28">
+      <c r="AA59" s="33"/>
+      <c r="AB59" s="34"/>
+    </row>
+    <row r="60" ht="157" spans="1:28">
       <c r="A60" s="5" t="s">
         <v>158</v>
       </c>
@@ -4783,18 +4770,18 @@
       <c r="R60" s="24"/>
       <c r="S60" s="24"/>
       <c r="T60" s="24"/>
-      <c r="U60" s="32">
+      <c r="U60" s="31">
         <v>25</v>
       </c>
       <c r="V60" s="24"/>
       <c r="W60" s="5"/>
-      <c r="X60" s="33"/>
+      <c r="X60" s="32"/>
       <c r="Y60" s="25"/>
       <c r="Z60" s="26"/>
-      <c r="AA60" s="34"/>
-      <c r="AB60" s="35"/>
-    </row>
-    <row r="61" ht="20" spans="1:28">
+      <c r="AA60" s="33"/>
+      <c r="AB60" s="34"/>
+    </row>
+    <row r="61" ht="138" spans="1:28">
       <c r="A61" s="5" t="s">
         <v>160</v>
       </c>
@@ -4824,25 +4811,25 @@
       </c>
       <c r="L61" s="21"/>
       <c r="M61" s="28"/>
-      <c r="N61" s="29"/>
+      <c r="N61" s="21"/>
       <c r="O61" s="26"/>
-      <c r="P61" s="30"/>
+      <c r="P61" s="29"/>
       <c r="Q61" s="26"/>
       <c r="R61" s="28"/>
       <c r="S61" s="28"/>
       <c r="T61" s="28"/>
-      <c r="U61" s="32">
+      <c r="U61" s="31">
         <v>30</v>
       </c>
       <c r="V61" s="28"/>
       <c r="W61" s="5"/>
-      <c r="X61" s="33"/>
-      <c r="Y61" s="29"/>
+      <c r="X61" s="32"/>
+      <c r="Y61" s="21"/>
       <c r="Z61" s="26"/>
-      <c r="AA61" s="34"/>
-      <c r="AB61" s="35"/>
-    </row>
-    <row r="62" ht="40" spans="1:28">
+      <c r="AA61" s="33"/>
+      <c r="AB61" s="34"/>
+    </row>
+    <row r="62" ht="216" spans="1:28">
       <c r="A62" s="5" t="s">
         <v>162</v>
       </c>
@@ -4879,18 +4866,18 @@
       <c r="R62" s="24"/>
       <c r="S62" s="24"/>
       <c r="T62" s="24"/>
-      <c r="U62" s="32">
+      <c r="U62" s="31">
         <v>25</v>
       </c>
       <c r="V62" s="24"/>
       <c r="W62" s="5"/>
-      <c r="X62" s="33"/>
+      <c r="X62" s="32"/>
       <c r="Y62" s="25"/>
       <c r="Z62" s="26"/>
-      <c r="AA62" s="34"/>
-      <c r="AB62" s="35"/>
-    </row>
-    <row r="63" ht="40" spans="1:28">
+      <c r="AA62" s="33"/>
+      <c r="AB62" s="34"/>
+    </row>
+    <row r="63" ht="196" spans="1:28">
       <c r="A63" s="5" t="s">
         <v>164</v>
       </c>
@@ -4920,25 +4907,25 @@
       </c>
       <c r="L63" s="21"/>
       <c r="M63" s="28"/>
-      <c r="N63" s="29"/>
+      <c r="N63" s="21"/>
       <c r="O63" s="26"/>
-      <c r="P63" s="30"/>
+      <c r="P63" s="29"/>
       <c r="Q63" s="26"/>
       <c r="R63" s="28"/>
       <c r="S63" s="28"/>
       <c r="T63" s="28"/>
-      <c r="U63" s="32">
+      <c r="U63" s="31">
         <v>25</v>
       </c>
       <c r="V63" s="28"/>
       <c r="W63" s="5"/>
-      <c r="X63" s="33"/>
-      <c r="Y63" s="29"/>
+      <c r="X63" s="32"/>
+      <c r="Y63" s="21"/>
       <c r="Z63" s="26"/>
-      <c r="AA63" s="34"/>
-      <c r="AB63" s="35"/>
-    </row>
-    <row r="64" ht="40" spans="1:28">
+      <c r="AA63" s="33"/>
+      <c r="AB63" s="34"/>
+    </row>
+    <row r="64" ht="196" spans="1:28">
       <c r="A64" s="5" t="s">
         <v>166</v>
       </c>
@@ -4975,18 +4962,18 @@
       <c r="R64" s="24"/>
       <c r="S64" s="24"/>
       <c r="T64" s="24"/>
-      <c r="U64" s="32">
+      <c r="U64" s="31">
         <v>35</v>
       </c>
       <c r="V64" s="24"/>
       <c r="W64" s="5"/>
-      <c r="X64" s="33"/>
+      <c r="X64" s="32"/>
       <c r="Y64" s="25"/>
       <c r="Z64" s="26"/>
-      <c r="AA64" s="34"/>
-      <c r="AB64" s="35"/>
-    </row>
-    <row r="65" ht="20" spans="1:28">
+      <c r="AA64" s="33"/>
+      <c r="AB64" s="34"/>
+    </row>
+    <row r="65" ht="157" spans="1:28">
       <c r="A65" s="5" t="s">
         <v>168</v>
       </c>
@@ -5016,25 +5003,25 @@
       </c>
       <c r="L65" s="21"/>
       <c r="M65" s="28"/>
-      <c r="N65" s="29"/>
+      <c r="N65" s="21"/>
       <c r="O65" s="26"/>
-      <c r="P65" s="30"/>
+      <c r="P65" s="29"/>
       <c r="Q65" s="26"/>
       <c r="R65" s="28"/>
       <c r="S65" s="28"/>
       <c r="T65" s="28"/>
-      <c r="U65" s="32">
+      <c r="U65" s="31">
         <v>20</v>
       </c>
       <c r="V65" s="28"/>
       <c r="W65" s="5"/>
-      <c r="X65" s="33"/>
-      <c r="Y65" s="29"/>
+      <c r="X65" s="32"/>
+      <c r="Y65" s="21"/>
       <c r="Z65" s="26"/>
-      <c r="AA65" s="34"/>
-      <c r="AB65" s="35"/>
-    </row>
-    <row r="66" ht="40" spans="1:28">
+      <c r="AA65" s="33"/>
+      <c r="AB65" s="34"/>
+    </row>
+    <row r="66" ht="196" spans="1:28">
       <c r="A66" s="5" t="s">
         <v>170</v>
       </c>
@@ -5071,18 +5058,18 @@
       <c r="R66" s="24"/>
       <c r="S66" s="24"/>
       <c r="T66" s="24"/>
-      <c r="U66" s="32">
+      <c r="U66" s="31">
         <v>20</v>
       </c>
       <c r="V66" s="24"/>
       <c r="W66" s="5"/>
-      <c r="X66" s="33"/>
+      <c r="X66" s="32"/>
       <c r="Y66" s="25"/>
       <c r="Z66" s="26"/>
-      <c r="AA66" s="34"/>
-      <c r="AB66" s="35"/>
-    </row>
-    <row r="67" ht="20" spans="1:28">
+      <c r="AA66" s="33"/>
+      <c r="AB66" s="34"/>
+    </row>
+    <row r="67" ht="177" spans="1:28">
       <c r="A67" s="5" t="s">
         <v>172</v>
       </c>
@@ -5112,25 +5099,25 @@
       </c>
       <c r="L67" s="21"/>
       <c r="M67" s="28"/>
-      <c r="N67" s="29"/>
+      <c r="N67" s="21"/>
       <c r="O67" s="26"/>
-      <c r="P67" s="30"/>
+      <c r="P67" s="29"/>
       <c r="Q67" s="26"/>
       <c r="R67" s="28"/>
       <c r="S67" s="28"/>
       <c r="T67" s="28"/>
-      <c r="U67" s="32">
+      <c r="U67" s="31">
         <v>20</v>
       </c>
       <c r="V67" s="28"/>
       <c r="W67" s="5"/>
-      <c r="X67" s="33"/>
-      <c r="Y67" s="29"/>
+      <c r="X67" s="32"/>
+      <c r="Y67" s="21"/>
       <c r="Z67" s="26"/>
-      <c r="AA67" s="34"/>
-      <c r="AB67" s="35"/>
-    </row>
-    <row r="68" ht="20" spans="1:28">
+      <c r="AA67" s="33"/>
+      <c r="AB67" s="34"/>
+    </row>
+    <row r="68" ht="118" spans="1:28">
       <c r="A68" s="5" t="s">
         <v>174</v>
       </c>
@@ -5167,18 +5154,18 @@
       <c r="R68" s="24"/>
       <c r="S68" s="24"/>
       <c r="T68" s="24"/>
-      <c r="U68" s="32">
+      <c r="U68" s="31">
         <v>18</v>
       </c>
       <c r="V68" s="24"/>
       <c r="W68" s="5"/>
-      <c r="X68" s="33"/>
+      <c r="X68" s="32"/>
       <c r="Y68" s="25"/>
       <c r="Z68" s="26"/>
-      <c r="AA68" s="34"/>
-      <c r="AB68" s="35"/>
-    </row>
-    <row r="69" ht="20" spans="1:28">
+      <c r="AA68" s="33"/>
+      <c r="AB68" s="34"/>
+    </row>
+    <row r="69" ht="157" spans="1:28">
       <c r="A69" s="5" t="s">
         <v>176</v>
       </c>
@@ -5208,25 +5195,25 @@
       </c>
       <c r="L69" s="21"/>
       <c r="M69" s="28"/>
-      <c r="N69" s="29"/>
+      <c r="N69" s="21"/>
       <c r="O69" s="26"/>
-      <c r="P69" s="30"/>
+      <c r="P69" s="29"/>
       <c r="Q69" s="26"/>
       <c r="R69" s="28"/>
       <c r="S69" s="28"/>
       <c r="T69" s="28"/>
-      <c r="U69" s="32">
+      <c r="U69" s="31">
         <v>25</v>
       </c>
       <c r="V69" s="28"/>
       <c r="W69" s="5"/>
-      <c r="X69" s="33"/>
-      <c r="Y69" s="29"/>
+      <c r="X69" s="32"/>
+      <c r="Y69" s="21"/>
       <c r="Z69" s="26"/>
-      <c r="AA69" s="34"/>
-      <c r="AB69" s="35"/>
-    </row>
-    <row r="70" ht="20" spans="1:28">
+      <c r="AA69" s="33"/>
+      <c r="AB69" s="34"/>
+    </row>
+    <row r="70" ht="118" spans="1:28">
       <c r="A70" s="5" t="s">
         <v>178</v>
       </c>
@@ -5263,18 +5250,18 @@
       <c r="R70" s="24"/>
       <c r="S70" s="24"/>
       <c r="T70" s="24"/>
-      <c r="U70" s="32">
+      <c r="U70" s="31">
         <v>20</v>
       </c>
       <c r="V70" s="24"/>
       <c r="W70" s="5"/>
-      <c r="X70" s="33"/>
+      <c r="X70" s="32"/>
       <c r="Y70" s="25"/>
       <c r="Z70" s="26"/>
-      <c r="AA70" s="34"/>
-      <c r="AB70" s="35"/>
-    </row>
-    <row r="71" ht="40" spans="1:28">
+      <c r="AA70" s="33"/>
+      <c r="AB70" s="34"/>
+    </row>
+    <row r="71" ht="216" spans="1:28">
       <c r="A71" s="5" t="s">
         <v>180</v>
       </c>
@@ -5304,25 +5291,25 @@
       </c>
       <c r="L71" s="21"/>
       <c r="M71" s="28"/>
-      <c r="N71" s="29"/>
+      <c r="N71" s="21"/>
       <c r="O71" s="26"/>
-      <c r="P71" s="30"/>
+      <c r="P71" s="29"/>
       <c r="Q71" s="26"/>
       <c r="R71" s="28"/>
       <c r="S71" s="28"/>
       <c r="T71" s="28"/>
-      <c r="U71" s="32">
+      <c r="U71" s="31">
         <v>30</v>
       </c>
       <c r="V71" s="28"/>
       <c r="W71" s="5"/>
-      <c r="X71" s="33"/>
-      <c r="Y71" s="29"/>
+      <c r="X71" s="32"/>
+      <c r="Y71" s="21"/>
       <c r="Z71" s="26"/>
-      <c r="AA71" s="34"/>
-      <c r="AB71" s="35"/>
-    </row>
-    <row r="72" ht="40" spans="1:28">
+      <c r="AA71" s="33"/>
+      <c r="AB71" s="34"/>
+    </row>
+    <row r="72" ht="196" spans="1:28">
       <c r="A72" s="5" t="s">
         <v>182</v>
       </c>
@@ -5359,18 +5346,18 @@
       <c r="R72" s="24"/>
       <c r="S72" s="24"/>
       <c r="T72" s="24"/>
-      <c r="U72" s="32">
+      <c r="U72" s="31">
         <v>30</v>
       </c>
       <c r="V72" s="24"/>
       <c r="W72" s="5"/>
-      <c r="X72" s="33"/>
+      <c r="X72" s="32"/>
       <c r="Y72" s="25"/>
       <c r="Z72" s="26"/>
-      <c r="AA72" s="34"/>
-      <c r="AB72" s="35"/>
-    </row>
-    <row r="73" ht="20" spans="1:28">
+      <c r="AA72" s="33"/>
+      <c r="AB72" s="34"/>
+    </row>
+    <row r="73" ht="138" spans="1:28">
       <c r="A73" s="5" t="s">
         <v>184</v>
       </c>
@@ -5400,25 +5387,25 @@
       </c>
       <c r="L73" s="21"/>
       <c r="M73" s="28"/>
-      <c r="N73" s="29"/>
+      <c r="N73" s="21"/>
       <c r="O73" s="26"/>
-      <c r="P73" s="30"/>
+      <c r="P73" s="29"/>
       <c r="Q73" s="26"/>
       <c r="R73" s="28"/>
       <c r="S73" s="28"/>
       <c r="T73" s="28"/>
-      <c r="U73" s="32">
+      <c r="U73" s="31">
         <v>30</v>
       </c>
       <c r="V73" s="28"/>
       <c r="W73" s="5"/>
-      <c r="X73" s="33"/>
-      <c r="Y73" s="29"/>
+      <c r="X73" s="32"/>
+      <c r="Y73" s="21"/>
       <c r="Z73" s="26"/>
-      <c r="AA73" s="34"/>
-      <c r="AB73" s="35"/>
-    </row>
-    <row r="74" ht="40" spans="1:28">
+      <c r="AA73" s="33"/>
+      <c r="AB73" s="34"/>
+    </row>
+    <row r="74" ht="196" spans="1:28">
       <c r="A74" s="5" t="s">
         <v>186</v>
       </c>
@@ -5455,18 +5442,18 @@
       <c r="R74" s="24"/>
       <c r="S74" s="24"/>
       <c r="T74" s="24"/>
-      <c r="U74" s="32">
+      <c r="U74" s="31">
         <v>30</v>
       </c>
       <c r="V74" s="24"/>
       <c r="W74" s="5"/>
-      <c r="X74" s="33"/>
+      <c r="X74" s="32"/>
       <c r="Y74" s="25"/>
       <c r="Z74" s="26"/>
-      <c r="AA74" s="34"/>
-      <c r="AB74" s="35"/>
-    </row>
-    <row r="75" ht="20" spans="1:28">
+      <c r="AA74" s="33"/>
+      <c r="AB74" s="34"/>
+    </row>
+    <row r="75" ht="157" spans="1:28">
       <c r="A75" s="5" t="s">
         <v>188</v>
       </c>
@@ -5496,25 +5483,25 @@
       </c>
       <c r="L75" s="21"/>
       <c r="M75" s="28"/>
-      <c r="N75" s="29"/>
+      <c r="N75" s="21"/>
       <c r="O75" s="26"/>
-      <c r="P75" s="30"/>
+      <c r="P75" s="29"/>
       <c r="Q75" s="26"/>
       <c r="R75" s="28"/>
       <c r="S75" s="28"/>
       <c r="T75" s="28"/>
-      <c r="U75" s="32">
+      <c r="U75" s="31">
         <v>30</v>
       </c>
       <c r="V75" s="28"/>
       <c r="W75" s="5"/>
-      <c r="X75" s="33"/>
-      <c r="Y75" s="29"/>
+      <c r="X75" s="32"/>
+      <c r="Y75" s="21"/>
       <c r="Z75" s="26"/>
-      <c r="AA75" s="34"/>
-      <c r="AB75" s="35"/>
-    </row>
-    <row r="76" ht="40" spans="1:28">
+      <c r="AA75" s="33"/>
+      <c r="AB75" s="34"/>
+    </row>
+    <row r="76" ht="157" spans="1:28">
       <c r="A76" s="5" t="s">
         <v>190</v>
       </c>
@@ -5551,18 +5538,18 @@
       <c r="R76" s="24"/>
       <c r="S76" s="24"/>
       <c r="T76" s="24"/>
-      <c r="U76" s="32">
+      <c r="U76" s="31">
         <v>30</v>
       </c>
       <c r="V76" s="24"/>
       <c r="W76" s="5"/>
-      <c r="X76" s="33"/>
+      <c r="X76" s="32"/>
       <c r="Y76" s="25"/>
       <c r="Z76" s="26"/>
-      <c r="AA76" s="34"/>
-      <c r="AB76" s="35"/>
-    </row>
-    <row r="77" ht="20" spans="1:28">
+      <c r="AA76" s="33"/>
+      <c r="AB76" s="34"/>
+    </row>
+    <row r="77" ht="177" spans="1:28">
       <c r="A77" s="5" t="s">
         <v>193</v>
       </c>
@@ -5592,25 +5579,25 @@
       </c>
       <c r="L77" s="21"/>
       <c r="M77" s="28"/>
-      <c r="N77" s="29"/>
+      <c r="N77" s="21"/>
       <c r="O77" s="26"/>
-      <c r="P77" s="30"/>
+      <c r="P77" s="29"/>
       <c r="Q77" s="26"/>
       <c r="R77" s="28"/>
       <c r="S77" s="28"/>
       <c r="T77" s="28"/>
-      <c r="U77" s="32">
+      <c r="U77" s="31">
         <v>35</v>
       </c>
       <c r="V77" s="28"/>
       <c r="W77" s="5"/>
-      <c r="X77" s="33"/>
-      <c r="Y77" s="29"/>
+      <c r="X77" s="32"/>
+      <c r="Y77" s="21"/>
       <c r="Z77" s="26"/>
-      <c r="AA77" s="34"/>
-      <c r="AB77" s="35"/>
-    </row>
-    <row r="78" ht="40" spans="1:28">
+      <c r="AA77" s="33"/>
+      <c r="AB77" s="34"/>
+    </row>
+    <row r="78" ht="177" spans="1:28">
       <c r="A78" s="5" t="s">
         <v>195</v>
       </c>
@@ -5647,16 +5634,16 @@
       <c r="R78" s="24"/>
       <c r="S78" s="24"/>
       <c r="T78" s="24"/>
-      <c r="U78" s="32">
+      <c r="U78" s="31">
         <v>40</v>
       </c>
       <c r="V78" s="24"/>
       <c r="W78" s="5"/>
-      <c r="X78" s="33"/>
+      <c r="X78" s="32"/>
       <c r="Y78" s="25"/>
       <c r="Z78" s="26"/>
-      <c r="AA78" s="34"/>
-      <c r="AB78" s="35"/>
+      <c r="AA78" s="33"/>
+      <c r="AB78" s="34"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">

--- a/VentasLETTAShop.xlsx
+++ b/VentasLETTAShop.xlsx
@@ -611,13 +611,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.0"/>
+    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -678,31 +679,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -714,18 +693,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -745,6 +717,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -753,7 +762,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -767,7 +776,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -780,11 +797,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -797,24 +814,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -871,13 +872,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,13 +890,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,7 +902,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,55 +920,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,7 +938,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,13 +950,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,19 +1028,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,13 +1040,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1100,17 +1101,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1119,7 +1114,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1139,31 +1134,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1183,17 +1179,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1202,155 +1203,158 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1402,19 +1406,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1433,6 +1434,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1798,134 +1802,136 @@
   <sheetPr/>
   <dimension ref="A1:AC78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="32" zoomScaleNormal="32" workbookViewId="0">
-      <selection activeCell="BE2" sqref="BE2"/>
+    <sheetView tabSelected="1" zoomScale="47" zoomScaleNormal="47" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="8" max="9" width="9.1875"/>
+    <col min="12" max="12" width="9" style="1"/>
     <col min="22" max="22" width="9.1875"/>
   </cols>
   <sheetData>
     <row r="1" ht="116" spans="1:29">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="11" t="s">
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="U1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="Z1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AA1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AB1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AC1" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" ht="275" spans="1:29">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="9">
         <v>40</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="14">
         <v>40</v>
       </c>
-      <c r="I2" s="18">
-        <v>1</v>
-      </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="20">
-        <v>1</v>
-      </c>
-      <c r="L2" s="21"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20">
+        <v>1</v>
+      </c>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22">
+        <f>J2</f>
+        <v>1</v>
+      </c>
       <c r="M2" s="24"/>
       <c r="N2" s="25"/>
       <c r="O2" s="26"/>
@@ -1934,96 +1940,98 @@
       <c r="R2" s="24"/>
       <c r="S2" s="24"/>
       <c r="T2" s="24"/>
-      <c r="U2" s="31">
+      <c r="U2" s="32">
         <v>40</v>
       </c>
       <c r="V2" s="24"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="32"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="33"/>
       <c r="Y2" s="25"/>
       <c r="Z2" s="26"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
     </row>
     <row r="3" ht="236" spans="1:29">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="9">
         <v>40</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="15">
         <v>40</v>
       </c>
-      <c r="I3" s="18">
-        <v>1</v>
-      </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="23">
-        <v>1</v>
-      </c>
-      <c r="L3" s="21"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20">
+        <v>1</v>
+      </c>
+      <c r="K3" s="23"/>
+      <c r="L3" s="22">
+        <f t="shared" ref="L3:L34" si="0">J3</f>
+        <v>1</v>
+      </c>
       <c r="M3" s="28"/>
-      <c r="N3" s="21"/>
+      <c r="N3" s="29"/>
       <c r="O3" s="26"/>
-      <c r="P3" s="29"/>
+      <c r="P3" s="30"/>
       <c r="Q3" s="26"/>
       <c r="R3" s="28"/>
       <c r="S3" s="28"/>
       <c r="T3" s="28"/>
-      <c r="U3" s="31">
+      <c r="U3" s="32">
         <v>40</v>
       </c>
       <c r="V3" s="28"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="21"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="29"/>
       <c r="Z3" s="26"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
     </row>
     <row r="4" ht="157" spans="1:29">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="9">
         <v>18</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="14">
         <v>18</v>
       </c>
-      <c r="I4" s="18">
-        <v>1</v>
-      </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="20">
-        <v>1</v>
-      </c>
-      <c r="L4" s="21"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20">
+        <v>1</v>
+      </c>
+      <c r="K4" s="21"/>
+      <c r="L4" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="M4" s="24"/>
       <c r="N4" s="25"/>
       <c r="O4" s="26"/>
@@ -2032,96 +2040,98 @@
       <c r="R4" s="24"/>
       <c r="S4" s="24"/>
       <c r="T4" s="24"/>
-      <c r="U4" s="31">
+      <c r="U4" s="32">
         <v>18</v>
       </c>
       <c r="V4" s="24"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="32"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="33"/>
       <c r="Y4" s="25"/>
       <c r="Z4" s="26"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
     </row>
     <row r="5" ht="177" spans="1:29">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="8" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="9">
         <v>20</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="15">
         <v>20</v>
       </c>
-      <c r="I5" s="18">
-        <v>1</v>
-      </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="23">
-        <v>1</v>
-      </c>
-      <c r="L5" s="21"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20">
+        <v>1</v>
+      </c>
+      <c r="K5" s="23"/>
+      <c r="L5" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="M5" s="28"/>
-      <c r="N5" s="21"/>
+      <c r="N5" s="29"/>
       <c r="O5" s="26"/>
-      <c r="P5" s="29"/>
+      <c r="P5" s="30"/>
       <c r="Q5" s="26"/>
       <c r="R5" s="28"/>
       <c r="S5" s="28"/>
       <c r="T5" s="28"/>
-      <c r="U5" s="31">
+      <c r="U5" s="32">
         <v>20</v>
       </c>
       <c r="V5" s="28"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="21"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="29"/>
       <c r="Z5" s="26"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
     </row>
     <row r="6" ht="118" spans="1:29">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="9">
         <v>20</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="14">
         <v>20</v>
       </c>
-      <c r="I6" s="18">
-        <v>1</v>
-      </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="20">
-        <v>1</v>
-      </c>
-      <c r="L6" s="21"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20">
+        <v>1</v>
+      </c>
+      <c r="K6" s="21"/>
+      <c r="L6" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="M6" s="24"/>
       <c r="N6" s="25"/>
       <c r="O6" s="26"/>
@@ -2130,96 +2140,98 @@
       <c r="R6" s="24"/>
       <c r="S6" s="24"/>
       <c r="T6" s="24"/>
-      <c r="U6" s="31">
+      <c r="U6" s="32">
         <v>20</v>
       </c>
       <c r="V6" s="24"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="32"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="33"/>
       <c r="Y6" s="25"/>
       <c r="Z6" s="26"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
     </row>
     <row r="7" ht="177" spans="1:29">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="9">
         <v>20</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="15">
         <v>20</v>
       </c>
-      <c r="I7" s="18">
-        <v>1</v>
-      </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="23">
-        <v>1</v>
-      </c>
-      <c r="L7" s="21"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20">
+        <v>1</v>
+      </c>
+      <c r="K7" s="23"/>
+      <c r="L7" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="M7" s="28"/>
-      <c r="N7" s="21"/>
+      <c r="N7" s="29"/>
       <c r="O7" s="26"/>
-      <c r="P7" s="29"/>
+      <c r="P7" s="30"/>
       <c r="Q7" s="26"/>
       <c r="R7" s="28"/>
       <c r="S7" s="28"/>
       <c r="T7" s="28"/>
-      <c r="U7" s="31">
+      <c r="U7" s="32">
         <v>20</v>
       </c>
       <c r="V7" s="28"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="21"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="29"/>
       <c r="Z7" s="26"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
     </row>
     <row r="8" ht="157" spans="1:29">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="9">
         <v>18</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="14">
         <v>18</v>
       </c>
-      <c r="I8" s="18">
-        <v>1</v>
-      </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="20">
-        <v>1</v>
-      </c>
-      <c r="L8" s="21"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20">
+        <v>1</v>
+      </c>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="M8" s="24"/>
       <c r="N8" s="25"/>
       <c r="O8" s="26"/>
@@ -2228,96 +2240,98 @@
       <c r="R8" s="24"/>
       <c r="S8" s="24"/>
       <c r="T8" s="24"/>
-      <c r="U8" s="31">
+      <c r="U8" s="32">
         <v>18</v>
       </c>
       <c r="V8" s="24"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="32"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="33"/>
       <c r="Y8" s="25"/>
       <c r="Z8" s="26"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35"/>
     </row>
     <row r="9" ht="255" spans="1:29">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="9">
         <v>18</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="15">
         <v>18</v>
       </c>
-      <c r="I9" s="18">
-        <v>1</v>
-      </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="23">
-        <v>1</v>
-      </c>
-      <c r="L9" s="21"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20">
+        <v>1</v>
+      </c>
+      <c r="K9" s="23"/>
+      <c r="L9" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="M9" s="28"/>
-      <c r="N9" s="21"/>
+      <c r="N9" s="29"/>
       <c r="O9" s="26"/>
-      <c r="P9" s="29"/>
+      <c r="P9" s="30"/>
       <c r="Q9" s="26"/>
       <c r="R9" s="28"/>
       <c r="S9" s="28"/>
       <c r="T9" s="28"/>
-      <c r="U9" s="31">
+      <c r="U9" s="32">
         <v>18</v>
       </c>
       <c r="V9" s="28"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="21"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="29"/>
       <c r="Z9" s="26"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
     </row>
     <row r="10" ht="157" spans="1:29">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="9">
         <v>15</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="14">
         <v>15</v>
       </c>
-      <c r="I10" s="18">
-        <v>1</v>
-      </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20">
-        <v>1</v>
-      </c>
-      <c r="L10" s="21"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20">
+        <v>1</v>
+      </c>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="M10" s="24"/>
       <c r="N10" s="25"/>
       <c r="O10" s="26"/>
@@ -2326,96 +2340,98 @@
       <c r="R10" s="24"/>
       <c r="S10" s="24"/>
       <c r="T10" s="24"/>
-      <c r="U10" s="31">
+      <c r="U10" s="32">
         <v>15</v>
       </c>
       <c r="V10" s="24"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="32"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="33"/>
       <c r="Y10" s="25"/>
       <c r="Z10" s="26"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="35"/>
     </row>
     <row r="11" ht="275" spans="1:29">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="9">
         <v>25</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="15">
         <v>25</v>
       </c>
-      <c r="I11" s="18">
-        <v>1</v>
-      </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="23">
-        <v>1</v>
-      </c>
-      <c r="L11" s="21"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20">
+        <v>1</v>
+      </c>
+      <c r="K11" s="23"/>
+      <c r="L11" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="M11" s="28"/>
-      <c r="N11" s="21"/>
+      <c r="N11" s="29"/>
       <c r="O11" s="26"/>
-      <c r="P11" s="29"/>
+      <c r="P11" s="30"/>
       <c r="Q11" s="26"/>
       <c r="R11" s="28"/>
       <c r="S11" s="28"/>
       <c r="T11" s="28"/>
-      <c r="U11" s="31">
+      <c r="U11" s="32">
         <v>25</v>
       </c>
       <c r="V11" s="28"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="21"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="29"/>
       <c r="Z11" s="26"/>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
     </row>
     <row r="12" ht="275" spans="1:29">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="9">
         <v>25</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="14">
         <v>25</v>
       </c>
-      <c r="I12" s="18">
-        <v>1</v>
-      </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="20">
-        <v>1</v>
-      </c>
-      <c r="L12" s="21"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20">
+        <v>1</v>
+      </c>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="M12" s="24"/>
       <c r="N12" s="25"/>
       <c r="O12" s="26"/>
@@ -2424,96 +2440,98 @@
       <c r="R12" s="24"/>
       <c r="S12" s="24"/>
       <c r="T12" s="24"/>
-      <c r="U12" s="31">
+      <c r="U12" s="32">
         <v>25</v>
       </c>
       <c r="V12" s="24"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="32"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="33"/>
       <c r="Y12" s="25"/>
       <c r="Z12" s="26"/>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="34"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35"/>
     </row>
     <row r="13" ht="138" spans="1:29">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="8" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="9">
         <v>20</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="15">
         <v>20</v>
       </c>
-      <c r="I13" s="18">
-        <v>1</v>
-      </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="23">
-        <v>1</v>
-      </c>
-      <c r="L13" s="21"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20">
+        <v>1</v>
+      </c>
+      <c r="K13" s="23"/>
+      <c r="L13" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="M13" s="28"/>
-      <c r="N13" s="21"/>
+      <c r="N13" s="29"/>
       <c r="O13" s="26"/>
-      <c r="P13" s="29"/>
+      <c r="P13" s="30"/>
       <c r="Q13" s="26"/>
       <c r="R13" s="28"/>
       <c r="S13" s="28"/>
       <c r="T13" s="28"/>
-      <c r="U13" s="31">
+      <c r="U13" s="32">
         <v>20</v>
       </c>
       <c r="V13" s="28"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="21"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="29"/>
       <c r="Z13" s="26"/>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35"/>
     </row>
     <row r="14" ht="138" spans="1:29">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="9">
         <v>20</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="14">
         <v>20</v>
       </c>
-      <c r="I14" s="18">
-        <v>1</v>
-      </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="20">
-        <v>1</v>
-      </c>
-      <c r="L14" s="21"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20">
+        <v>1</v>
+      </c>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="M14" s="24"/>
       <c r="N14" s="25"/>
       <c r="O14" s="26"/>
@@ -2522,96 +2540,98 @@
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
       <c r="T14" s="24"/>
-      <c r="U14" s="31">
+      <c r="U14" s="32">
         <v>20</v>
       </c>
       <c r="V14" s="24"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="32"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="33"/>
       <c r="Y14" s="25"/>
       <c r="Z14" s="26"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="34"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35"/>
     </row>
     <row r="15" ht="118" spans="1:29">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="8" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="8">
-        <v>6</v>
-      </c>
-      <c r="H15" s="14">
-        <v>6</v>
-      </c>
-      <c r="I15" s="18">
-        <v>1</v>
-      </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="23">
-        <v>1</v>
-      </c>
-      <c r="L15" s="21"/>
+      <c r="G15" s="9">
+        <v>6</v>
+      </c>
+      <c r="H15" s="15">
+        <v>6</v>
+      </c>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20">
+        <v>1</v>
+      </c>
+      <c r="K15" s="23"/>
+      <c r="L15" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="M15" s="28"/>
-      <c r="N15" s="21"/>
+      <c r="N15" s="29"/>
       <c r="O15" s="26"/>
-      <c r="P15" s="29"/>
+      <c r="P15" s="30"/>
       <c r="Q15" s="26"/>
       <c r="R15" s="28"/>
       <c r="S15" s="28"/>
       <c r="T15" s="28"/>
-      <c r="U15" s="31">
+      <c r="U15" s="32">
         <v>6</v>
       </c>
       <c r="V15" s="28"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="21"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="29"/>
       <c r="Z15" s="26"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="34"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="35"/>
     </row>
     <row r="16" ht="118" spans="1:29">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="8">
-        <v>6</v>
-      </c>
-      <c r="H16" s="13">
-        <v>6</v>
-      </c>
-      <c r="I16" s="18">
-        <v>1</v>
-      </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="20">
-        <v>1</v>
-      </c>
-      <c r="L16" s="21"/>
+      <c r="G16" s="9">
+        <v>6</v>
+      </c>
+      <c r="H16" s="14">
+        <v>6</v>
+      </c>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20">
+        <v>1</v>
+      </c>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="M16" s="24"/>
       <c r="N16" s="25"/>
       <c r="O16" s="26"/>
@@ -2620,96 +2640,98 @@
       <c r="R16" s="24"/>
       <c r="S16" s="24"/>
       <c r="T16" s="24"/>
-      <c r="U16" s="31">
+      <c r="U16" s="32">
         <v>6</v>
       </c>
       <c r="V16" s="24"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="32"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="33"/>
       <c r="Y16" s="25"/>
       <c r="Z16" s="26"/>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="34"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
     </row>
     <row r="17" ht="98" spans="1:29">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="8" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="8">
-        <v>6</v>
-      </c>
-      <c r="H17" s="14">
-        <v>6</v>
-      </c>
-      <c r="I17" s="18">
-        <v>1</v>
-      </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="23">
-        <v>1</v>
-      </c>
-      <c r="L17" s="21"/>
+      <c r="G17" s="9">
+        <v>6</v>
+      </c>
+      <c r="H17" s="15">
+        <v>6</v>
+      </c>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20">
+        <v>1</v>
+      </c>
+      <c r="K17" s="23"/>
+      <c r="L17" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="M17" s="28"/>
-      <c r="N17" s="21"/>
+      <c r="N17" s="29"/>
       <c r="O17" s="26"/>
-      <c r="P17" s="29"/>
+      <c r="P17" s="30"/>
       <c r="Q17" s="26"/>
       <c r="R17" s="28"/>
       <c r="S17" s="28"/>
       <c r="T17" s="28"/>
-      <c r="U17" s="31">
+      <c r="U17" s="32">
         <v>6</v>
       </c>
       <c r="V17" s="28"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="21"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="29"/>
       <c r="Z17" s="26"/>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="34"/>
-      <c r="AC17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="35"/>
     </row>
     <row r="18" ht="157" spans="1:29">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="8">
-        <v>6</v>
-      </c>
-      <c r="H18" s="13">
-        <v>6</v>
-      </c>
-      <c r="I18" s="18">
-        <v>1</v>
-      </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="20">
-        <v>1</v>
-      </c>
-      <c r="L18" s="21"/>
+      <c r="G18" s="9">
+        <v>6</v>
+      </c>
+      <c r="H18" s="14">
+        <v>6</v>
+      </c>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20">
+        <v>1</v>
+      </c>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="M18" s="24"/>
       <c r="N18" s="25"/>
       <c r="O18" s="26"/>
@@ -2718,96 +2740,98 @@
       <c r="R18" s="24"/>
       <c r="S18" s="24"/>
       <c r="T18" s="24"/>
-      <c r="U18" s="31">
+      <c r="U18" s="32">
         <v>6</v>
       </c>
       <c r="V18" s="24"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="32"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="33"/>
       <c r="Y18" s="25"/>
       <c r="Z18" s="26"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
     </row>
     <row r="19" ht="157" spans="1:29">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="8" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="8">
-        <v>6</v>
-      </c>
-      <c r="H19" s="14">
-        <v>6</v>
-      </c>
-      <c r="I19" s="18">
-        <v>1</v>
-      </c>
-      <c r="J19" s="22"/>
-      <c r="K19" s="23">
-        <v>1</v>
-      </c>
-      <c r="L19" s="21"/>
+      <c r="G19" s="9">
+        <v>6</v>
+      </c>
+      <c r="H19" s="15">
+        <v>6</v>
+      </c>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20">
+        <v>1</v>
+      </c>
+      <c r="K19" s="23"/>
+      <c r="L19" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="M19" s="28"/>
-      <c r="N19" s="21"/>
+      <c r="N19" s="29"/>
       <c r="O19" s="26"/>
-      <c r="P19" s="29"/>
+      <c r="P19" s="30"/>
       <c r="Q19" s="26"/>
       <c r="R19" s="28"/>
       <c r="S19" s="28"/>
       <c r="T19" s="28"/>
-      <c r="U19" s="31">
+      <c r="U19" s="32">
         <v>6</v>
       </c>
       <c r="V19" s="28"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="21"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="29"/>
       <c r="Z19" s="26"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="35"/>
     </row>
     <row r="20" ht="157" spans="1:29">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="8">
-        <v>6</v>
-      </c>
-      <c r="H20" s="13">
-        <v>6</v>
-      </c>
-      <c r="I20" s="18">
-        <v>1</v>
-      </c>
-      <c r="J20" s="19"/>
-      <c r="K20" s="20">
-        <v>1</v>
-      </c>
-      <c r="L20" s="21"/>
+      <c r="G20" s="9">
+        <v>6</v>
+      </c>
+      <c r="H20" s="14">
+        <v>6</v>
+      </c>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20">
+        <v>1</v>
+      </c>
+      <c r="K20" s="21"/>
+      <c r="L20" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="M20" s="24"/>
       <c r="N20" s="25"/>
       <c r="O20" s="26"/>
@@ -2816,96 +2840,98 @@
       <c r="R20" s="24"/>
       <c r="S20" s="24"/>
       <c r="T20" s="24"/>
-      <c r="U20" s="31">
+      <c r="U20" s="32">
         <v>6</v>
       </c>
       <c r="V20" s="24"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="32"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="33"/>
       <c r="Y20" s="25"/>
       <c r="Z20" s="26"/>
-      <c r="AA20" s="33"/>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="34"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="35"/>
     </row>
     <row r="21" ht="118" spans="1:29">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="8" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="8">
-        <v>6</v>
-      </c>
-      <c r="H21" s="14">
-        <v>6</v>
-      </c>
-      <c r="I21" s="18">
-        <v>1</v>
-      </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="23">
-        <v>1</v>
-      </c>
-      <c r="L21" s="21"/>
+      <c r="G21" s="9">
+        <v>6</v>
+      </c>
+      <c r="H21" s="15">
+        <v>6</v>
+      </c>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20">
+        <v>1</v>
+      </c>
+      <c r="K21" s="23"/>
+      <c r="L21" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="M21" s="28"/>
-      <c r="N21" s="21"/>
+      <c r="N21" s="29"/>
       <c r="O21" s="26"/>
-      <c r="P21" s="29"/>
+      <c r="P21" s="30"/>
       <c r="Q21" s="26"/>
       <c r="R21" s="28"/>
       <c r="S21" s="28"/>
       <c r="T21" s="28"/>
-      <c r="U21" s="31">
+      <c r="U21" s="32">
         <v>6</v>
       </c>
       <c r="V21" s="28"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="21"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="29"/>
       <c r="Z21" s="26"/>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="34"/>
+      <c r="AA21" s="34"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="35"/>
     </row>
     <row r="22" ht="118" spans="1:29">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="8">
-        <v>6</v>
-      </c>
-      <c r="H22" s="13">
-        <v>6</v>
-      </c>
-      <c r="I22" s="18">
-        <v>1</v>
-      </c>
-      <c r="J22" s="19"/>
-      <c r="K22" s="20">
-        <v>1</v>
-      </c>
-      <c r="L22" s="21"/>
+      <c r="G22" s="9">
+        <v>6</v>
+      </c>
+      <c r="H22" s="14">
+        <v>6</v>
+      </c>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20">
+        <v>1</v>
+      </c>
+      <c r="K22" s="21"/>
+      <c r="L22" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="M22" s="24"/>
       <c r="N22" s="25"/>
       <c r="O22" s="26"/>
@@ -2914,96 +2940,98 @@
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
       <c r="T22" s="24"/>
-      <c r="U22" s="31">
+      <c r="U22" s="32">
         <v>6</v>
       </c>
       <c r="V22" s="24"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="32"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="33"/>
       <c r="Y22" s="25"/>
       <c r="Z22" s="26"/>
-      <c r="AA22" s="33"/>
-      <c r="AB22" s="34"/>
-      <c r="AC22" s="34"/>
+      <c r="AA22" s="34"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
     </row>
     <row r="23" ht="98" spans="1:29">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="8" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="8">
-        <v>6</v>
-      </c>
-      <c r="H23" s="14">
-        <v>6</v>
-      </c>
-      <c r="I23" s="18">
-        <v>1</v>
-      </c>
-      <c r="J23" s="22"/>
-      <c r="K23" s="23">
-        <v>1</v>
-      </c>
-      <c r="L23" s="21"/>
+      <c r="G23" s="9">
+        <v>6</v>
+      </c>
+      <c r="H23" s="15">
+        <v>6</v>
+      </c>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20">
+        <v>1</v>
+      </c>
+      <c r="K23" s="23"/>
+      <c r="L23" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="M23" s="28"/>
-      <c r="N23" s="21"/>
+      <c r="N23" s="29"/>
       <c r="O23" s="26"/>
-      <c r="P23" s="29"/>
+      <c r="P23" s="30"/>
       <c r="Q23" s="26"/>
       <c r="R23" s="28"/>
       <c r="S23" s="28"/>
       <c r="T23" s="28"/>
-      <c r="U23" s="31">
+      <c r="U23" s="32">
         <v>6</v>
       </c>
       <c r="V23" s="28"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="21"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="29"/>
       <c r="Z23" s="26"/>
-      <c r="AA23" s="33"/>
-      <c r="AB23" s="34"/>
-      <c r="AC23" s="34"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="35"/>
     </row>
     <row r="24" ht="157" spans="1:29">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="8">
-        <v>6</v>
-      </c>
-      <c r="H24" s="13">
-        <v>6</v>
-      </c>
-      <c r="I24" s="18">
-        <v>1</v>
-      </c>
-      <c r="J24" s="19"/>
-      <c r="K24" s="20">
-        <v>1</v>
-      </c>
-      <c r="L24" s="21"/>
+      <c r="G24" s="9">
+        <v>6</v>
+      </c>
+      <c r="H24" s="14">
+        <v>6</v>
+      </c>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20">
+        <v>1</v>
+      </c>
+      <c r="K24" s="21"/>
+      <c r="L24" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="M24" s="24"/>
       <c r="N24" s="25"/>
       <c r="O24" s="26"/>
@@ -3012,96 +3040,98 @@
       <c r="R24" s="24"/>
       <c r="S24" s="24"/>
       <c r="T24" s="24"/>
-      <c r="U24" s="31">
+      <c r="U24" s="32">
         <v>6</v>
       </c>
       <c r="V24" s="24"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="32"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="33"/>
       <c r="Y24" s="25"/>
       <c r="Z24" s="26"/>
-      <c r="AA24" s="33"/>
-      <c r="AB24" s="34"/>
-      <c r="AC24" s="34"/>
+      <c r="AA24" s="34"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="35"/>
     </row>
     <row r="25" ht="157" spans="1:29">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="8" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G25" s="8">
-        <v>6</v>
-      </c>
-      <c r="H25" s="14">
-        <v>6</v>
-      </c>
-      <c r="I25" s="18">
-        <v>1</v>
-      </c>
-      <c r="J25" s="22"/>
-      <c r="K25" s="23">
-        <v>1</v>
-      </c>
-      <c r="L25" s="21"/>
+      <c r="G25" s="9">
+        <v>6</v>
+      </c>
+      <c r="H25" s="15">
+        <v>6</v>
+      </c>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20">
+        <v>1</v>
+      </c>
+      <c r="K25" s="23"/>
+      <c r="L25" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="M25" s="28"/>
-      <c r="N25" s="21"/>
+      <c r="N25" s="29"/>
       <c r="O25" s="26"/>
-      <c r="P25" s="29"/>
+      <c r="P25" s="30"/>
       <c r="Q25" s="26"/>
       <c r="R25" s="28"/>
       <c r="S25" s="28"/>
       <c r="T25" s="28"/>
-      <c r="U25" s="31">
+      <c r="U25" s="32">
         <v>6</v>
       </c>
       <c r="V25" s="28"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="21"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="29"/>
       <c r="Z25" s="26"/>
-      <c r="AA25" s="33"/>
-      <c r="AB25" s="34"/>
-      <c r="AC25" s="34"/>
+      <c r="AA25" s="34"/>
+      <c r="AB25" s="35"/>
+      <c r="AC25" s="35"/>
     </row>
     <row r="26" ht="157" spans="1:29">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="8">
-        <v>6</v>
-      </c>
-      <c r="H26" s="13">
-        <v>6</v>
-      </c>
-      <c r="I26" s="18">
-        <v>1</v>
-      </c>
-      <c r="J26" s="19"/>
-      <c r="K26" s="20">
-        <v>1</v>
-      </c>
-      <c r="L26" s="21"/>
+      <c r="G26" s="9">
+        <v>6</v>
+      </c>
+      <c r="H26" s="14">
+        <v>6</v>
+      </c>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20">
+        <v>1</v>
+      </c>
+      <c r="K26" s="21"/>
+      <c r="L26" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="M26" s="24"/>
       <c r="N26" s="25"/>
       <c r="O26" s="26"/>
@@ -3110,96 +3140,98 @@
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
       <c r="T26" s="24"/>
-      <c r="U26" s="31">
+      <c r="U26" s="32">
         <v>6</v>
       </c>
       <c r="V26" s="24"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="32"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="33"/>
       <c r="Y26" s="25"/>
       <c r="Z26" s="26"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="34"/>
-      <c r="AC26" s="34"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="35"/>
     </row>
     <row r="27" ht="138" spans="1:29">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="8" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G27" s="8">
-        <v>6</v>
-      </c>
-      <c r="H27" s="14">
-        <v>6</v>
-      </c>
-      <c r="I27" s="18">
+      <c r="G27" s="9">
+        <v>6</v>
+      </c>
+      <c r="H27" s="15">
+        <v>6</v>
+      </c>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20">
         <v>3</v>
       </c>
-      <c r="J27" s="22"/>
-      <c r="K27" s="23">
+      <c r="K27" s="23"/>
+      <c r="L27" s="22">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L27" s="21"/>
       <c r="M27" s="28"/>
-      <c r="N27" s="21"/>
+      <c r="N27" s="29"/>
       <c r="O27" s="26"/>
-      <c r="P27" s="29"/>
+      <c r="P27" s="30"/>
       <c r="Q27" s="26"/>
       <c r="R27" s="28"/>
       <c r="S27" s="28"/>
       <c r="T27" s="28"/>
-      <c r="U27" s="31">
+      <c r="U27" s="32">
         <v>6</v>
       </c>
       <c r="V27" s="28"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="21"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="29"/>
       <c r="Z27" s="26"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="34"/>
-      <c r="AC27" s="34"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="35"/>
+      <c r="AC27" s="35"/>
     </row>
     <row r="28" ht="196" spans="1:29">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8" t="s">
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="8">
-        <v>6</v>
-      </c>
-      <c r="H28" s="13">
-        <v>6</v>
-      </c>
-      <c r="I28" s="18">
+      <c r="G28" s="9">
+        <v>6</v>
+      </c>
+      <c r="H28" s="14">
+        <v>6</v>
+      </c>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20">
         <v>2</v>
       </c>
-      <c r="J28" s="19"/>
-      <c r="K28" s="20">
+      <c r="K28" s="21"/>
+      <c r="L28" s="22">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L28" s="21"/>
       <c r="M28" s="24"/>
       <c r="N28" s="25"/>
       <c r="O28" s="26"/>
@@ -3208,96 +3240,98 @@
       <c r="R28" s="24"/>
       <c r="S28" s="24"/>
       <c r="T28" s="24"/>
-      <c r="U28" s="31">
+      <c r="U28" s="32">
         <v>6</v>
       </c>
       <c r="V28" s="24"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="32"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="33"/>
       <c r="Y28" s="25"/>
       <c r="Z28" s="26"/>
-      <c r="AA28" s="33"/>
-      <c r="AB28" s="34"/>
-      <c r="AC28" s="34"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="35"/>
+      <c r="AC28" s="35"/>
     </row>
     <row r="29" ht="157" spans="1:29">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="8" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="8">
-        <v>6</v>
-      </c>
-      <c r="H29" s="14">
-        <v>6</v>
-      </c>
-      <c r="I29" s="18">
-        <v>1</v>
-      </c>
-      <c r="J29" s="22"/>
-      <c r="K29" s="23">
-        <v>1</v>
-      </c>
-      <c r="L29" s="21"/>
+      <c r="G29" s="9">
+        <v>6</v>
+      </c>
+      <c r="H29" s="15">
+        <v>6</v>
+      </c>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20">
+        <v>1</v>
+      </c>
+      <c r="K29" s="23"/>
+      <c r="L29" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="M29" s="28"/>
-      <c r="N29" s="21"/>
+      <c r="N29" s="29"/>
       <c r="O29" s="26"/>
-      <c r="P29" s="29"/>
+      <c r="P29" s="30"/>
       <c r="Q29" s="26"/>
       <c r="R29" s="28"/>
       <c r="S29" s="28"/>
       <c r="T29" s="28"/>
-      <c r="U29" s="31">
+      <c r="U29" s="32">
         <v>6</v>
       </c>
       <c r="V29" s="28"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="32"/>
-      <c r="Y29" s="21"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="29"/>
       <c r="Z29" s="26"/>
-      <c r="AA29" s="33"/>
-      <c r="AB29" s="34"/>
-      <c r="AC29" s="34"/>
+      <c r="AA29" s="34"/>
+      <c r="AB29" s="35"/>
+      <c r="AC29" s="35"/>
     </row>
     <row r="30" ht="196" spans="1:29">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8" t="s">
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="9">
         <v>15</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="14">
         <v>15</v>
       </c>
-      <c r="I30" s="18">
-        <v>1</v>
-      </c>
-      <c r="J30" s="19"/>
-      <c r="K30" s="20">
-        <v>1</v>
-      </c>
-      <c r="L30" s="21"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20">
+        <v>1</v>
+      </c>
+      <c r="K30" s="21"/>
+      <c r="L30" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="M30" s="24"/>
       <c r="N30" s="25"/>
       <c r="O30" s="26"/>
@@ -3306,96 +3340,98 @@
       <c r="R30" s="24"/>
       <c r="S30" s="24"/>
       <c r="T30" s="24"/>
-      <c r="U30" s="31">
+      <c r="U30" s="32">
         <v>15</v>
       </c>
       <c r="V30" s="24"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="32"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="33"/>
       <c r="Y30" s="25"/>
       <c r="Z30" s="26"/>
-      <c r="AA30" s="33"/>
-      <c r="AB30" s="34"/>
-      <c r="AC30" s="34"/>
+      <c r="AA30" s="34"/>
+      <c r="AB30" s="35"/>
+      <c r="AC30" s="35"/>
     </row>
     <row r="31" ht="196" spans="1:29">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="8" t="s">
+      <c r="B31" s="7"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G31" s="8">
-        <v>6</v>
-      </c>
-      <c r="H31" s="14">
-        <v>6</v>
-      </c>
-      <c r="I31" s="18">
+      <c r="G31" s="9">
+        <v>6</v>
+      </c>
+      <c r="H31" s="15">
+        <v>6</v>
+      </c>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20">
         <v>2</v>
       </c>
-      <c r="J31" s="22"/>
-      <c r="K31" s="23">
+      <c r="K31" s="23"/>
+      <c r="L31" s="22">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L31" s="21"/>
       <c r="M31" s="28"/>
-      <c r="N31" s="21"/>
+      <c r="N31" s="29"/>
       <c r="O31" s="26"/>
-      <c r="P31" s="29"/>
+      <c r="P31" s="30"/>
       <c r="Q31" s="26"/>
       <c r="R31" s="28"/>
       <c r="S31" s="28"/>
       <c r="T31" s="28"/>
-      <c r="U31" s="31">
+      <c r="U31" s="32">
         <v>6</v>
       </c>
       <c r="V31" s="28"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="32"/>
-      <c r="Y31" s="21"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="29"/>
       <c r="Z31" s="26"/>
-      <c r="AA31" s="33"/>
-      <c r="AB31" s="34"/>
-      <c r="AC31" s="34"/>
+      <c r="AA31" s="34"/>
+      <c r="AB31" s="35"/>
+      <c r="AC31" s="35"/>
     </row>
     <row r="32" ht="157" spans="1:29">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8" t="s">
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="8">
-        <v>6</v>
-      </c>
-      <c r="H32" s="13">
-        <v>6</v>
-      </c>
-      <c r="I32" s="18">
-        <v>1</v>
-      </c>
-      <c r="J32" s="19"/>
-      <c r="K32" s="20">
-        <v>1</v>
-      </c>
-      <c r="L32" s="21"/>
+      <c r="G32" s="9">
+        <v>6</v>
+      </c>
+      <c r="H32" s="14">
+        <v>6</v>
+      </c>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20">
+        <v>1</v>
+      </c>
+      <c r="K32" s="21"/>
+      <c r="L32" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="M32" s="24"/>
       <c r="N32" s="25"/>
       <c r="O32" s="26"/>
@@ -3404,96 +3440,98 @@
       <c r="R32" s="24"/>
       <c r="S32" s="24"/>
       <c r="T32" s="24"/>
-      <c r="U32" s="31">
+      <c r="U32" s="32">
         <v>6</v>
       </c>
       <c r="V32" s="24"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="32"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="33"/>
       <c r="Y32" s="25"/>
       <c r="Z32" s="26"/>
-      <c r="AA32" s="33"/>
-      <c r="AB32" s="34"/>
-      <c r="AC32" s="34"/>
+      <c r="AA32" s="34"/>
+      <c r="AB32" s="35"/>
+      <c r="AC32" s="35"/>
     </row>
     <row r="33" ht="157" spans="1:29">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="8" t="s">
+      <c r="B33" s="7"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G33" s="8">
-        <v>6</v>
-      </c>
-      <c r="H33" s="14">
-        <v>6</v>
-      </c>
-      <c r="I33" s="18">
-        <v>1</v>
-      </c>
-      <c r="J33" s="22"/>
-      <c r="K33" s="23">
-        <v>1</v>
-      </c>
-      <c r="L33" s="21"/>
+      <c r="G33" s="9">
+        <v>6</v>
+      </c>
+      <c r="H33" s="15">
+        <v>6</v>
+      </c>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20">
+        <v>1</v>
+      </c>
+      <c r="K33" s="23"/>
+      <c r="L33" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="M33" s="28"/>
-      <c r="N33" s="21"/>
+      <c r="N33" s="29"/>
       <c r="O33" s="26"/>
-      <c r="P33" s="29"/>
+      <c r="P33" s="30"/>
       <c r="Q33" s="26"/>
       <c r="R33" s="28"/>
       <c r="S33" s="28"/>
       <c r="T33" s="28"/>
-      <c r="U33" s="31">
+      <c r="U33" s="32">
         <v>6</v>
       </c>
       <c r="V33" s="28"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="21"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="29"/>
       <c r="Z33" s="26"/>
-      <c r="AA33" s="33"/>
-      <c r="AB33" s="34"/>
-      <c r="AC33" s="34"/>
+      <c r="AA33" s="34"/>
+      <c r="AB33" s="35"/>
+      <c r="AC33" s="35"/>
     </row>
     <row r="34" ht="177" spans="1:29">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8" t="s">
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G34" s="8">
-        <v>6</v>
-      </c>
-      <c r="H34" s="13">
-        <v>6</v>
-      </c>
-      <c r="I34" s="18">
-        <v>1</v>
-      </c>
-      <c r="J34" s="19"/>
-      <c r="K34" s="20">
-        <v>1</v>
-      </c>
-      <c r="L34" s="21"/>
+      <c r="G34" s="9">
+        <v>6</v>
+      </c>
+      <c r="H34" s="14">
+        <v>6</v>
+      </c>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20">
+        <v>1</v>
+      </c>
+      <c r="K34" s="21"/>
+      <c r="L34" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="M34" s="24"/>
       <c r="N34" s="25"/>
       <c r="O34" s="26"/>
@@ -3502,96 +3540,98 @@
       <c r="R34" s="24"/>
       <c r="S34" s="24"/>
       <c r="T34" s="24"/>
-      <c r="U34" s="31">
+      <c r="U34" s="32">
         <v>6</v>
       </c>
       <c r="V34" s="24"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="32"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="33"/>
       <c r="Y34" s="25"/>
       <c r="Z34" s="26"/>
-      <c r="AA34" s="33"/>
-      <c r="AB34" s="34"/>
-      <c r="AC34" s="34"/>
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="35"/>
+      <c r="AC34" s="35"/>
     </row>
     <row r="35" ht="196" spans="1:29">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="8" t="s">
+      <c r="B35" s="7"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G35" s="8">
-        <v>6</v>
-      </c>
-      <c r="H35" s="14">
-        <v>6</v>
-      </c>
-      <c r="I35" s="18">
-        <v>1</v>
-      </c>
-      <c r="J35" s="22"/>
-      <c r="K35" s="23">
-        <v>1</v>
-      </c>
-      <c r="L35" s="21"/>
+      <c r="G35" s="9">
+        <v>6</v>
+      </c>
+      <c r="H35" s="15">
+        <v>6</v>
+      </c>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20">
+        <v>1</v>
+      </c>
+      <c r="K35" s="23"/>
+      <c r="L35" s="22">
+        <f t="shared" ref="L35:L66" si="1">J35</f>
+        <v>1</v>
+      </c>
       <c r="M35" s="28"/>
-      <c r="N35" s="21"/>
+      <c r="N35" s="29"/>
       <c r="O35" s="26"/>
-      <c r="P35" s="29"/>
+      <c r="P35" s="30"/>
       <c r="Q35" s="26"/>
       <c r="R35" s="28"/>
       <c r="S35" s="28"/>
       <c r="T35" s="28"/>
-      <c r="U35" s="31">
+      <c r="U35" s="32">
         <v>6</v>
       </c>
       <c r="V35" s="28"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="32"/>
-      <c r="Y35" s="21"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="29"/>
       <c r="Z35" s="26"/>
-      <c r="AA35" s="33"/>
-      <c r="AB35" s="34"/>
-      <c r="AC35" s="34"/>
+      <c r="AA35" s="34"/>
+      <c r="AB35" s="35"/>
+      <c r="AC35" s="35"/>
     </row>
     <row r="36" ht="157" spans="1:29">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8" t="s">
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G36" s="8">
-        <v>6</v>
-      </c>
-      <c r="H36" s="13">
-        <v>6</v>
-      </c>
-      <c r="I36" s="18">
-        <v>1</v>
-      </c>
-      <c r="J36" s="19"/>
-      <c r="K36" s="20">
-        <v>1</v>
-      </c>
-      <c r="L36" s="21"/>
+      <c r="G36" s="9">
+        <v>6</v>
+      </c>
+      <c r="H36" s="14">
+        <v>6</v>
+      </c>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20">
+        <v>1</v>
+      </c>
+      <c r="K36" s="21"/>
+      <c r="L36" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="M36" s="24"/>
       <c r="N36" s="25"/>
       <c r="O36" s="26"/>
@@ -3600,96 +3640,98 @@
       <c r="R36" s="24"/>
       <c r="S36" s="24"/>
       <c r="T36" s="24"/>
-      <c r="U36" s="31">
+      <c r="U36" s="32">
         <v>6</v>
       </c>
       <c r="V36" s="24"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="32"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="33"/>
       <c r="Y36" s="25"/>
       <c r="Z36" s="26"/>
-      <c r="AA36" s="33"/>
-      <c r="AB36" s="34"/>
-      <c r="AC36" s="34"/>
+      <c r="AA36" s="34"/>
+      <c r="AB36" s="35"/>
+      <c r="AC36" s="35"/>
     </row>
     <row r="37" ht="196" spans="1:29">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="8" t="s">
+      <c r="B37" s="7"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G37" s="8">
-        <v>6</v>
-      </c>
-      <c r="H37" s="14">
-        <v>6</v>
-      </c>
-      <c r="I37" s="18">
-        <v>1</v>
-      </c>
-      <c r="J37" s="22"/>
-      <c r="K37" s="23">
-        <v>1</v>
-      </c>
-      <c r="L37" s="21"/>
+      <c r="G37" s="9">
+        <v>6</v>
+      </c>
+      <c r="H37" s="15">
+        <v>6</v>
+      </c>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20">
+        <v>1</v>
+      </c>
+      <c r="K37" s="23"/>
+      <c r="L37" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="M37" s="28"/>
-      <c r="N37" s="21"/>
+      <c r="N37" s="29"/>
       <c r="O37" s="26"/>
-      <c r="P37" s="29"/>
+      <c r="P37" s="30"/>
       <c r="Q37" s="26"/>
       <c r="R37" s="28"/>
       <c r="S37" s="28"/>
       <c r="T37" s="28"/>
-      <c r="U37" s="31">
+      <c r="U37" s="32">
         <v>6</v>
       </c>
       <c r="V37" s="28"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="32"/>
-      <c r="Y37" s="21"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="33"/>
+      <c r="Y37" s="29"/>
       <c r="Z37" s="26"/>
-      <c r="AA37" s="33"/>
-      <c r="AB37" s="34"/>
-      <c r="AC37" s="34"/>
+      <c r="AA37" s="34"/>
+      <c r="AB37" s="35"/>
+      <c r="AC37" s="35"/>
     </row>
     <row r="38" ht="216" spans="1:29">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="8" t="s">
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G38" s="8">
-        <v>6</v>
-      </c>
-      <c r="H38" s="13">
-        <v>6</v>
-      </c>
-      <c r="I38" s="18">
-        <v>1</v>
-      </c>
-      <c r="J38" s="19"/>
-      <c r="K38" s="20">
-        <v>1</v>
-      </c>
-      <c r="L38" s="21"/>
+      <c r="G38" s="9">
+        <v>6</v>
+      </c>
+      <c r="H38" s="14">
+        <v>6</v>
+      </c>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20">
+        <v>1</v>
+      </c>
+      <c r="K38" s="21"/>
+      <c r="L38" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="M38" s="24"/>
       <c r="N38" s="25"/>
       <c r="O38" s="26"/>
@@ -3698,96 +3740,98 @@
       <c r="R38" s="24"/>
       <c r="S38" s="24"/>
       <c r="T38" s="24"/>
-      <c r="U38" s="31">
+      <c r="U38" s="32">
         <v>6</v>
       </c>
       <c r="V38" s="24"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="32"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="33"/>
       <c r="Y38" s="25"/>
       <c r="Z38" s="26"/>
-      <c r="AA38" s="33"/>
-      <c r="AB38" s="34"/>
-      <c r="AC38" s="34"/>
+      <c r="AA38" s="34"/>
+      <c r="AB38" s="35"/>
+      <c r="AC38" s="35"/>
     </row>
     <row r="39" ht="138" spans="1:29">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="8" t="s">
+      <c r="B39" s="7"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G39" s="8">
-        <v>6</v>
-      </c>
-      <c r="H39" s="14">
-        <v>6</v>
-      </c>
-      <c r="I39" s="18">
-        <v>1</v>
-      </c>
-      <c r="J39" s="22"/>
-      <c r="K39" s="23">
-        <v>1</v>
-      </c>
-      <c r="L39" s="21"/>
+      <c r="G39" s="9">
+        <v>6</v>
+      </c>
+      <c r="H39" s="15">
+        <v>6</v>
+      </c>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20">
+        <v>1</v>
+      </c>
+      <c r="K39" s="23"/>
+      <c r="L39" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="M39" s="28"/>
-      <c r="N39" s="21"/>
+      <c r="N39" s="29"/>
       <c r="O39" s="26"/>
-      <c r="P39" s="29"/>
+      <c r="P39" s="30"/>
       <c r="Q39" s="26"/>
       <c r="R39" s="28"/>
       <c r="S39" s="28"/>
       <c r="T39" s="28"/>
-      <c r="U39" s="31">
+      <c r="U39" s="32">
         <v>6</v>
       </c>
       <c r="V39" s="28"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="32"/>
-      <c r="Y39" s="21"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="33"/>
+      <c r="Y39" s="29"/>
       <c r="Z39" s="26"/>
-      <c r="AA39" s="33"/>
-      <c r="AB39" s="34"/>
-      <c r="AC39" s="34"/>
+      <c r="AA39" s="34"/>
+      <c r="AB39" s="35"/>
+      <c r="AC39" s="35"/>
     </row>
     <row r="40" ht="314" spans="1:29">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="8" t="s">
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G40" s="8">
-        <v>6</v>
-      </c>
-      <c r="H40" s="13">
-        <v>6</v>
-      </c>
-      <c r="I40" s="18">
-        <v>1</v>
-      </c>
-      <c r="J40" s="19"/>
-      <c r="K40" s="20">
-        <v>1</v>
-      </c>
-      <c r="L40" s="21"/>
+      <c r="G40" s="9">
+        <v>6</v>
+      </c>
+      <c r="H40" s="14">
+        <v>6</v>
+      </c>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20">
+        <v>1</v>
+      </c>
+      <c r="K40" s="21"/>
+      <c r="L40" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="M40" s="24"/>
       <c r="N40" s="25"/>
       <c r="O40" s="26"/>
@@ -3796,96 +3840,98 @@
       <c r="R40" s="24"/>
       <c r="S40" s="24"/>
       <c r="T40" s="24"/>
-      <c r="U40" s="31">
+      <c r="U40" s="32">
         <v>6</v>
       </c>
       <c r="V40" s="24"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="32"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="33"/>
       <c r="Y40" s="25"/>
       <c r="Z40" s="26"/>
-      <c r="AA40" s="33"/>
-      <c r="AB40" s="34"/>
-      <c r="AC40" s="34"/>
+      <c r="AA40" s="34"/>
+      <c r="AB40" s="35"/>
+      <c r="AC40" s="35"/>
     </row>
     <row r="41" ht="294" spans="1:29">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="8" t="s">
+      <c r="B41" s="7"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="8">
-        <v>6</v>
-      </c>
-      <c r="H41" s="14">
-        <v>6</v>
-      </c>
-      <c r="I41" s="18">
-        <v>1</v>
-      </c>
-      <c r="J41" s="22"/>
-      <c r="K41" s="23">
-        <v>1</v>
-      </c>
-      <c r="L41" s="21"/>
+      <c r="G41" s="9">
+        <v>6</v>
+      </c>
+      <c r="H41" s="15">
+        <v>6</v>
+      </c>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20">
+        <v>1</v>
+      </c>
+      <c r="K41" s="23"/>
+      <c r="L41" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="M41" s="28"/>
-      <c r="N41" s="21"/>
+      <c r="N41" s="29"/>
       <c r="O41" s="26"/>
-      <c r="P41" s="29"/>
+      <c r="P41" s="30"/>
       <c r="Q41" s="26"/>
       <c r="R41" s="28"/>
       <c r="S41" s="28"/>
       <c r="T41" s="28"/>
-      <c r="U41" s="31">
+      <c r="U41" s="32">
         <v>6</v>
       </c>
       <c r="V41" s="28"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="32"/>
-      <c r="Y41" s="21"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="33"/>
+      <c r="Y41" s="29"/>
       <c r="Z41" s="26"/>
-      <c r="AA41" s="33"/>
-      <c r="AB41" s="34"/>
-      <c r="AC41" s="34"/>
+      <c r="AA41" s="34"/>
+      <c r="AB41" s="35"/>
+      <c r="AC41" s="35"/>
     </row>
     <row r="42" ht="294" spans="1:29">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="8" t="s">
+      <c r="B42" s="7"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="F42" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G42" s="8">
-        <v>6</v>
-      </c>
-      <c r="H42" s="13">
-        <v>6</v>
-      </c>
-      <c r="I42" s="18">
-        <v>1</v>
-      </c>
-      <c r="J42" s="19"/>
-      <c r="K42" s="20">
-        <v>1</v>
-      </c>
-      <c r="L42" s="21"/>
+      <c r="G42" s="9">
+        <v>6</v>
+      </c>
+      <c r="H42" s="14">
+        <v>6</v>
+      </c>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20">
+        <v>1</v>
+      </c>
+      <c r="K42" s="21"/>
+      <c r="L42" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="M42" s="24"/>
       <c r="N42" s="25"/>
       <c r="O42" s="26"/>
@@ -3894,96 +3940,98 @@
       <c r="R42" s="24"/>
       <c r="S42" s="24"/>
       <c r="T42" s="24"/>
-      <c r="U42" s="31">
+      <c r="U42" s="32">
         <v>6</v>
       </c>
       <c r="V42" s="24"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="32"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="33"/>
       <c r="Y42" s="25"/>
       <c r="Z42" s="26"/>
-      <c r="AA42" s="33"/>
-      <c r="AB42" s="34"/>
-      <c r="AC42" s="34"/>
+      <c r="AA42" s="34"/>
+      <c r="AB42" s="35"/>
+      <c r="AC42" s="35"/>
     </row>
     <row r="43" ht="157" spans="1:29">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="8" t="s">
+      <c r="B43" s="7"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F43" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="9">
         <v>5</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H43" s="15">
         <v>5</v>
       </c>
-      <c r="I43" s="18">
-        <v>1</v>
-      </c>
-      <c r="J43" s="22"/>
-      <c r="K43" s="23">
-        <v>1</v>
-      </c>
-      <c r="L43" s="21"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20">
+        <v>1</v>
+      </c>
+      <c r="K43" s="23"/>
+      <c r="L43" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="M43" s="28"/>
-      <c r="N43" s="21"/>
+      <c r="N43" s="29"/>
       <c r="O43" s="26"/>
-      <c r="P43" s="29"/>
+      <c r="P43" s="30"/>
       <c r="Q43" s="26"/>
       <c r="R43" s="28"/>
       <c r="S43" s="28"/>
       <c r="T43" s="28"/>
-      <c r="U43" s="31">
+      <c r="U43" s="32">
         <v>5</v>
       </c>
       <c r="V43" s="28"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="32"/>
-      <c r="Y43" s="21"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="33"/>
+      <c r="Y43" s="29"/>
       <c r="Z43" s="26"/>
-      <c r="AA43" s="33"/>
-      <c r="AB43" s="34"/>
-      <c r="AC43" s="34"/>
+      <c r="AA43" s="34"/>
+      <c r="AB43" s="35"/>
+      <c r="AC43" s="35"/>
     </row>
     <row r="44" ht="275" spans="1:29">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="8" t="s">
+      <c r="B44" s="7"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="9">
         <v>5</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H44" s="14">
         <v>5</v>
       </c>
-      <c r="I44" s="18">
-        <v>1</v>
-      </c>
-      <c r="J44" s="19"/>
-      <c r="K44" s="20">
-        <v>1</v>
-      </c>
-      <c r="L44" s="21"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20">
+        <v>1</v>
+      </c>
+      <c r="K44" s="21"/>
+      <c r="L44" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="M44" s="24"/>
       <c r="N44" s="25"/>
       <c r="O44" s="26"/>
@@ -3992,96 +4040,98 @@
       <c r="R44" s="24"/>
       <c r="S44" s="24"/>
       <c r="T44" s="24"/>
-      <c r="U44" s="31">
+      <c r="U44" s="32">
         <v>5</v>
       </c>
       <c r="V44" s="24"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="32"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="33"/>
       <c r="Y44" s="25"/>
       <c r="Z44" s="26"/>
-      <c r="AA44" s="33"/>
-      <c r="AB44" s="34"/>
-      <c r="AC44" s="34"/>
+      <c r="AA44" s="34"/>
+      <c r="AB44" s="35"/>
+      <c r="AC44" s="35"/>
     </row>
     <row r="45" ht="157" spans="1:29">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="8" t="s">
+      <c r="B45" s="7"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="9">
         <v>5</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H45" s="15">
         <v>5</v>
       </c>
-      <c r="I45" s="18">
-        <v>1</v>
-      </c>
-      <c r="J45" s="22"/>
-      <c r="K45" s="23">
-        <v>1</v>
-      </c>
-      <c r="L45" s="21"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20">
+        <v>1</v>
+      </c>
+      <c r="K45" s="23"/>
+      <c r="L45" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="M45" s="28"/>
-      <c r="N45" s="21"/>
+      <c r="N45" s="29"/>
       <c r="O45" s="26"/>
-      <c r="P45" s="29"/>
+      <c r="P45" s="30"/>
       <c r="Q45" s="26"/>
       <c r="R45" s="28"/>
       <c r="S45" s="28"/>
       <c r="T45" s="28"/>
-      <c r="U45" s="31">
+      <c r="U45" s="32">
         <v>5</v>
       </c>
       <c r="V45" s="28"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="32"/>
-      <c r="Y45" s="21"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="33"/>
+      <c r="Y45" s="29"/>
       <c r="Z45" s="26"/>
-      <c r="AA45" s="33"/>
-      <c r="AB45" s="34"/>
-      <c r="AC45" s="34"/>
+      <c r="AA45" s="34"/>
+      <c r="AB45" s="35"/>
+      <c r="AC45" s="35"/>
     </row>
     <row r="46" ht="294" spans="1:29">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="8" t="s">
+      <c r="B46" s="7"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E46" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="9">
         <v>5</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H46" s="14">
         <v>5</v>
       </c>
-      <c r="I46" s="18">
-        <v>1</v>
-      </c>
-      <c r="J46" s="19"/>
-      <c r="K46" s="20">
-        <v>1</v>
-      </c>
-      <c r="L46" s="21"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20">
+        <v>1</v>
+      </c>
+      <c r="K46" s="21"/>
+      <c r="L46" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="M46" s="24"/>
       <c r="N46" s="25"/>
       <c r="O46" s="26"/>
@@ -4090,96 +4140,98 @@
       <c r="R46" s="24"/>
       <c r="S46" s="24"/>
       <c r="T46" s="24"/>
-      <c r="U46" s="31">
+      <c r="U46" s="32">
         <v>5</v>
       </c>
       <c r="V46" s="24"/>
-      <c r="W46" s="5"/>
-      <c r="X46" s="32"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="33"/>
       <c r="Y46" s="25"/>
       <c r="Z46" s="26"/>
-      <c r="AA46" s="33"/>
-      <c r="AB46" s="34"/>
-      <c r="AC46" s="34"/>
+      <c r="AA46" s="34"/>
+      <c r="AB46" s="35"/>
+      <c r="AC46" s="35"/>
     </row>
     <row r="47" ht="177" spans="1:29">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="8" t="s">
+      <c r="B47" s="7"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="F47" s="12" t="s">
+      <c r="F47" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="9">
         <v>18</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H47" s="15">
         <v>18</v>
       </c>
-      <c r="I47" s="18">
-        <v>1</v>
-      </c>
-      <c r="J47" s="22"/>
-      <c r="K47" s="23">
-        <v>1</v>
-      </c>
-      <c r="L47" s="21"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20">
+        <v>1</v>
+      </c>
+      <c r="K47" s="23"/>
+      <c r="L47" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="M47" s="28"/>
-      <c r="N47" s="21"/>
+      <c r="N47" s="29"/>
       <c r="O47" s="26"/>
-      <c r="P47" s="29"/>
+      <c r="P47" s="30"/>
       <c r="Q47" s="26"/>
       <c r="R47" s="28"/>
       <c r="S47" s="28"/>
       <c r="T47" s="28"/>
-      <c r="U47" s="31">
+      <c r="U47" s="32">
         <v>18</v>
       </c>
       <c r="V47" s="28"/>
-      <c r="W47" s="5"/>
-      <c r="X47" s="32"/>
-      <c r="Y47" s="21"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="33"/>
+      <c r="Y47" s="29"/>
       <c r="Z47" s="26"/>
-      <c r="AA47" s="33"/>
-      <c r="AB47" s="34"/>
-      <c r="AC47" s="34"/>
+      <c r="AA47" s="34"/>
+      <c r="AB47" s="35"/>
+      <c r="AC47" s="35"/>
     </row>
     <row r="48" ht="177" spans="1:29">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="8" t="s">
+      <c r="B48" s="7"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="9">
         <v>18</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H48" s="14">
         <v>18</v>
       </c>
-      <c r="I48" s="18">
-        <v>1</v>
-      </c>
-      <c r="J48" s="19"/>
-      <c r="K48" s="20">
-        <v>1</v>
-      </c>
-      <c r="L48" s="21"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20">
+        <v>1</v>
+      </c>
+      <c r="K48" s="21"/>
+      <c r="L48" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="M48" s="24"/>
       <c r="N48" s="25"/>
       <c r="O48" s="26"/>
@@ -4188,96 +4240,98 @@
       <c r="R48" s="24"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
-      <c r="U48" s="31">
+      <c r="U48" s="32">
         <v>18</v>
       </c>
       <c r="V48" s="24"/>
-      <c r="W48" s="5"/>
-      <c r="X48" s="32"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="33"/>
       <c r="Y48" s="25"/>
       <c r="Z48" s="26"/>
-      <c r="AA48" s="33"/>
-      <c r="AB48" s="34"/>
-      <c r="AC48" s="34"/>
+      <c r="AA48" s="34"/>
+      <c r="AB48" s="35"/>
+      <c r="AC48" s="35"/>
     </row>
     <row r="49" ht="177" spans="1:29">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="8" t="s">
+      <c r="B49" s="7"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E49" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F49" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="9">
         <v>18</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H49" s="15">
         <v>18</v>
       </c>
-      <c r="I49" s="18">
-        <v>1</v>
-      </c>
-      <c r="J49" s="22"/>
-      <c r="K49" s="23">
-        <v>1</v>
-      </c>
-      <c r="L49" s="21"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20">
+        <v>1</v>
+      </c>
+      <c r="K49" s="23"/>
+      <c r="L49" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="M49" s="28"/>
-      <c r="N49" s="21"/>
+      <c r="N49" s="29"/>
       <c r="O49" s="26"/>
-      <c r="P49" s="29"/>
+      <c r="P49" s="30"/>
       <c r="Q49" s="26"/>
       <c r="R49" s="28"/>
       <c r="S49" s="28"/>
       <c r="T49" s="28"/>
-      <c r="U49" s="31">
+      <c r="U49" s="32">
         <v>18</v>
       </c>
       <c r="V49" s="28"/>
-      <c r="W49" s="5"/>
-      <c r="X49" s="32"/>
-      <c r="Y49" s="21"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="33"/>
+      <c r="Y49" s="29"/>
       <c r="Z49" s="26"/>
-      <c r="AA49" s="33"/>
-      <c r="AB49" s="34"/>
-      <c r="AC49" s="34"/>
+      <c r="AA49" s="34"/>
+      <c r="AB49" s="35"/>
+      <c r="AC49" s="35"/>
     </row>
     <row r="50" ht="196" spans="1:29">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="8" t="s">
+      <c r="B50" s="7"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="F50" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50" s="9">
         <v>18</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H50" s="14">
         <v>18</v>
       </c>
-      <c r="I50" s="18">
-        <v>1</v>
-      </c>
-      <c r="J50" s="19"/>
-      <c r="K50" s="20">
-        <v>1</v>
-      </c>
-      <c r="L50" s="21"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20">
+        <v>1</v>
+      </c>
+      <c r="K50" s="21"/>
+      <c r="L50" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="M50" s="24"/>
       <c r="N50" s="25"/>
       <c r="O50" s="26"/>
@@ -4286,96 +4340,98 @@
       <c r="R50" s="24"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
-      <c r="U50" s="31">
+      <c r="U50" s="32">
         <v>18</v>
       </c>
       <c r="V50" s="24"/>
-      <c r="W50" s="5"/>
-      <c r="X50" s="32"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="33"/>
       <c r="Y50" s="25"/>
       <c r="Z50" s="26"/>
-      <c r="AA50" s="33"/>
-      <c r="AB50" s="34"/>
-      <c r="AC50" s="34"/>
+      <c r="AA50" s="34"/>
+      <c r="AB50" s="35"/>
+      <c r="AC50" s="35"/>
     </row>
     <row r="51" ht="177" spans="1:29">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="8" t="s">
+      <c r="B51" s="7"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E51" s="12" t="s">
+      <c r="E51" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="F51" s="12" t="s">
+      <c r="F51" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G51" s="9">
         <v>18</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H51" s="15">
         <v>18</v>
       </c>
-      <c r="I51" s="18">
-        <v>1</v>
-      </c>
-      <c r="J51" s="22"/>
-      <c r="K51" s="23">
-        <v>1</v>
-      </c>
-      <c r="L51" s="21"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20">
+        <v>1</v>
+      </c>
+      <c r="K51" s="23"/>
+      <c r="L51" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="M51" s="28"/>
-      <c r="N51" s="21"/>
+      <c r="N51" s="29"/>
       <c r="O51" s="26"/>
-      <c r="P51" s="29"/>
+      <c r="P51" s="30"/>
       <c r="Q51" s="26"/>
       <c r="R51" s="28"/>
       <c r="S51" s="28"/>
       <c r="T51" s="28"/>
-      <c r="U51" s="31">
+      <c r="U51" s="32">
         <v>18</v>
       </c>
       <c r="V51" s="28"/>
-      <c r="W51" s="5"/>
-      <c r="X51" s="32"/>
-      <c r="Y51" s="21"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="33"/>
+      <c r="Y51" s="29"/>
       <c r="Z51" s="26"/>
-      <c r="AA51" s="33"/>
-      <c r="AB51" s="34"/>
-      <c r="AC51" s="34"/>
+      <c r="AA51" s="34"/>
+      <c r="AB51" s="35"/>
+      <c r="AC51" s="35"/>
     </row>
     <row r="52" ht="157" spans="1:29">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="8" t="s">
+      <c r="B52" s="7"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E52" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="F52" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G52" s="9">
         <v>30</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H52" s="14">
         <v>30</v>
       </c>
-      <c r="I52" s="18">
+      <c r="I52" s="20"/>
+      <c r="J52" s="20">
         <v>2</v>
       </c>
-      <c r="J52" s="19"/>
-      <c r="K52" s="20">
+      <c r="K52" s="21"/>
+      <c r="L52" s="22">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L52" s="21"/>
       <c r="M52" s="24"/>
       <c r="N52" s="25"/>
       <c r="O52" s="26"/>
@@ -4384,96 +4440,98 @@
       <c r="R52" s="24"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
-      <c r="U52" s="31">
+      <c r="U52" s="32">
         <v>30</v>
       </c>
       <c r="V52" s="24"/>
-      <c r="W52" s="5"/>
-      <c r="X52" s="32"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="33"/>
       <c r="Y52" s="25"/>
       <c r="Z52" s="26"/>
-      <c r="AA52" s="33"/>
-      <c r="AB52" s="34"/>
-      <c r="AC52" s="34"/>
+      <c r="AA52" s="34"/>
+      <c r="AB52" s="35"/>
+      <c r="AC52" s="35"/>
     </row>
     <row r="53" ht="157" spans="1:29">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="8" t="s">
+      <c r="B53" s="7"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E53" s="12" t="s">
+      <c r="E53" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="F53" s="12" t="s">
+      <c r="F53" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G53" s="9">
         <v>30</v>
       </c>
-      <c r="H53" s="14">
+      <c r="H53" s="15">
         <v>30</v>
       </c>
-      <c r="I53" s="18">
-        <v>1</v>
-      </c>
-      <c r="J53" s="22"/>
-      <c r="K53" s="23">
-        <v>1</v>
-      </c>
-      <c r="L53" s="21"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20">
+        <v>1</v>
+      </c>
+      <c r="K53" s="23"/>
+      <c r="L53" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="M53" s="28"/>
-      <c r="N53" s="21"/>
+      <c r="N53" s="29"/>
       <c r="O53" s="26"/>
-      <c r="P53" s="29"/>
+      <c r="P53" s="30"/>
       <c r="Q53" s="26"/>
       <c r="R53" s="28"/>
       <c r="S53" s="28"/>
       <c r="T53" s="28"/>
-      <c r="U53" s="31">
+      <c r="U53" s="32">
         <v>30</v>
       </c>
       <c r="V53" s="28"/>
-      <c r="W53" s="5"/>
-      <c r="X53" s="32"/>
-      <c r="Y53" s="21"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="33"/>
+      <c r="Y53" s="29"/>
       <c r="Z53" s="26"/>
-      <c r="AA53" s="33"/>
-      <c r="AB53" s="34"/>
-      <c r="AC53" s="34"/>
+      <c r="AA53" s="34"/>
+      <c r="AB53" s="35"/>
+      <c r="AC53" s="35"/>
     </row>
     <row r="54" ht="157" spans="1:28">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="8" t="s">
+      <c r="B54" s="7"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E54" s="12" t="s">
+      <c r="E54" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="F54" s="12" t="s">
+      <c r="F54" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G54" s="9">
         <v>25</v>
       </c>
-      <c r="H54" s="13">
+      <c r="H54" s="14">
         <v>25</v>
       </c>
-      <c r="I54" s="18">
-        <v>1</v>
-      </c>
-      <c r="J54" s="19"/>
-      <c r="K54" s="20">
-        <v>1</v>
-      </c>
-      <c r="L54" s="21"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20">
+        <v>1</v>
+      </c>
+      <c r="K54" s="21"/>
+      <c r="L54" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="M54" s="24"/>
       <c r="N54" s="25"/>
       <c r="O54" s="26"/>
@@ -4482,94 +4540,96 @@
       <c r="R54" s="24"/>
       <c r="S54" s="24"/>
       <c r="T54" s="24"/>
-      <c r="U54" s="31">
+      <c r="U54" s="32">
         <v>25</v>
       </c>
       <c r="V54" s="24"/>
-      <c r="W54" s="5"/>
-      <c r="X54" s="32"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="33"/>
       <c r="Y54" s="25"/>
       <c r="Z54" s="26"/>
-      <c r="AA54" s="33"/>
-      <c r="AB54" s="34"/>
+      <c r="AA54" s="34"/>
+      <c r="AB54" s="35"/>
     </row>
     <row r="55" ht="157" spans="1:28">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="8" t="s">
+      <c r="B55" s="7"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E55" s="12" t="s">
+      <c r="E55" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="F55" s="12" t="s">
+      <c r="F55" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G55" s="9">
         <v>30</v>
       </c>
-      <c r="H55" s="14">
+      <c r="H55" s="15">
         <v>30</v>
       </c>
-      <c r="I55" s="18">
-        <v>1</v>
-      </c>
-      <c r="J55" s="22"/>
-      <c r="K55" s="23">
-        <v>1</v>
-      </c>
-      <c r="L55" s="21"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20">
+        <v>1</v>
+      </c>
+      <c r="K55" s="23"/>
+      <c r="L55" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="M55" s="28"/>
-      <c r="N55" s="21"/>
+      <c r="N55" s="29"/>
       <c r="O55" s="26"/>
-      <c r="P55" s="29"/>
+      <c r="P55" s="30"/>
       <c r="Q55" s="26"/>
       <c r="R55" s="28"/>
       <c r="S55" s="28"/>
       <c r="T55" s="28"/>
-      <c r="U55" s="31">
+      <c r="U55" s="32">
         <v>30</v>
       </c>
       <c r="V55" s="28"/>
-      <c r="W55" s="5"/>
-      <c r="X55" s="32"/>
-      <c r="Y55" s="21"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="33"/>
+      <c r="Y55" s="29"/>
       <c r="Z55" s="26"/>
-      <c r="AA55" s="33"/>
-      <c r="AB55" s="34"/>
+      <c r="AA55" s="34"/>
+      <c r="AB55" s="35"/>
     </row>
     <row r="56" ht="177" spans="1:28">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="8" t="s">
+      <c r="B56" s="7"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="E56" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="F56" s="12" t="s">
+      <c r="F56" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G56" s="9">
         <v>25</v>
       </c>
-      <c r="H56" s="13">
+      <c r="H56" s="14">
         <v>25</v>
       </c>
-      <c r="I56" s="18">
-        <v>1</v>
-      </c>
-      <c r="J56" s="19"/>
-      <c r="K56" s="20">
-        <v>1</v>
-      </c>
-      <c r="L56" s="21"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20">
+        <v>1</v>
+      </c>
+      <c r="K56" s="21"/>
+      <c r="L56" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="M56" s="24"/>
       <c r="N56" s="25"/>
       <c r="O56" s="26"/>
@@ -4578,94 +4638,96 @@
       <c r="R56" s="24"/>
       <c r="S56" s="24"/>
       <c r="T56" s="24"/>
-      <c r="U56" s="31">
+      <c r="U56" s="32">
         <v>25</v>
       </c>
       <c r="V56" s="24"/>
-      <c r="W56" s="5"/>
-      <c r="X56" s="32"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="33"/>
       <c r="Y56" s="25"/>
       <c r="Z56" s="26"/>
-      <c r="AA56" s="33"/>
-      <c r="AB56" s="34"/>
+      <c r="AA56" s="34"/>
+      <c r="AB56" s="35"/>
     </row>
     <row r="57" ht="196" spans="1:28">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="8" t="s">
+      <c r="B57" s="7"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="E57" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="F57" s="12" t="s">
+      <c r="F57" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="G57" s="8">
+      <c r="G57" s="9">
         <v>25</v>
       </c>
-      <c r="H57" s="14">
+      <c r="H57" s="15">
         <v>25</v>
       </c>
-      <c r="I57" s="18">
-        <v>1</v>
-      </c>
-      <c r="J57" s="22"/>
-      <c r="K57" s="23">
-        <v>1</v>
-      </c>
-      <c r="L57" s="21"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20">
+        <v>1</v>
+      </c>
+      <c r="K57" s="23"/>
+      <c r="L57" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="M57" s="28"/>
-      <c r="N57" s="21"/>
+      <c r="N57" s="29"/>
       <c r="O57" s="26"/>
-      <c r="P57" s="29"/>
+      <c r="P57" s="30"/>
       <c r="Q57" s="26"/>
       <c r="R57" s="28"/>
       <c r="S57" s="28"/>
       <c r="T57" s="28"/>
-      <c r="U57" s="31">
+      <c r="U57" s="32">
         <v>25</v>
       </c>
       <c r="V57" s="28"/>
-      <c r="W57" s="5"/>
-      <c r="X57" s="32"/>
-      <c r="Y57" s="21"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="33"/>
+      <c r="Y57" s="29"/>
       <c r="Z57" s="26"/>
-      <c r="AA57" s="33"/>
-      <c r="AB57" s="34"/>
+      <c r="AA57" s="34"/>
+      <c r="AB57" s="35"/>
     </row>
     <row r="58" ht="196" spans="1:28">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="8" t="s">
+      <c r="B58" s="7"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E58" s="12" t="s">
+      <c r="E58" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="F58" s="12" t="s">
+      <c r="F58" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G58" s="9">
         <v>25</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H58" s="14">
         <v>25</v>
       </c>
-      <c r="I58" s="18">
-        <v>1</v>
-      </c>
-      <c r="J58" s="19"/>
-      <c r="K58" s="20">
-        <v>1</v>
-      </c>
-      <c r="L58" s="21"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20">
+        <v>1</v>
+      </c>
+      <c r="K58" s="21"/>
+      <c r="L58" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="M58" s="24"/>
       <c r="N58" s="25"/>
       <c r="O58" s="26"/>
@@ -4674,94 +4736,96 @@
       <c r="R58" s="24"/>
       <c r="S58" s="24"/>
       <c r="T58" s="24"/>
-      <c r="U58" s="31">
+      <c r="U58" s="32">
         <v>25</v>
       </c>
       <c r="V58" s="24"/>
-      <c r="W58" s="5"/>
-      <c r="X58" s="32"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="33"/>
       <c r="Y58" s="25"/>
       <c r="Z58" s="26"/>
-      <c r="AA58" s="33"/>
-      <c r="AB58" s="34"/>
+      <c r="AA58" s="34"/>
+      <c r="AB58" s="35"/>
     </row>
     <row r="59" ht="138" spans="1:28">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="8" t="s">
+      <c r="B59" s="7"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E59" s="12" t="s">
+      <c r="E59" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="F59" s="12" t="s">
+      <c r="F59" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G59" s="9">
         <v>35</v>
       </c>
-      <c r="H59" s="14">
+      <c r="H59" s="15">
         <v>35</v>
       </c>
-      <c r="I59" s="18">
-        <v>1</v>
-      </c>
-      <c r="J59" s="22"/>
-      <c r="K59" s="23">
-        <v>1</v>
-      </c>
-      <c r="L59" s="21"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20">
+        <v>1</v>
+      </c>
+      <c r="K59" s="23"/>
+      <c r="L59" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="M59" s="28"/>
-      <c r="N59" s="21"/>
+      <c r="N59" s="29"/>
       <c r="O59" s="26"/>
-      <c r="P59" s="29"/>
+      <c r="P59" s="30"/>
       <c r="Q59" s="26"/>
       <c r="R59" s="28"/>
       <c r="S59" s="28"/>
       <c r="T59" s="28"/>
-      <c r="U59" s="31">
+      <c r="U59" s="32">
         <v>35</v>
       </c>
       <c r="V59" s="28"/>
-      <c r="W59" s="5"/>
-      <c r="X59" s="32"/>
-      <c r="Y59" s="21"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="33"/>
+      <c r="Y59" s="29"/>
       <c r="Z59" s="26"/>
-      <c r="AA59" s="33"/>
-      <c r="AB59" s="34"/>
+      <c r="AA59" s="34"/>
+      <c r="AB59" s="35"/>
     </row>
     <row r="60" ht="157" spans="1:28">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="8" t="s">
+      <c r="B60" s="7"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E60" s="12" t="s">
+      <c r="E60" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="F60" s="12" t="s">
+      <c r="F60" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G60" s="8">
+      <c r="G60" s="9">
         <v>25</v>
       </c>
-      <c r="H60" s="13">
+      <c r="H60" s="14">
         <v>25</v>
       </c>
-      <c r="I60" s="18">
-        <v>1</v>
-      </c>
-      <c r="J60" s="19"/>
-      <c r="K60" s="20">
-        <v>1</v>
-      </c>
-      <c r="L60" s="21"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20">
+        <v>1</v>
+      </c>
+      <c r="K60" s="21"/>
+      <c r="L60" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="M60" s="24"/>
       <c r="N60" s="25"/>
       <c r="O60" s="26"/>
@@ -4770,94 +4834,96 @@
       <c r="R60" s="24"/>
       <c r="S60" s="24"/>
       <c r="T60" s="24"/>
-      <c r="U60" s="31">
+      <c r="U60" s="32">
         <v>25</v>
       </c>
       <c r="V60" s="24"/>
-      <c r="W60" s="5"/>
-      <c r="X60" s="32"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="33"/>
       <c r="Y60" s="25"/>
       <c r="Z60" s="26"/>
-      <c r="AA60" s="33"/>
-      <c r="AB60" s="34"/>
+      <c r="AA60" s="34"/>
+      <c r="AB60" s="35"/>
     </row>
     <row r="61" ht="138" spans="1:28">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="8" t="s">
+      <c r="B61" s="7"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="E61" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="F61" s="12" t="s">
+      <c r="F61" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G61" s="8">
+      <c r="G61" s="9">
         <v>30</v>
       </c>
-      <c r="H61" s="14">
+      <c r="H61" s="15">
         <v>30</v>
       </c>
-      <c r="I61" s="18">
+      <c r="I61" s="20"/>
+      <c r="J61" s="20">
         <v>2</v>
       </c>
-      <c r="J61" s="22"/>
-      <c r="K61" s="23">
+      <c r="K61" s="23"/>
+      <c r="L61" s="22">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L61" s="21"/>
       <c r="M61" s="28"/>
-      <c r="N61" s="21"/>
+      <c r="N61" s="29"/>
       <c r="O61" s="26"/>
-      <c r="P61" s="29"/>
+      <c r="P61" s="30"/>
       <c r="Q61" s="26"/>
       <c r="R61" s="28"/>
       <c r="S61" s="28"/>
       <c r="T61" s="28"/>
-      <c r="U61" s="31">
+      <c r="U61" s="32">
         <v>30</v>
       </c>
       <c r="V61" s="28"/>
-      <c r="W61" s="5"/>
-      <c r="X61" s="32"/>
-      <c r="Y61" s="21"/>
+      <c r="W61" s="6"/>
+      <c r="X61" s="33"/>
+      <c r="Y61" s="29"/>
       <c r="Z61" s="26"/>
-      <c r="AA61" s="33"/>
-      <c r="AB61" s="34"/>
+      <c r="AA61" s="34"/>
+      <c r="AB61" s="35"/>
     </row>
     <row r="62" ht="216" spans="1:28">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="8" t="s">
+      <c r="B62" s="7"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E62" s="12" t="s">
+      <c r="E62" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="F62" s="12" t="s">
+      <c r="F62" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G62" s="8">
+      <c r="G62" s="9">
         <v>25</v>
       </c>
-      <c r="H62" s="13">
+      <c r="H62" s="14">
         <v>25</v>
       </c>
-      <c r="I62" s="18">
-        <v>1</v>
-      </c>
-      <c r="J62" s="19"/>
-      <c r="K62" s="20">
-        <v>1</v>
-      </c>
-      <c r="L62" s="21"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20">
+        <v>1</v>
+      </c>
+      <c r="K62" s="21"/>
+      <c r="L62" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="M62" s="24"/>
       <c r="N62" s="25"/>
       <c r="O62" s="26"/>
@@ -4866,94 +4932,96 @@
       <c r="R62" s="24"/>
       <c r="S62" s="24"/>
       <c r="T62" s="24"/>
-      <c r="U62" s="31">
+      <c r="U62" s="32">
         <v>25</v>
       </c>
       <c r="V62" s="24"/>
-      <c r="W62" s="5"/>
-      <c r="X62" s="32"/>
+      <c r="W62" s="6"/>
+      <c r="X62" s="33"/>
       <c r="Y62" s="25"/>
       <c r="Z62" s="26"/>
-      <c r="AA62" s="33"/>
-      <c r="AB62" s="34"/>
+      <c r="AA62" s="34"/>
+      <c r="AB62" s="35"/>
     </row>
     <row r="63" ht="196" spans="1:28">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="8" t="s">
+      <c r="B63" s="7"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E63" s="12" t="s">
+      <c r="E63" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="F63" s="12" t="s">
+      <c r="F63" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G63" s="9">
         <v>25</v>
       </c>
-      <c r="H63" s="14">
+      <c r="H63" s="15">
         <v>25</v>
       </c>
-      <c r="I63" s="18">
-        <v>1</v>
-      </c>
-      <c r="J63" s="22"/>
-      <c r="K63" s="23">
-        <v>1</v>
-      </c>
-      <c r="L63" s="21"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20">
+        <v>1</v>
+      </c>
+      <c r="K63" s="23"/>
+      <c r="L63" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="M63" s="28"/>
-      <c r="N63" s="21"/>
+      <c r="N63" s="29"/>
       <c r="O63" s="26"/>
-      <c r="P63" s="29"/>
+      <c r="P63" s="30"/>
       <c r="Q63" s="26"/>
       <c r="R63" s="28"/>
       <c r="S63" s="28"/>
       <c r="T63" s="28"/>
-      <c r="U63" s="31">
+      <c r="U63" s="32">
         <v>25</v>
       </c>
       <c r="V63" s="28"/>
-      <c r="W63" s="5"/>
-      <c r="X63" s="32"/>
-      <c r="Y63" s="21"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="33"/>
+      <c r="Y63" s="29"/>
       <c r="Z63" s="26"/>
-      <c r="AA63" s="33"/>
-      <c r="AB63" s="34"/>
+      <c r="AA63" s="34"/>
+      <c r="AB63" s="35"/>
     </row>
     <row r="64" ht="196" spans="1:28">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="8" t="s">
+      <c r="B64" s="7"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E64" s="12" t="s">
+      <c r="E64" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="F64" s="12" t="s">
+      <c r="F64" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G64" s="9">
         <v>35</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H64" s="14">
         <v>35</v>
       </c>
-      <c r="I64" s="18">
-        <v>1</v>
-      </c>
-      <c r="J64" s="19"/>
-      <c r="K64" s="20">
-        <v>1</v>
-      </c>
-      <c r="L64" s="21"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20">
+        <v>1</v>
+      </c>
+      <c r="K64" s="21"/>
+      <c r="L64" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="M64" s="24"/>
       <c r="N64" s="25"/>
       <c r="O64" s="26"/>
@@ -4962,94 +5030,96 @@
       <c r="R64" s="24"/>
       <c r="S64" s="24"/>
       <c r="T64" s="24"/>
-      <c r="U64" s="31">
+      <c r="U64" s="32">
         <v>35</v>
       </c>
       <c r="V64" s="24"/>
-      <c r="W64" s="5"/>
-      <c r="X64" s="32"/>
+      <c r="W64" s="6"/>
+      <c r="X64" s="33"/>
       <c r="Y64" s="25"/>
       <c r="Z64" s="26"/>
-      <c r="AA64" s="33"/>
-      <c r="AB64" s="34"/>
+      <c r="AA64" s="34"/>
+      <c r="AB64" s="35"/>
     </row>
     <row r="65" ht="157" spans="1:28">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="8" t="s">
+      <c r="B65" s="7"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E65" s="12" t="s">
+      <c r="E65" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="F65" s="12" t="s">
+      <c r="F65" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G65" s="9">
         <v>20</v>
       </c>
-      <c r="H65" s="14">
+      <c r="H65" s="15">
         <v>20</v>
       </c>
-      <c r="I65" s="18">
-        <v>1</v>
-      </c>
-      <c r="J65" s="22"/>
-      <c r="K65" s="23">
-        <v>1</v>
-      </c>
-      <c r="L65" s="21"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20">
+        <v>1</v>
+      </c>
+      <c r="K65" s="23"/>
+      <c r="L65" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="M65" s="28"/>
-      <c r="N65" s="21"/>
+      <c r="N65" s="29"/>
       <c r="O65" s="26"/>
-      <c r="P65" s="29"/>
+      <c r="P65" s="30"/>
       <c r="Q65" s="26"/>
       <c r="R65" s="28"/>
       <c r="S65" s="28"/>
       <c r="T65" s="28"/>
-      <c r="U65" s="31">
+      <c r="U65" s="32">
         <v>20</v>
       </c>
       <c r="V65" s="28"/>
-      <c r="W65" s="5"/>
-      <c r="X65" s="32"/>
-      <c r="Y65" s="21"/>
+      <c r="W65" s="6"/>
+      <c r="X65" s="33"/>
+      <c r="Y65" s="29"/>
       <c r="Z65" s="26"/>
-      <c r="AA65" s="33"/>
-      <c r="AB65" s="34"/>
+      <c r="AA65" s="34"/>
+      <c r="AB65" s="35"/>
     </row>
     <row r="66" ht="196" spans="1:28">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="8" t="s">
+      <c r="B66" s="7"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E66" s="12" t="s">
+      <c r="E66" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="F66" s="12" t="s">
+      <c r="F66" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G66" s="8">
+      <c r="G66" s="9">
         <v>20</v>
       </c>
-      <c r="H66" s="13">
+      <c r="H66" s="14">
         <v>20</v>
       </c>
-      <c r="I66" s="18">
-        <v>1</v>
-      </c>
-      <c r="J66" s="19"/>
-      <c r="K66" s="20">
-        <v>1</v>
-      </c>
-      <c r="L66" s="21"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20">
+        <v>1</v>
+      </c>
+      <c r="K66" s="21"/>
+      <c r="L66" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="M66" s="24"/>
       <c r="N66" s="25"/>
       <c r="O66" s="26"/>
@@ -5058,94 +5128,96 @@
       <c r="R66" s="24"/>
       <c r="S66" s="24"/>
       <c r="T66" s="24"/>
-      <c r="U66" s="31">
+      <c r="U66" s="32">
         <v>20</v>
       </c>
       <c r="V66" s="24"/>
-      <c r="W66" s="5"/>
-      <c r="X66" s="32"/>
+      <c r="W66" s="6"/>
+      <c r="X66" s="33"/>
       <c r="Y66" s="25"/>
       <c r="Z66" s="26"/>
-      <c r="AA66" s="33"/>
-      <c r="AB66" s="34"/>
+      <c r="AA66" s="34"/>
+      <c r="AB66" s="35"/>
     </row>
     <row r="67" ht="177" spans="1:28">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="8" t="s">
+      <c r="B67" s="7"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E67" s="12" t="s">
+      <c r="E67" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="F67" s="12" t="s">
+      <c r="F67" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G67" s="8">
+      <c r="G67" s="9">
         <v>20</v>
       </c>
-      <c r="H67" s="14">
+      <c r="H67" s="15">
         <v>20</v>
       </c>
-      <c r="I67" s="18">
-        <v>1</v>
-      </c>
-      <c r="J67" s="22"/>
-      <c r="K67" s="23">
-        <v>1</v>
-      </c>
-      <c r="L67" s="21"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20">
+        <v>1</v>
+      </c>
+      <c r="K67" s="23"/>
+      <c r="L67" s="22">
+        <f>J67</f>
+        <v>1</v>
+      </c>
       <c r="M67" s="28"/>
-      <c r="N67" s="21"/>
+      <c r="N67" s="29"/>
       <c r="O67" s="26"/>
-      <c r="P67" s="29"/>
+      <c r="P67" s="30"/>
       <c r="Q67" s="26"/>
       <c r="R67" s="28"/>
       <c r="S67" s="28"/>
       <c r="T67" s="28"/>
-      <c r="U67" s="31">
+      <c r="U67" s="32">
         <v>20</v>
       </c>
       <c r="V67" s="28"/>
-      <c r="W67" s="5"/>
-      <c r="X67" s="32"/>
-      <c r="Y67" s="21"/>
+      <c r="W67" s="6"/>
+      <c r="X67" s="33"/>
+      <c r="Y67" s="29"/>
       <c r="Z67" s="26"/>
-      <c r="AA67" s="33"/>
-      <c r="AB67" s="34"/>
+      <c r="AA67" s="34"/>
+      <c r="AB67" s="35"/>
     </row>
     <row r="68" ht="118" spans="1:28">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B68" s="6"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="8" t="s">
+      <c r="B68" s="7"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E68" s="12" t="s">
+      <c r="E68" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="F68" s="12" t="s">
+      <c r="F68" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G68" s="8">
+      <c r="G68" s="9">
         <v>18</v>
       </c>
-      <c r="H68" s="13">
+      <c r="H68" s="14">
         <v>18</v>
       </c>
-      <c r="I68" s="18">
-        <v>1</v>
-      </c>
-      <c r="J68" s="19"/>
-      <c r="K68" s="20">
-        <v>1</v>
-      </c>
-      <c r="L68" s="21"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="20">
+        <v>1</v>
+      </c>
+      <c r="K68" s="21"/>
+      <c r="L68" s="22">
+        <f>J68</f>
+        <v>1</v>
+      </c>
       <c r="M68" s="24"/>
       <c r="N68" s="25"/>
       <c r="O68" s="26"/>
@@ -5154,94 +5226,96 @@
       <c r="R68" s="24"/>
       <c r="S68" s="24"/>
       <c r="T68" s="24"/>
-      <c r="U68" s="31">
+      <c r="U68" s="32">
         <v>18</v>
       </c>
       <c r="V68" s="24"/>
-      <c r="W68" s="5"/>
-      <c r="X68" s="32"/>
+      <c r="W68" s="6"/>
+      <c r="X68" s="33"/>
       <c r="Y68" s="25"/>
       <c r="Z68" s="26"/>
-      <c r="AA68" s="33"/>
-      <c r="AB68" s="34"/>
+      <c r="AA68" s="34"/>
+      <c r="AB68" s="35"/>
     </row>
     <row r="69" ht="157" spans="1:28">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="8" t="s">
+      <c r="B69" s="7"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E69" s="12" t="s">
+      <c r="E69" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="F69" s="12" t="s">
+      <c r="F69" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G69" s="8">
+      <c r="G69" s="9">
         <v>25</v>
       </c>
-      <c r="H69" s="14">
+      <c r="H69" s="15">
         <v>25</v>
       </c>
-      <c r="I69" s="18">
-        <v>1</v>
-      </c>
-      <c r="J69" s="22"/>
-      <c r="K69" s="23">
-        <v>1</v>
-      </c>
-      <c r="L69" s="21"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20">
+        <v>1</v>
+      </c>
+      <c r="K69" s="23"/>
+      <c r="L69" s="22">
+        <f>J69</f>
+        <v>1</v>
+      </c>
       <c r="M69" s="28"/>
-      <c r="N69" s="21"/>
+      <c r="N69" s="29"/>
       <c r="O69" s="26"/>
-      <c r="P69" s="29"/>
+      <c r="P69" s="30"/>
       <c r="Q69" s="26"/>
       <c r="R69" s="28"/>
       <c r="S69" s="28"/>
       <c r="T69" s="28"/>
-      <c r="U69" s="31">
+      <c r="U69" s="32">
         <v>25</v>
       </c>
       <c r="V69" s="28"/>
-      <c r="W69" s="5"/>
-      <c r="X69" s="32"/>
-      <c r="Y69" s="21"/>
+      <c r="W69" s="6"/>
+      <c r="X69" s="33"/>
+      <c r="Y69" s="29"/>
       <c r="Z69" s="26"/>
-      <c r="AA69" s="33"/>
-      <c r="AB69" s="34"/>
+      <c r="AA69" s="34"/>
+      <c r="AB69" s="35"/>
     </row>
     <row r="70" ht="118" spans="1:28">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B70" s="6"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="8" t="s">
+      <c r="B70" s="7"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E70" s="12" t="s">
+      <c r="E70" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="F70" s="12" t="s">
+      <c r="F70" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G70" s="8">
+      <c r="G70" s="9">
         <v>20</v>
       </c>
-      <c r="H70" s="13">
+      <c r="H70" s="14">
         <v>20</v>
       </c>
-      <c r="I70" s="18">
-        <v>1</v>
-      </c>
-      <c r="J70" s="19"/>
-      <c r="K70" s="20">
-        <v>1</v>
-      </c>
-      <c r="L70" s="21"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20">
+        <v>1</v>
+      </c>
+      <c r="K70" s="21"/>
+      <c r="L70" s="22">
+        <f>J70</f>
+        <v>1</v>
+      </c>
       <c r="M70" s="24"/>
       <c r="N70" s="25"/>
       <c r="O70" s="26"/>
@@ -5250,94 +5324,96 @@
       <c r="R70" s="24"/>
       <c r="S70" s="24"/>
       <c r="T70" s="24"/>
-      <c r="U70" s="31">
+      <c r="U70" s="32">
         <v>20</v>
       </c>
       <c r="V70" s="24"/>
-      <c r="W70" s="5"/>
-      <c r="X70" s="32"/>
+      <c r="W70" s="6"/>
+      <c r="X70" s="33"/>
       <c r="Y70" s="25"/>
       <c r="Z70" s="26"/>
-      <c r="AA70" s="33"/>
-      <c r="AB70" s="34"/>
+      <c r="AA70" s="34"/>
+      <c r="AB70" s="35"/>
     </row>
     <row r="71" ht="216" spans="1:28">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="8" t="s">
+      <c r="B71" s="7"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E71" s="12" t="s">
+      <c r="E71" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="F71" s="12" t="s">
+      <c r="F71" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G71" s="9">
         <v>30</v>
       </c>
-      <c r="H71" s="14">
+      <c r="H71" s="15">
         <v>30</v>
       </c>
-      <c r="I71" s="18">
-        <v>1</v>
-      </c>
-      <c r="J71" s="22"/>
-      <c r="K71" s="23">
-        <v>1</v>
-      </c>
-      <c r="L71" s="21"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20">
+        <v>1</v>
+      </c>
+      <c r="K71" s="23"/>
+      <c r="L71" s="22">
+        <f>J71</f>
+        <v>1</v>
+      </c>
       <c r="M71" s="28"/>
-      <c r="N71" s="21"/>
+      <c r="N71" s="29"/>
       <c r="O71" s="26"/>
-      <c r="P71" s="29"/>
+      <c r="P71" s="30"/>
       <c r="Q71" s="26"/>
       <c r="R71" s="28"/>
       <c r="S71" s="28"/>
       <c r="T71" s="28"/>
-      <c r="U71" s="31">
+      <c r="U71" s="32">
         <v>30</v>
       </c>
       <c r="V71" s="28"/>
-      <c r="W71" s="5"/>
-      <c r="X71" s="32"/>
-      <c r="Y71" s="21"/>
+      <c r="W71" s="6"/>
+      <c r="X71" s="33"/>
+      <c r="Y71" s="29"/>
       <c r="Z71" s="26"/>
-      <c r="AA71" s="33"/>
-      <c r="AB71" s="34"/>
+      <c r="AA71" s="34"/>
+      <c r="AB71" s="35"/>
     </row>
     <row r="72" ht="196" spans="1:28">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="8" t="s">
+      <c r="B72" s="7"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E72" s="12" t="s">
+      <c r="E72" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="F72" s="12" t="s">
+      <c r="F72" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G72" s="8">
+      <c r="G72" s="9">
         <v>30</v>
       </c>
-      <c r="H72" s="13">
+      <c r="H72" s="14">
         <v>30</v>
       </c>
-      <c r="I72" s="18">
-        <v>1</v>
-      </c>
-      <c r="J72" s="19"/>
-      <c r="K72" s="20">
-        <v>1</v>
-      </c>
-      <c r="L72" s="21"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="20">
+        <v>1</v>
+      </c>
+      <c r="K72" s="21"/>
+      <c r="L72" s="22">
+        <f>J72</f>
+        <v>1</v>
+      </c>
       <c r="M72" s="24"/>
       <c r="N72" s="25"/>
       <c r="O72" s="26"/>
@@ -5346,94 +5422,96 @@
       <c r="R72" s="24"/>
       <c r="S72" s="24"/>
       <c r="T72" s="24"/>
-      <c r="U72" s="31">
+      <c r="U72" s="32">
         <v>30</v>
       </c>
       <c r="V72" s="24"/>
-      <c r="W72" s="5"/>
-      <c r="X72" s="32"/>
+      <c r="W72" s="6"/>
+      <c r="X72" s="33"/>
       <c r="Y72" s="25"/>
       <c r="Z72" s="26"/>
-      <c r="AA72" s="33"/>
-      <c r="AB72" s="34"/>
+      <c r="AA72" s="34"/>
+      <c r="AB72" s="35"/>
     </row>
     <row r="73" ht="138" spans="1:28">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B73" s="6"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="8" t="s">
+      <c r="B73" s="7"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E73" s="12" t="s">
+      <c r="E73" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="F73" s="12" t="s">
+      <c r="F73" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G73" s="8">
+      <c r="G73" s="9">
         <v>30</v>
       </c>
-      <c r="H73" s="14">
+      <c r="H73" s="15">
         <v>30</v>
       </c>
-      <c r="I73" s="18">
-        <v>1</v>
-      </c>
-      <c r="J73" s="22"/>
-      <c r="K73" s="23">
-        <v>1</v>
-      </c>
-      <c r="L73" s="21"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20">
+        <v>1</v>
+      </c>
+      <c r="K73" s="23"/>
+      <c r="L73" s="22">
+        <f>J73</f>
+        <v>1</v>
+      </c>
       <c r="M73" s="28"/>
-      <c r="N73" s="21"/>
+      <c r="N73" s="29"/>
       <c r="O73" s="26"/>
-      <c r="P73" s="29"/>
+      <c r="P73" s="30"/>
       <c r="Q73" s="26"/>
       <c r="R73" s="28"/>
       <c r="S73" s="28"/>
       <c r="T73" s="28"/>
-      <c r="U73" s="31">
+      <c r="U73" s="32">
         <v>30</v>
       </c>
       <c r="V73" s="28"/>
-      <c r="W73" s="5"/>
-      <c r="X73" s="32"/>
-      <c r="Y73" s="21"/>
+      <c r="W73" s="6"/>
+      <c r="X73" s="33"/>
+      <c r="Y73" s="29"/>
       <c r="Z73" s="26"/>
-      <c r="AA73" s="33"/>
-      <c r="AB73" s="34"/>
+      <c r="AA73" s="34"/>
+      <c r="AB73" s="35"/>
     </row>
     <row r="74" ht="196" spans="1:28">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B74" s="6"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="8" t="s">
+      <c r="B74" s="7"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E74" s="12" t="s">
+      <c r="E74" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="F74" s="12" t="s">
+      <c r="F74" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G74" s="8">
+      <c r="G74" s="9">
         <v>30</v>
       </c>
-      <c r="H74" s="13">
+      <c r="H74" s="14">
         <v>30</v>
       </c>
-      <c r="I74" s="18">
-        <v>1</v>
-      </c>
-      <c r="J74" s="19"/>
-      <c r="K74" s="20">
-        <v>1</v>
-      </c>
-      <c r="L74" s="21"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="20">
+        <v>1</v>
+      </c>
+      <c r="K74" s="21"/>
+      <c r="L74" s="22">
+        <f>J74</f>
+        <v>1</v>
+      </c>
       <c r="M74" s="24"/>
       <c r="N74" s="25"/>
       <c r="O74" s="26"/>
@@ -5442,94 +5520,96 @@
       <c r="R74" s="24"/>
       <c r="S74" s="24"/>
       <c r="T74" s="24"/>
-      <c r="U74" s="31">
+      <c r="U74" s="32">
         <v>30</v>
       </c>
       <c r="V74" s="24"/>
-      <c r="W74" s="5"/>
-      <c r="X74" s="32"/>
+      <c r="W74" s="6"/>
+      <c r="X74" s="33"/>
       <c r="Y74" s="25"/>
       <c r="Z74" s="26"/>
-      <c r="AA74" s="33"/>
-      <c r="AB74" s="34"/>
+      <c r="AA74" s="34"/>
+      <c r="AB74" s="35"/>
     </row>
     <row r="75" ht="157" spans="1:28">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="8" t="s">
+      <c r="B75" s="7"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E75" s="12" t="s">
+      <c r="E75" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F75" s="12" t="s">
+      <c r="F75" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G75" s="8">
+      <c r="G75" s="9">
         <v>30</v>
       </c>
-      <c r="H75" s="14">
+      <c r="H75" s="15">
         <v>30</v>
       </c>
-      <c r="I75" s="18">
+      <c r="I75" s="20"/>
+      <c r="J75" s="20">
         <v>0</v>
       </c>
-      <c r="J75" s="22"/>
-      <c r="K75" s="23">
+      <c r="K75" s="23"/>
+      <c r="L75" s="22">
+        <f>J75</f>
         <v>0</v>
       </c>
-      <c r="L75" s="21"/>
       <c r="M75" s="28"/>
-      <c r="N75" s="21"/>
+      <c r="N75" s="29"/>
       <c r="O75" s="26"/>
-      <c r="P75" s="29"/>
+      <c r="P75" s="30"/>
       <c r="Q75" s="26"/>
       <c r="R75" s="28"/>
       <c r="S75" s="28"/>
       <c r="T75" s="28"/>
-      <c r="U75" s="31">
+      <c r="U75" s="32">
         <v>30</v>
       </c>
       <c r="V75" s="28"/>
-      <c r="W75" s="5"/>
-      <c r="X75" s="32"/>
-      <c r="Y75" s="21"/>
+      <c r="W75" s="6"/>
+      <c r="X75" s="33"/>
+      <c r="Y75" s="29"/>
       <c r="Z75" s="26"/>
-      <c r="AA75" s="33"/>
-      <c r="AB75" s="34"/>
+      <c r="AA75" s="34"/>
+      <c r="AB75" s="35"/>
     </row>
     <row r="76" ht="157" spans="1:28">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B76" s="6"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="8" t="s">
+      <c r="B76" s="7"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E76" s="12" t="s">
+      <c r="E76" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="F76" s="12" t="s">
+      <c r="F76" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="G76" s="8">
+      <c r="G76" s="9">
         <v>30</v>
       </c>
-      <c r="H76" s="13">
+      <c r="H76" s="14">
         <v>30</v>
       </c>
-      <c r="I76" s="18">
-        <v>1</v>
-      </c>
-      <c r="J76" s="19"/>
-      <c r="K76" s="20">
-        <v>1</v>
-      </c>
-      <c r="L76" s="21"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="20">
+        <v>1</v>
+      </c>
+      <c r="K76" s="21"/>
+      <c r="L76" s="22">
+        <f>J76</f>
+        <v>1</v>
+      </c>
       <c r="M76" s="24"/>
       <c r="N76" s="25"/>
       <c r="O76" s="26"/>
@@ -5538,94 +5618,96 @@
       <c r="R76" s="24"/>
       <c r="S76" s="24"/>
       <c r="T76" s="24"/>
-      <c r="U76" s="31">
+      <c r="U76" s="32">
         <v>30</v>
       </c>
       <c r="V76" s="24"/>
-      <c r="W76" s="5"/>
-      <c r="X76" s="32"/>
+      <c r="W76" s="6"/>
+      <c r="X76" s="33"/>
       <c r="Y76" s="25"/>
       <c r="Z76" s="26"/>
-      <c r="AA76" s="33"/>
-      <c r="AB76" s="34"/>
+      <c r="AA76" s="34"/>
+      <c r="AB76" s="35"/>
     </row>
     <row r="77" ht="177" spans="1:28">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B77" s="6"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="8" t="s">
+      <c r="B77" s="7"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E77" s="12" t="s">
+      <c r="E77" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="F77" s="12" t="s">
+      <c r="F77" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G77" s="9">
         <v>35</v>
       </c>
-      <c r="H77" s="14">
+      <c r="H77" s="15">
         <v>35</v>
       </c>
-      <c r="I77" s="18">
-        <v>1</v>
-      </c>
-      <c r="J77" s="22"/>
-      <c r="K77" s="23">
-        <v>1</v>
-      </c>
-      <c r="L77" s="21"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="20">
+        <v>1</v>
+      </c>
+      <c r="K77" s="23"/>
+      <c r="L77" s="22">
+        <f>J77</f>
+        <v>1</v>
+      </c>
       <c r="M77" s="28"/>
-      <c r="N77" s="21"/>
+      <c r="N77" s="29"/>
       <c r="O77" s="26"/>
-      <c r="P77" s="29"/>
+      <c r="P77" s="30"/>
       <c r="Q77" s="26"/>
       <c r="R77" s="28"/>
       <c r="S77" s="28"/>
       <c r="T77" s="28"/>
-      <c r="U77" s="31">
+      <c r="U77" s="32">
         <v>35</v>
       </c>
       <c r="V77" s="28"/>
-      <c r="W77" s="5"/>
-      <c r="X77" s="32"/>
-      <c r="Y77" s="21"/>
+      <c r="W77" s="6"/>
+      <c r="X77" s="33"/>
+      <c r="Y77" s="29"/>
       <c r="Z77" s="26"/>
-      <c r="AA77" s="33"/>
-      <c r="AB77" s="34"/>
+      <c r="AA77" s="34"/>
+      <c r="AB77" s="35"/>
     </row>
     <row r="78" ht="177" spans="1:28">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B78" s="6"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="8" t="s">
+      <c r="B78" s="7"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E78" s="12" t="s">
+      <c r="E78" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="F78" s="12" t="s">
+      <c r="F78" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="G78" s="8">
+      <c r="G78" s="9">
         <v>40</v>
       </c>
-      <c r="H78" s="13">
+      <c r="H78" s="14">
         <v>40</v>
       </c>
-      <c r="I78" s="18">
-        <v>1</v>
-      </c>
-      <c r="J78" s="19"/>
-      <c r="K78" s="20">
-        <v>1</v>
-      </c>
-      <c r="L78" s="21"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="20">
+        <v>1</v>
+      </c>
+      <c r="K78" s="21"/>
+      <c r="L78" s="22">
+        <f>J78</f>
+        <v>1</v>
+      </c>
       <c r="M78" s="24"/>
       <c r="N78" s="25"/>
       <c r="O78" s="26"/>
@@ -5634,16 +5716,16 @@
       <c r="R78" s="24"/>
       <c r="S78" s="24"/>
       <c r="T78" s="24"/>
-      <c r="U78" s="31">
+      <c r="U78" s="32">
         <v>40</v>
       </c>
       <c r="V78" s="24"/>
-      <c r="W78" s="5"/>
-      <c r="X78" s="32"/>
+      <c r="W78" s="6"/>
+      <c r="X78" s="33"/>
       <c r="Y78" s="25"/>
       <c r="Z78" s="26"/>
-      <c r="AA78" s="33"/>
-      <c r="AB78" s="34"/>
+      <c r="AA78" s="34"/>
+      <c r="AB78" s="35"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
@@ -5654,11 +5736,6 @@
   <conditionalFormatting sqref="C2:C78">
     <cfRule type="expression" dxfId="0" priority="13">
       <formula>$L1048576=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J78">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$L2=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K78">

--- a/VentasLETTAShop.xlsx
+++ b/VentasLETTAShop.xlsx
@@ -613,12 +613,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.0"/>
-    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -677,6 +677,21 @@
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -686,7 +701,46 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -702,7 +756,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,21 +778,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,21 +807,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -760,62 +814,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -872,13 +872,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,13 +920,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,13 +932,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,7 +968,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,109 +1022,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,11 +1101,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1114,7 +1120,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1134,32 +1140,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1179,11 +1164,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1198,153 +1189,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1802,8 +1802,8 @@
   <sheetPr/>
   <dimension ref="A1:AC78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="47" zoomScaleNormal="47" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2"/>
+    <sheetView tabSelected="1" zoomScale="47" zoomScaleNormal="47" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="AA61" sqref="AA61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1940,10 +1940,10 @@
       <c r="R2" s="24"/>
       <c r="S2" s="24"/>
       <c r="T2" s="24"/>
-      <c r="U2" s="32">
+      <c r="U2" s="32"/>
+      <c r="V2" s="32">
         <v>40</v>
       </c>
-      <c r="V2" s="24"/>
       <c r="W2" s="6"/>
       <c r="X2" s="33"/>
       <c r="Y2" s="25"/>
@@ -1990,10 +1990,10 @@
       <c r="R3" s="28"/>
       <c r="S3" s="28"/>
       <c r="T3" s="28"/>
-      <c r="U3" s="32">
+      <c r="U3" s="32"/>
+      <c r="V3" s="32">
         <v>40</v>
       </c>
-      <c r="V3" s="28"/>
       <c r="W3" s="6"/>
       <c r="X3" s="33"/>
       <c r="Y3" s="29"/>
@@ -2040,10 +2040,10 @@
       <c r="R4" s="24"/>
       <c r="S4" s="24"/>
       <c r="T4" s="24"/>
-      <c r="U4" s="32">
+      <c r="U4" s="32"/>
+      <c r="V4" s="32">
         <v>18</v>
       </c>
-      <c r="V4" s="24"/>
       <c r="W4" s="6"/>
       <c r="X4" s="33"/>
       <c r="Y4" s="25"/>
@@ -2090,10 +2090,10 @@
       <c r="R5" s="28"/>
       <c r="S5" s="28"/>
       <c r="T5" s="28"/>
-      <c r="U5" s="32">
+      <c r="U5" s="32"/>
+      <c r="V5" s="32">
         <v>20</v>
       </c>
-      <c r="V5" s="28"/>
       <c r="W5" s="6"/>
       <c r="X5" s="33"/>
       <c r="Y5" s="29"/>
@@ -2140,10 +2140,10 @@
       <c r="R6" s="24"/>
       <c r="S6" s="24"/>
       <c r="T6" s="24"/>
-      <c r="U6" s="32">
+      <c r="U6" s="32"/>
+      <c r="V6" s="32">
         <v>20</v>
       </c>
-      <c r="V6" s="24"/>
       <c r="W6" s="6"/>
       <c r="X6" s="33"/>
       <c r="Y6" s="25"/>
@@ -2190,10 +2190,10 @@
       <c r="R7" s="28"/>
       <c r="S7" s="28"/>
       <c r="T7" s="28"/>
-      <c r="U7" s="32">
+      <c r="U7" s="32"/>
+      <c r="V7" s="32">
         <v>20</v>
       </c>
-      <c r="V7" s="28"/>
       <c r="W7" s="6"/>
       <c r="X7" s="33"/>
       <c r="Y7" s="29"/>
@@ -2240,10 +2240,10 @@
       <c r="R8" s="24"/>
       <c r="S8" s="24"/>
       <c r="T8" s="24"/>
-      <c r="U8" s="32">
+      <c r="U8" s="32"/>
+      <c r="V8" s="32">
         <v>18</v>
       </c>
-      <c r="V8" s="24"/>
       <c r="W8" s="6"/>
       <c r="X8" s="33"/>
       <c r="Y8" s="25"/>
@@ -2290,10 +2290,10 @@
       <c r="R9" s="28"/>
       <c r="S9" s="28"/>
       <c r="T9" s="28"/>
-      <c r="U9" s="32">
+      <c r="U9" s="32"/>
+      <c r="V9" s="32">
         <v>18</v>
       </c>
-      <c r="V9" s="28"/>
       <c r="W9" s="6"/>
       <c r="X9" s="33"/>
       <c r="Y9" s="29"/>
@@ -2340,10 +2340,10 @@
       <c r="R10" s="24"/>
       <c r="S10" s="24"/>
       <c r="T10" s="24"/>
-      <c r="U10" s="32">
+      <c r="U10" s="32"/>
+      <c r="V10" s="32">
         <v>15</v>
       </c>
-      <c r="V10" s="24"/>
       <c r="W10" s="6"/>
       <c r="X10" s="33"/>
       <c r="Y10" s="25"/>
@@ -2390,10 +2390,10 @@
       <c r="R11" s="28"/>
       <c r="S11" s="28"/>
       <c r="T11" s="28"/>
-      <c r="U11" s="32">
+      <c r="U11" s="32"/>
+      <c r="V11" s="32">
         <v>25</v>
       </c>
-      <c r="V11" s="28"/>
       <c r="W11" s="6"/>
       <c r="X11" s="33"/>
       <c r="Y11" s="29"/>
@@ -2440,10 +2440,10 @@
       <c r="R12" s="24"/>
       <c r="S12" s="24"/>
       <c r="T12" s="24"/>
-      <c r="U12" s="32">
+      <c r="U12" s="32"/>
+      <c r="V12" s="32">
         <v>25</v>
       </c>
-      <c r="V12" s="24"/>
       <c r="W12" s="6"/>
       <c r="X12" s="33"/>
       <c r="Y12" s="25"/>
@@ -2490,10 +2490,10 @@
       <c r="R13" s="28"/>
       <c r="S13" s="28"/>
       <c r="T13" s="28"/>
-      <c r="U13" s="32">
+      <c r="U13" s="32"/>
+      <c r="V13" s="32">
         <v>20</v>
       </c>
-      <c r="V13" s="28"/>
       <c r="W13" s="6"/>
       <c r="X13" s="33"/>
       <c r="Y13" s="29"/>
@@ -2540,10 +2540,10 @@
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
       <c r="T14" s="24"/>
-      <c r="U14" s="32">
+      <c r="U14" s="32"/>
+      <c r="V14" s="32">
         <v>20</v>
       </c>
-      <c r="V14" s="24"/>
       <c r="W14" s="6"/>
       <c r="X14" s="33"/>
       <c r="Y14" s="25"/>
@@ -2590,10 +2590,10 @@
       <c r="R15" s="28"/>
       <c r="S15" s="28"/>
       <c r="T15" s="28"/>
-      <c r="U15" s="32">
-        <v>6</v>
-      </c>
-      <c r="V15" s="28"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32">
+        <v>6</v>
+      </c>
       <c r="W15" s="6"/>
       <c r="X15" s="33"/>
       <c r="Y15" s="29"/>
@@ -2640,10 +2640,10 @@
       <c r="R16" s="24"/>
       <c r="S16" s="24"/>
       <c r="T16" s="24"/>
-      <c r="U16" s="32">
-        <v>6</v>
-      </c>
-      <c r="V16" s="24"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32">
+        <v>6</v>
+      </c>
       <c r="W16" s="6"/>
       <c r="X16" s="33"/>
       <c r="Y16" s="25"/>
@@ -2690,10 +2690,10 @@
       <c r="R17" s="28"/>
       <c r="S17" s="28"/>
       <c r="T17" s="28"/>
-      <c r="U17" s="32">
-        <v>6</v>
-      </c>
-      <c r="V17" s="28"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32">
+        <v>6</v>
+      </c>
       <c r="W17" s="6"/>
       <c r="X17" s="33"/>
       <c r="Y17" s="29"/>
@@ -2740,10 +2740,10 @@
       <c r="R18" s="24"/>
       <c r="S18" s="24"/>
       <c r="T18" s="24"/>
-      <c r="U18" s="32">
-        <v>6</v>
-      </c>
-      <c r="V18" s="24"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32">
+        <v>6</v>
+      </c>
       <c r="W18" s="6"/>
       <c r="X18" s="33"/>
       <c r="Y18" s="25"/>
@@ -2790,10 +2790,10 @@
       <c r="R19" s="28"/>
       <c r="S19" s="28"/>
       <c r="T19" s="28"/>
-      <c r="U19" s="32">
-        <v>6</v>
-      </c>
-      <c r="V19" s="28"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32">
+        <v>6</v>
+      </c>
       <c r="W19" s="6"/>
       <c r="X19" s="33"/>
       <c r="Y19" s="29"/>
@@ -2840,10 +2840,10 @@
       <c r="R20" s="24"/>
       <c r="S20" s="24"/>
       <c r="T20" s="24"/>
-      <c r="U20" s="32">
-        <v>6</v>
-      </c>
-      <c r="V20" s="24"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32">
+        <v>6</v>
+      </c>
       <c r="W20" s="6"/>
       <c r="X20" s="33"/>
       <c r="Y20" s="25"/>
@@ -2890,10 +2890,10 @@
       <c r="R21" s="28"/>
       <c r="S21" s="28"/>
       <c r="T21" s="28"/>
-      <c r="U21" s="32">
-        <v>6</v>
-      </c>
-      <c r="V21" s="28"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32">
+        <v>6</v>
+      </c>
       <c r="W21" s="6"/>
       <c r="X21" s="33"/>
       <c r="Y21" s="29"/>
@@ -2940,10 +2940,10 @@
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
       <c r="T22" s="24"/>
-      <c r="U22" s="32">
-        <v>6</v>
-      </c>
-      <c r="V22" s="24"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32">
+        <v>6</v>
+      </c>
       <c r="W22" s="6"/>
       <c r="X22" s="33"/>
       <c r="Y22" s="25"/>
@@ -2990,10 +2990,10 @@
       <c r="R23" s="28"/>
       <c r="S23" s="28"/>
       <c r="T23" s="28"/>
-      <c r="U23" s="32">
-        <v>6</v>
-      </c>
-      <c r="V23" s="28"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32">
+        <v>6</v>
+      </c>
       <c r="W23" s="6"/>
       <c r="X23" s="33"/>
       <c r="Y23" s="29"/>
@@ -3040,10 +3040,10 @@
       <c r="R24" s="24"/>
       <c r="S24" s="24"/>
       <c r="T24" s="24"/>
-      <c r="U24" s="32">
-        <v>6</v>
-      </c>
-      <c r="V24" s="24"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32">
+        <v>6</v>
+      </c>
       <c r="W24" s="6"/>
       <c r="X24" s="33"/>
       <c r="Y24" s="25"/>
@@ -3090,10 +3090,10 @@
       <c r="R25" s="28"/>
       <c r="S25" s="28"/>
       <c r="T25" s="28"/>
-      <c r="U25" s="32">
-        <v>6</v>
-      </c>
-      <c r="V25" s="28"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32">
+        <v>6</v>
+      </c>
       <c r="W25" s="6"/>
       <c r="X25" s="33"/>
       <c r="Y25" s="29"/>
@@ -3140,10 +3140,10 @@
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
       <c r="T26" s="24"/>
-      <c r="U26" s="32">
-        <v>6</v>
-      </c>
-      <c r="V26" s="24"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32">
+        <v>6</v>
+      </c>
       <c r="W26" s="6"/>
       <c r="X26" s="33"/>
       <c r="Y26" s="25"/>
@@ -3190,10 +3190,10 @@
       <c r="R27" s="28"/>
       <c r="S27" s="28"/>
       <c r="T27" s="28"/>
-      <c r="U27" s="32">
-        <v>6</v>
-      </c>
-      <c r="V27" s="28"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32">
+        <v>6</v>
+      </c>
       <c r="W27" s="6"/>
       <c r="X27" s="33"/>
       <c r="Y27" s="29"/>
@@ -3240,10 +3240,10 @@
       <c r="R28" s="24"/>
       <c r="S28" s="24"/>
       <c r="T28" s="24"/>
-      <c r="U28" s="32">
-        <v>6</v>
-      </c>
-      <c r="V28" s="24"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32">
+        <v>6</v>
+      </c>
       <c r="W28" s="6"/>
       <c r="X28" s="33"/>
       <c r="Y28" s="25"/>
@@ -3290,10 +3290,10 @@
       <c r="R29" s="28"/>
       <c r="S29" s="28"/>
       <c r="T29" s="28"/>
-      <c r="U29" s="32">
-        <v>6</v>
-      </c>
-      <c r="V29" s="28"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32">
+        <v>6</v>
+      </c>
       <c r="W29" s="6"/>
       <c r="X29" s="33"/>
       <c r="Y29" s="29"/>
@@ -3340,10 +3340,10 @@
       <c r="R30" s="24"/>
       <c r="S30" s="24"/>
       <c r="T30" s="24"/>
-      <c r="U30" s="32">
+      <c r="U30" s="32"/>
+      <c r="V30" s="32">
         <v>15</v>
       </c>
-      <c r="V30" s="24"/>
       <c r="W30" s="6"/>
       <c r="X30" s="33"/>
       <c r="Y30" s="25"/>
@@ -3390,10 +3390,10 @@
       <c r="R31" s="28"/>
       <c r="S31" s="28"/>
       <c r="T31" s="28"/>
-      <c r="U31" s="32">
-        <v>6</v>
-      </c>
-      <c r="V31" s="28"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32">
+        <v>6</v>
+      </c>
       <c r="W31" s="6"/>
       <c r="X31" s="33"/>
       <c r="Y31" s="29"/>
@@ -3440,10 +3440,10 @@
       <c r="R32" s="24"/>
       <c r="S32" s="24"/>
       <c r="T32" s="24"/>
-      <c r="U32" s="32">
-        <v>6</v>
-      </c>
-      <c r="V32" s="24"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32">
+        <v>6</v>
+      </c>
       <c r="W32" s="6"/>
       <c r="X32" s="33"/>
       <c r="Y32" s="25"/>
@@ -3490,10 +3490,10 @@
       <c r="R33" s="28"/>
       <c r="S33" s="28"/>
       <c r="T33" s="28"/>
-      <c r="U33" s="32">
-        <v>6</v>
-      </c>
-      <c r="V33" s="28"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32">
+        <v>6</v>
+      </c>
       <c r="W33" s="6"/>
       <c r="X33" s="33"/>
       <c r="Y33" s="29"/>
@@ -3540,10 +3540,10 @@
       <c r="R34" s="24"/>
       <c r="S34" s="24"/>
       <c r="T34" s="24"/>
-      <c r="U34" s="32">
-        <v>6</v>
-      </c>
-      <c r="V34" s="24"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32">
+        <v>6</v>
+      </c>
       <c r="W34" s="6"/>
       <c r="X34" s="33"/>
       <c r="Y34" s="25"/>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="K35" s="23"/>
       <c r="L35" s="22">
-        <f t="shared" ref="L35:L66" si="1">J35</f>
+        <f t="shared" ref="L35:L78" si="1">J35</f>
         <v>1</v>
       </c>
       <c r="M35" s="28"/>
@@ -3590,10 +3590,10 @@
       <c r="R35" s="28"/>
       <c r="S35" s="28"/>
       <c r="T35" s="28"/>
-      <c r="U35" s="32">
-        <v>6</v>
-      </c>
-      <c r="V35" s="28"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="32">
+        <v>6</v>
+      </c>
       <c r="W35" s="6"/>
       <c r="X35" s="33"/>
       <c r="Y35" s="29"/>
@@ -3640,10 +3640,10 @@
       <c r="R36" s="24"/>
       <c r="S36" s="24"/>
       <c r="T36" s="24"/>
-      <c r="U36" s="32">
-        <v>6</v>
-      </c>
-      <c r="V36" s="24"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32">
+        <v>6</v>
+      </c>
       <c r="W36" s="6"/>
       <c r="X36" s="33"/>
       <c r="Y36" s="25"/>
@@ -3690,10 +3690,10 @@
       <c r="R37" s="28"/>
       <c r="S37" s="28"/>
       <c r="T37" s="28"/>
-      <c r="U37" s="32">
-        <v>6</v>
-      </c>
-      <c r="V37" s="28"/>
+      <c r="U37" s="32"/>
+      <c r="V37" s="32">
+        <v>6</v>
+      </c>
       <c r="W37" s="6"/>
       <c r="X37" s="33"/>
       <c r="Y37" s="29"/>
@@ -3740,10 +3740,10 @@
       <c r="R38" s="24"/>
       <c r="S38" s="24"/>
       <c r="T38" s="24"/>
-      <c r="U38" s="32">
-        <v>6</v>
-      </c>
-      <c r="V38" s="24"/>
+      <c r="U38" s="32"/>
+      <c r="V38" s="32">
+        <v>6</v>
+      </c>
       <c r="W38" s="6"/>
       <c r="X38" s="33"/>
       <c r="Y38" s="25"/>
@@ -3790,10 +3790,10 @@
       <c r="R39" s="28"/>
       <c r="S39" s="28"/>
       <c r="T39" s="28"/>
-      <c r="U39" s="32">
-        <v>6</v>
-      </c>
-      <c r="V39" s="28"/>
+      <c r="U39" s="32"/>
+      <c r="V39" s="32">
+        <v>6</v>
+      </c>
       <c r="W39" s="6"/>
       <c r="X39" s="33"/>
       <c r="Y39" s="29"/>
@@ -3840,10 +3840,10 @@
       <c r="R40" s="24"/>
       <c r="S40" s="24"/>
       <c r="T40" s="24"/>
-      <c r="U40" s="32">
-        <v>6</v>
-      </c>
-      <c r="V40" s="24"/>
+      <c r="U40" s="32"/>
+      <c r="V40" s="32">
+        <v>6</v>
+      </c>
       <c r="W40" s="6"/>
       <c r="X40" s="33"/>
       <c r="Y40" s="25"/>
@@ -3890,10 +3890,10 @@
       <c r="R41" s="28"/>
       <c r="S41" s="28"/>
       <c r="T41" s="28"/>
-      <c r="U41" s="32">
-        <v>6</v>
-      </c>
-      <c r="V41" s="28"/>
+      <c r="U41" s="32"/>
+      <c r="V41" s="32">
+        <v>6</v>
+      </c>
       <c r="W41" s="6"/>
       <c r="X41" s="33"/>
       <c r="Y41" s="29"/>
@@ -3940,10 +3940,10 @@
       <c r="R42" s="24"/>
       <c r="S42" s="24"/>
       <c r="T42" s="24"/>
-      <c r="U42" s="32">
-        <v>6</v>
-      </c>
-      <c r="V42" s="24"/>
+      <c r="U42" s="32"/>
+      <c r="V42" s="32">
+        <v>6</v>
+      </c>
       <c r="W42" s="6"/>
       <c r="X42" s="33"/>
       <c r="Y42" s="25"/>
@@ -3990,10 +3990,10 @@
       <c r="R43" s="28"/>
       <c r="S43" s="28"/>
       <c r="T43" s="28"/>
-      <c r="U43" s="32">
+      <c r="U43" s="32"/>
+      <c r="V43" s="32">
         <v>5</v>
       </c>
-      <c r="V43" s="28"/>
       <c r="W43" s="6"/>
       <c r="X43" s="33"/>
       <c r="Y43" s="29"/>
@@ -4040,10 +4040,10 @@
       <c r="R44" s="24"/>
       <c r="S44" s="24"/>
       <c r="T44" s="24"/>
-      <c r="U44" s="32">
+      <c r="U44" s="32"/>
+      <c r="V44" s="32">
         <v>5</v>
       </c>
-      <c r="V44" s="24"/>
       <c r="W44" s="6"/>
       <c r="X44" s="33"/>
       <c r="Y44" s="25"/>
@@ -4090,10 +4090,10 @@
       <c r="R45" s="28"/>
       <c r="S45" s="28"/>
       <c r="T45" s="28"/>
-      <c r="U45" s="32">
+      <c r="U45" s="32"/>
+      <c r="V45" s="32">
         <v>5</v>
       </c>
-      <c r="V45" s="28"/>
       <c r="W45" s="6"/>
       <c r="X45" s="33"/>
       <c r="Y45" s="29"/>
@@ -4140,10 +4140,10 @@
       <c r="R46" s="24"/>
       <c r="S46" s="24"/>
       <c r="T46" s="24"/>
-      <c r="U46" s="32">
+      <c r="U46" s="32"/>
+      <c r="V46" s="32">
         <v>5</v>
       </c>
-      <c r="V46" s="24"/>
       <c r="W46" s="6"/>
       <c r="X46" s="33"/>
       <c r="Y46" s="25"/>
@@ -4190,10 +4190,10 @@
       <c r="R47" s="28"/>
       <c r="S47" s="28"/>
       <c r="T47" s="28"/>
-      <c r="U47" s="32">
+      <c r="U47" s="32"/>
+      <c r="V47" s="32">
         <v>18</v>
       </c>
-      <c r="V47" s="28"/>
       <c r="W47" s="6"/>
       <c r="X47" s="33"/>
       <c r="Y47" s="29"/>
@@ -4240,10 +4240,10 @@
       <c r="R48" s="24"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
-      <c r="U48" s="32">
+      <c r="U48" s="32"/>
+      <c r="V48" s="32">
         <v>18</v>
       </c>
-      <c r="V48" s="24"/>
       <c r="W48" s="6"/>
       <c r="X48" s="33"/>
       <c r="Y48" s="25"/>
@@ -4290,10 +4290,10 @@
       <c r="R49" s="28"/>
       <c r="S49" s="28"/>
       <c r="T49" s="28"/>
-      <c r="U49" s="32">
+      <c r="U49" s="32"/>
+      <c r="V49" s="32">
         <v>18</v>
       </c>
-      <c r="V49" s="28"/>
       <c r="W49" s="6"/>
       <c r="X49" s="33"/>
       <c r="Y49" s="29"/>
@@ -4340,10 +4340,10 @@
       <c r="R50" s="24"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
-      <c r="U50" s="32">
+      <c r="U50" s="32"/>
+      <c r="V50" s="32">
         <v>18</v>
       </c>
-      <c r="V50" s="24"/>
       <c r="W50" s="6"/>
       <c r="X50" s="33"/>
       <c r="Y50" s="25"/>
@@ -4390,10 +4390,10 @@
       <c r="R51" s="28"/>
       <c r="S51" s="28"/>
       <c r="T51" s="28"/>
-      <c r="U51" s="32">
+      <c r="U51" s="32"/>
+      <c r="V51" s="32">
         <v>18</v>
       </c>
-      <c r="V51" s="28"/>
       <c r="W51" s="6"/>
       <c r="X51" s="33"/>
       <c r="Y51" s="29"/>
@@ -4440,10 +4440,10 @@
       <c r="R52" s="24"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
-      <c r="U52" s="32">
+      <c r="U52" s="32"/>
+      <c r="V52" s="32">
         <v>30</v>
       </c>
-      <c r="V52" s="24"/>
       <c r="W52" s="6"/>
       <c r="X52" s="33"/>
       <c r="Y52" s="25"/>
@@ -4490,10 +4490,10 @@
       <c r="R53" s="28"/>
       <c r="S53" s="28"/>
       <c r="T53" s="28"/>
-      <c r="U53" s="32">
+      <c r="U53" s="32"/>
+      <c r="V53" s="32">
         <v>30</v>
       </c>
-      <c r="V53" s="28"/>
       <c r="W53" s="6"/>
       <c r="X53" s="33"/>
       <c r="Y53" s="29"/>
@@ -4540,10 +4540,10 @@
       <c r="R54" s="24"/>
       <c r="S54" s="24"/>
       <c r="T54" s="24"/>
-      <c r="U54" s="32">
+      <c r="U54" s="32"/>
+      <c r="V54" s="32">
         <v>25</v>
       </c>
-      <c r="V54" s="24"/>
       <c r="W54" s="6"/>
       <c r="X54" s="33"/>
       <c r="Y54" s="25"/>
@@ -4589,10 +4589,10 @@
       <c r="R55" s="28"/>
       <c r="S55" s="28"/>
       <c r="T55" s="28"/>
-      <c r="U55" s="32">
+      <c r="U55" s="32"/>
+      <c r="V55" s="32">
         <v>30</v>
       </c>
-      <c r="V55" s="28"/>
       <c r="W55" s="6"/>
       <c r="X55" s="33"/>
       <c r="Y55" s="29"/>
@@ -4638,10 +4638,10 @@
       <c r="R56" s="24"/>
       <c r="S56" s="24"/>
       <c r="T56" s="24"/>
-      <c r="U56" s="32">
+      <c r="U56" s="32"/>
+      <c r="V56" s="32">
         <v>25</v>
       </c>
-      <c r="V56" s="24"/>
       <c r="W56" s="6"/>
       <c r="X56" s="33"/>
       <c r="Y56" s="25"/>
@@ -4687,10 +4687,10 @@
       <c r="R57" s="28"/>
       <c r="S57" s="28"/>
       <c r="T57" s="28"/>
-      <c r="U57" s="32">
+      <c r="U57" s="32"/>
+      <c r="V57" s="32">
         <v>25</v>
       </c>
-      <c r="V57" s="28"/>
       <c r="W57" s="6"/>
       <c r="X57" s="33"/>
       <c r="Y57" s="29"/>
@@ -4736,10 +4736,10 @@
       <c r="R58" s="24"/>
       <c r="S58" s="24"/>
       <c r="T58" s="24"/>
-      <c r="U58" s="32">
+      <c r="U58" s="32"/>
+      <c r="V58" s="32">
         <v>25</v>
       </c>
-      <c r="V58" s="24"/>
       <c r="W58" s="6"/>
       <c r="X58" s="33"/>
       <c r="Y58" s="25"/>
@@ -4785,10 +4785,10 @@
       <c r="R59" s="28"/>
       <c r="S59" s="28"/>
       <c r="T59" s="28"/>
-      <c r="U59" s="32">
+      <c r="U59" s="32"/>
+      <c r="V59" s="32">
         <v>35</v>
       </c>
-      <c r="V59" s="28"/>
       <c r="W59" s="6"/>
       <c r="X59" s="33"/>
       <c r="Y59" s="29"/>
@@ -4834,10 +4834,10 @@
       <c r="R60" s="24"/>
       <c r="S60" s="24"/>
       <c r="T60" s="24"/>
-      <c r="U60" s="32">
+      <c r="U60" s="32"/>
+      <c r="V60" s="32">
         <v>25</v>
       </c>
-      <c r="V60" s="24"/>
       <c r="W60" s="6"/>
       <c r="X60" s="33"/>
       <c r="Y60" s="25"/>
@@ -4883,10 +4883,10 @@
       <c r="R61" s="28"/>
       <c r="S61" s="28"/>
       <c r="T61" s="28"/>
-      <c r="U61" s="32">
+      <c r="U61" s="32"/>
+      <c r="V61" s="32">
         <v>30</v>
       </c>
-      <c r="V61" s="28"/>
       <c r="W61" s="6"/>
       <c r="X61" s="33"/>
       <c r="Y61" s="29"/>
@@ -4932,10 +4932,10 @@
       <c r="R62" s="24"/>
       <c r="S62" s="24"/>
       <c r="T62" s="24"/>
-      <c r="U62" s="32">
+      <c r="U62" s="32"/>
+      <c r="V62" s="32">
         <v>25</v>
       </c>
-      <c r="V62" s="24"/>
       <c r="W62" s="6"/>
       <c r="X62" s="33"/>
       <c r="Y62" s="25"/>
@@ -4981,10 +4981,10 @@
       <c r="R63" s="28"/>
       <c r="S63" s="28"/>
       <c r="T63" s="28"/>
-      <c r="U63" s="32">
+      <c r="U63" s="32"/>
+      <c r="V63" s="32">
         <v>25</v>
       </c>
-      <c r="V63" s="28"/>
       <c r="W63" s="6"/>
       <c r="X63" s="33"/>
       <c r="Y63" s="29"/>
@@ -5030,10 +5030,10 @@
       <c r="R64" s="24"/>
       <c r="S64" s="24"/>
       <c r="T64" s="24"/>
-      <c r="U64" s="32">
+      <c r="U64" s="32"/>
+      <c r="V64" s="32">
         <v>35</v>
       </c>
-      <c r="V64" s="24"/>
       <c r="W64" s="6"/>
       <c r="X64" s="33"/>
       <c r="Y64" s="25"/>
@@ -5079,10 +5079,10 @@
       <c r="R65" s="28"/>
       <c r="S65" s="28"/>
       <c r="T65" s="28"/>
-      <c r="U65" s="32">
+      <c r="U65" s="32"/>
+      <c r="V65" s="32">
         <v>20</v>
       </c>
-      <c r="V65" s="28"/>
       <c r="W65" s="6"/>
       <c r="X65" s="33"/>
       <c r="Y65" s="29"/>
@@ -5128,10 +5128,10 @@
       <c r="R66" s="24"/>
       <c r="S66" s="24"/>
       <c r="T66" s="24"/>
-      <c r="U66" s="32">
+      <c r="U66" s="32"/>
+      <c r="V66" s="32">
         <v>20</v>
       </c>
-      <c r="V66" s="24"/>
       <c r="W66" s="6"/>
       <c r="X66" s="33"/>
       <c r="Y66" s="25"/>
@@ -5166,7 +5166,7 @@
       </c>
       <c r="K67" s="23"/>
       <c r="L67" s="22">
-        <f>J67</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M67" s="28"/>
@@ -5177,10 +5177,10 @@
       <c r="R67" s="28"/>
       <c r="S67" s="28"/>
       <c r="T67" s="28"/>
-      <c r="U67" s="32">
+      <c r="U67" s="32"/>
+      <c r="V67" s="32">
         <v>20</v>
       </c>
-      <c r="V67" s="28"/>
       <c r="W67" s="6"/>
       <c r="X67" s="33"/>
       <c r="Y67" s="29"/>
@@ -5215,7 +5215,7 @@
       </c>
       <c r="K68" s="21"/>
       <c r="L68" s="22">
-        <f>J68</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M68" s="24"/>
@@ -5226,10 +5226,10 @@
       <c r="R68" s="24"/>
       <c r="S68" s="24"/>
       <c r="T68" s="24"/>
-      <c r="U68" s="32">
+      <c r="U68" s="32"/>
+      <c r="V68" s="32">
         <v>18</v>
       </c>
-      <c r="V68" s="24"/>
       <c r="W68" s="6"/>
       <c r="X68" s="33"/>
       <c r="Y68" s="25"/>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="K69" s="23"/>
       <c r="L69" s="22">
-        <f>J69</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M69" s="28"/>
@@ -5275,10 +5275,10 @@
       <c r="R69" s="28"/>
       <c r="S69" s="28"/>
       <c r="T69" s="28"/>
-      <c r="U69" s="32">
+      <c r="U69" s="32"/>
+      <c r="V69" s="32">
         <v>25</v>
       </c>
-      <c r="V69" s="28"/>
       <c r="W69" s="6"/>
       <c r="X69" s="33"/>
       <c r="Y69" s="29"/>
@@ -5313,7 +5313,7 @@
       </c>
       <c r="K70" s="21"/>
       <c r="L70" s="22">
-        <f>J70</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M70" s="24"/>
@@ -5324,10 +5324,10 @@
       <c r="R70" s="24"/>
       <c r="S70" s="24"/>
       <c r="T70" s="24"/>
-      <c r="U70" s="32">
+      <c r="U70" s="32"/>
+      <c r="V70" s="32">
         <v>20</v>
       </c>
-      <c r="V70" s="24"/>
       <c r="W70" s="6"/>
       <c r="X70" s="33"/>
       <c r="Y70" s="25"/>
@@ -5362,7 +5362,7 @@
       </c>
       <c r="K71" s="23"/>
       <c r="L71" s="22">
-        <f>J71</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M71" s="28"/>
@@ -5373,10 +5373,10 @@
       <c r="R71" s="28"/>
       <c r="S71" s="28"/>
       <c r="T71" s="28"/>
-      <c r="U71" s="32">
+      <c r="U71" s="32"/>
+      <c r="V71" s="32">
         <v>30</v>
       </c>
-      <c r="V71" s="28"/>
       <c r="W71" s="6"/>
       <c r="X71" s="33"/>
       <c r="Y71" s="29"/>
@@ -5411,7 +5411,7 @@
       </c>
       <c r="K72" s="21"/>
       <c r="L72" s="22">
-        <f>J72</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M72" s="24"/>
@@ -5422,10 +5422,10 @@
       <c r="R72" s="24"/>
       <c r="S72" s="24"/>
       <c r="T72" s="24"/>
-      <c r="U72" s="32">
+      <c r="U72" s="32"/>
+      <c r="V72" s="32">
         <v>30</v>
       </c>
-      <c r="V72" s="24"/>
       <c r="W72" s="6"/>
       <c r="X72" s="33"/>
       <c r="Y72" s="25"/>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="K73" s="23"/>
       <c r="L73" s="22">
-        <f>J73</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M73" s="28"/>
@@ -5471,10 +5471,10 @@
       <c r="R73" s="28"/>
       <c r="S73" s="28"/>
       <c r="T73" s="28"/>
-      <c r="U73" s="32">
+      <c r="U73" s="32"/>
+      <c r="V73" s="32">
         <v>30</v>
       </c>
-      <c r="V73" s="28"/>
       <c r="W73" s="6"/>
       <c r="X73" s="33"/>
       <c r="Y73" s="29"/>
@@ -5509,7 +5509,7 @@
       </c>
       <c r="K74" s="21"/>
       <c r="L74" s="22">
-        <f>J74</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M74" s="24"/>
@@ -5520,10 +5520,10 @@
       <c r="R74" s="24"/>
       <c r="S74" s="24"/>
       <c r="T74" s="24"/>
-      <c r="U74" s="32">
+      <c r="U74" s="32"/>
+      <c r="V74" s="32">
         <v>30</v>
       </c>
-      <c r="V74" s="24"/>
       <c r="W74" s="6"/>
       <c r="X74" s="33"/>
       <c r="Y74" s="25"/>
@@ -5558,7 +5558,7 @@
       </c>
       <c r="K75" s="23"/>
       <c r="L75" s="22">
-        <f>J75</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M75" s="28"/>
@@ -5569,10 +5569,10 @@
       <c r="R75" s="28"/>
       <c r="S75" s="28"/>
       <c r="T75" s="28"/>
-      <c r="U75" s="32">
+      <c r="U75" s="32"/>
+      <c r="V75" s="32">
         <v>30</v>
       </c>
-      <c r="V75" s="28"/>
       <c r="W75" s="6"/>
       <c r="X75" s="33"/>
       <c r="Y75" s="29"/>
@@ -5607,7 +5607,7 @@
       </c>
       <c r="K76" s="21"/>
       <c r="L76" s="22">
-        <f>J76</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M76" s="24"/>
@@ -5618,10 +5618,10 @@
       <c r="R76" s="24"/>
       <c r="S76" s="24"/>
       <c r="T76" s="24"/>
-      <c r="U76" s="32">
+      <c r="U76" s="32"/>
+      <c r="V76" s="32">
         <v>30</v>
       </c>
-      <c r="V76" s="24"/>
       <c r="W76" s="6"/>
       <c r="X76" s="33"/>
       <c r="Y76" s="25"/>
@@ -5656,7 +5656,7 @@
       </c>
       <c r="K77" s="23"/>
       <c r="L77" s="22">
-        <f>J77</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M77" s="28"/>
@@ -5667,10 +5667,10 @@
       <c r="R77" s="28"/>
       <c r="S77" s="28"/>
       <c r="T77" s="28"/>
-      <c r="U77" s="32">
+      <c r="U77" s="32"/>
+      <c r="V77" s="32">
         <v>35</v>
       </c>
-      <c r="V77" s="28"/>
       <c r="W77" s="6"/>
       <c r="X77" s="33"/>
       <c r="Y77" s="29"/>
@@ -5705,7 +5705,7 @@
       </c>
       <c r="K78" s="21"/>
       <c r="L78" s="22">
-        <f>J78</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M78" s="24"/>
@@ -5716,10 +5716,10 @@
       <c r="R78" s="24"/>
       <c r="S78" s="24"/>
       <c r="T78" s="24"/>
-      <c r="U78" s="32">
+      <c r="U78" s="32"/>
+      <c r="V78" s="32">
         <v>40</v>
       </c>
-      <c r="V78" s="24"/>
       <c r="W78" s="6"/>
       <c r="X78" s="33"/>
       <c r="Y78" s="25"/>

--- a/VentasLETTAShop.xlsx
+++ b/VentasLETTAShop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13260"/>
+    <workbookView windowWidth="12040" windowHeight="8580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
